--- a/summary_qcost.xlsx
+++ b/summary_qcost.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catherine/Documents/GitHub/finals/quantum-logic/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-catsai.FAREAST\Documents\GitHub\quantum-logic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648B36C1-4D0A-2249-94E6-6308002CA94F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31B1FF3-4234-40EB-B134-D2BBD1602244}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6400" yWindow="3040" windowWidth="21600" windowHeight="11380" xr2:uid="{15ABC293-405C-462E-8E8C-BE0E81CEA200}"/>
+    <workbookView xWindow="765" yWindow="1875" windowWidth="21600" windowHeight="11385" xr2:uid="{15ABC293-405C-462E-8E8C-BE0E81CEA200}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <author>Catherine Tsai (Manpower)</author>
   </authors>
   <commentList>
-    <comment ref="U42" authorId="0" shapeId="0" xr:uid="{0F867762-3454-B240-AA51-17E7B8657DF3}">
+    <comment ref="W42" authorId="0" shapeId="0" xr:uid="{0F867762-3454-B240-AA51-17E7B8657DF3}">
       <text>
         <r>
           <rPr>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="18">
   <si>
     <t>Dym-111</t>
   </si>
@@ -95,12 +95,6 @@
     <t>careterms</t>
   </si>
   <si>
-    <t>qGDB</t>
-  </si>
-  <si>
-    <t>qGDBL</t>
-  </si>
-  <si>
     <t>average</t>
   </si>
   <si>
@@ -121,6 +115,12 @@
   <si>
     <t>qGBD</t>
   </si>
+  <si>
+    <t>qGBDL</t>
+  </si>
+  <si>
+    <t>Dym-012-control</t>
+  </si>
 </sst>
 </file>
 
@@ -130,13 +130,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -177,7 +177,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -193,7 +193,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -489,17 +489,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0123011-1B57-48AF-9231-E9A37AC2F31A}">
-  <dimension ref="A1:W97"/>
+  <dimension ref="A1:AA97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:L20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:27">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -511,61 +511,73 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>2</v>
-      </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>3</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>4</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>5</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>6</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>7</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="Z1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2">
         <v>0</v>
       </c>
@@ -602,8 +614,8 @@
       <c r="L2">
         <v>256</v>
       </c>
-      <c r="N2">
-        <v>0</v>
+      <c r="M2">
+        <v>256</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -632,8 +644,20 @@
       <c r="W2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3">
         <v>1</v>
       </c>
@@ -647,7 +671,7 @@
         <v>18092</v>
       </c>
       <c r="E3">
-        <v>16704</v>
+        <v>19232</v>
       </c>
       <c r="F3">
         <v>16704</v>
@@ -662,19 +686,19 @@
         <v>16704</v>
       </c>
       <c r="J3">
+        <v>1736</v>
+      </c>
+      <c r="K3">
         <v>16704</v>
-      </c>
-      <c r="K3">
-        <v>2304</v>
       </c>
       <c r="L3">
         <v>2304</v>
       </c>
-      <c r="N3">
+      <c r="M3">
+        <v>2304</v>
+      </c>
+      <c r="O3">
         <v>1</v>
-      </c>
-      <c r="O3">
-        <v>0.89795918367346905</v>
       </c>
       <c r="P3">
         <v>0.89795918367346905</v>
@@ -700,8 +724,20 @@
       <c r="W3">
         <v>0.89795918367346905</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="X3">
+        <v>1.2978723404255299</v>
+      </c>
+      <c r="Y3">
+        <v>0.89795918367346905</v>
+      </c>
+      <c r="Z3">
+        <v>1.5</v>
+      </c>
+      <c r="AA3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4">
         <v>2</v>
       </c>
@@ -715,7 +751,7 @@
         <v>86266</v>
       </c>
       <c r="E4">
-        <v>78977</v>
+        <v>92945</v>
       </c>
       <c r="F4">
         <v>78977</v>
@@ -730,19 +766,19 @@
         <v>78977</v>
       </c>
       <c r="J4">
+        <v>6055</v>
+      </c>
+      <c r="K4">
         <v>78977</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>11280</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>11184</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>2</v>
-      </c>
-      <c r="O4">
-        <v>3.2123695976154898</v>
       </c>
       <c r="P4">
         <v>3.2123695976154898</v>
@@ -751,25 +787,37 @@
         <v>3.2123695976154898</v>
       </c>
       <c r="R4">
-        <v>3.2518740629685099</v>
+        <v>3.2123695976154898</v>
       </c>
       <c r="S4">
-        <v>3.2518740629685099</v>
+        <v>3.1591928251121</v>
       </c>
       <c r="T4">
         <v>3.2518740629685099</v>
       </c>
       <c r="U4">
-        <v>3.25840179238237</v>
+        <v>3.2518740629685099</v>
       </c>
       <c r="V4">
-        <v>3.25840179238237</v>
+        <v>3.2518740629685099</v>
       </c>
       <c r="W4">
         <v>3.25840179238237</v>
       </c>
-    </row>
-    <row r="5" spans="1:23">
+      <c r="X4">
+        <v>2.9137343927355199</v>
+      </c>
+      <c r="Y4">
+        <v>3.25840179238237</v>
+      </c>
+      <c r="Z4">
+        <v>2.94132653061</v>
+      </c>
+      <c r="AA4">
+        <v>2.8985969387799999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5">
         <v>3</v>
       </c>
@@ -798,19 +846,19 @@
         <v>8</v>
       </c>
       <c r="J5">
+        <v>13479</v>
+      </c>
+      <c r="K5">
         <v>8</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>37600</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>36509</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>3</v>
-      </c>
-      <c r="O5">
-        <v>4.8377211681944097</v>
       </c>
       <c r="P5">
         <v>4.8377211681944097</v>
@@ -819,25 +867,37 @@
         <v>4.8377211681944097</v>
       </c>
       <c r="R5">
-        <v>4.9234783534799504</v>
+        <v>4.8377211681944097</v>
       </c>
       <c r="S5">
-        <v>4.9234783534799504</v>
+        <v>4.7735587435336697</v>
       </c>
       <c r="T5">
         <v>4.9234783534799504</v>
       </c>
       <c r="U5">
-        <v>4.9225727379302997</v>
+        <v>4.9234783534799504</v>
       </c>
       <c r="V5">
-        <v>4.9225727379302997</v>
+        <v>4.9234783534799504</v>
       </c>
       <c r="W5">
         <v>4.9225727379302997</v>
       </c>
-    </row>
-    <row r="6" spans="1:23">
+      <c r="X5">
+        <v>5.4223964808262402</v>
+      </c>
+      <c r="Y5">
+        <v>4.9225727379302997</v>
+      </c>
+      <c r="Z5">
+        <v>4.2864051870699997</v>
+      </c>
+      <c r="AA5">
+        <v>4.2145514455799997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6">
         <v>4</v>
       </c>
@@ -866,19 +926,19 @@
         <v>7</v>
       </c>
       <c r="J6">
+        <v>20935</v>
+      </c>
+      <c r="K6">
         <v>7</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>92426</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>87328</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>4</v>
-      </c>
-      <c r="O6">
-        <v>5.6930698974201599</v>
       </c>
       <c r="P6">
         <v>5.6930698974201599</v>
@@ -887,25 +947,37 @@
         <v>5.6930698974201599</v>
       </c>
       <c r="R6">
-        <v>5.7754957748398503</v>
+        <v>5.6930698974201599</v>
       </c>
       <c r="S6">
-        <v>5.7754957748398503</v>
+        <v>5.63670459872991</v>
       </c>
       <c r="T6">
         <v>5.7754957748398503</v>
       </c>
       <c r="U6">
-        <v>5.7755152444217304</v>
+        <v>5.7754957748398503</v>
       </c>
       <c r="V6">
-        <v>5.7755152444217304</v>
+        <v>5.7754957748398503</v>
       </c>
       <c r="W6">
         <v>5.7755152444217304</v>
       </c>
-    </row>
-    <row r="7" spans="1:23">
+      <c r="X6">
+        <v>7.7859518142992199</v>
+      </c>
+      <c r="Y6">
+        <v>5.7755152444217304</v>
+      </c>
+      <c r="Z6">
+        <v>5.5032142857100004</v>
+      </c>
+      <c r="AA6">
+        <v>5.4338180272100001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7">
         <v>5</v>
       </c>
@@ -919,7 +991,7 @@
         <v>3078</v>
       </c>
       <c r="E7">
-        <v>3070</v>
+        <v>3078</v>
       </c>
       <c r="F7">
         <v>3070</v>
@@ -928,25 +1000,25 @@
         <v>3070</v>
       </c>
       <c r="H7">
-        <v>3078</v>
+        <v>3070</v>
       </c>
       <c r="I7">
         <v>3078</v>
       </c>
       <c r="J7">
+        <v>23561</v>
+      </c>
+      <c r="K7">
         <v>3078</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>173340</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>161596</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>5</v>
-      </c>
-      <c r="O7">
-        <v>6.28197004761524</v>
       </c>
       <c r="P7">
         <v>6.28197004761524</v>
@@ -955,25 +1027,37 @@
         <v>6.28197004761524</v>
       </c>
       <c r="R7">
-        <v>6.3274561538829799</v>
+        <v>6.28197004761524</v>
       </c>
       <c r="S7">
-        <v>6.3274561538829799</v>
+        <v>6.2422612934296096</v>
       </c>
       <c r="T7">
         <v>6.3274561538829799</v>
       </c>
       <c r="U7">
-        <v>6.32744826852492</v>
+        <v>6.3274561538829799</v>
       </c>
       <c r="V7">
-        <v>6.32744826852492</v>
+        <v>6.3274561538829799</v>
       </c>
       <c r="W7">
         <v>6.32744826852492</v>
       </c>
-    </row>
-    <row r="8" spans="1:23">
+      <c r="X7">
+        <v>9.9360685277077003</v>
+      </c>
+      <c r="Y7">
+        <v>6.32744826852492</v>
+      </c>
+      <c r="Z7">
+        <v>6.5498272746600001</v>
+      </c>
+      <c r="AA7">
+        <v>6.5315635629299997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8">
         <v>6</v>
       </c>
@@ -987,7 +1071,7 @@
         <v>255632</v>
       </c>
       <c r="E8">
-        <v>257136</v>
+        <v>254226</v>
       </c>
       <c r="F8">
         <v>257136</v>
@@ -996,25 +1080,25 @@
         <v>257136</v>
       </c>
       <c r="H8">
-        <v>257159</v>
+        <v>257136</v>
       </c>
       <c r="I8">
         <v>257159</v>
       </c>
       <c r="J8">
+        <v>22132</v>
+      </c>
+      <c r="K8">
         <v>257159</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>251572</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>236194</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>6</v>
-      </c>
-      <c r="O8">
-        <v>6.5893418039237899</v>
       </c>
       <c r="P8">
         <v>6.5893418039237899</v>
@@ -1023,10 +1107,10 @@
         <v>6.5893418039237899</v>
       </c>
       <c r="R8">
-        <v>6.6104359015716403</v>
+        <v>6.5893418039237899</v>
       </c>
       <c r="S8">
-        <v>6.6104359015716403</v>
+        <v>6.5676884538812903</v>
       </c>
       <c r="T8">
         <v>6.6104359015716403</v>
@@ -1040,8 +1124,20 @@
       <c r="W8">
         <v>6.6104359015716403</v>
       </c>
-    </row>
-    <row r="9" spans="1:23">
+      <c r="X8">
+        <v>11.7625542912523</v>
+      </c>
+      <c r="Y8">
+        <v>6.6104359015716403</v>
+      </c>
+      <c r="Z8">
+        <v>7.3546166383199996</v>
+      </c>
+      <c r="AA8">
+        <v>7.4709183673500004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1055,7 +1151,7 @@
         <v>1076975</v>
       </c>
       <c r="E9">
-        <v>1084279</v>
+        <v>1070296</v>
       </c>
       <c r="F9">
         <v>1084279</v>
@@ -1064,25 +1160,25 @@
         <v>1084279</v>
       </c>
       <c r="H9">
-        <v>1084274</v>
+        <v>1084279</v>
       </c>
       <c r="I9">
         <v>1084274</v>
       </c>
       <c r="J9">
+        <v>24627</v>
+      </c>
+      <c r="K9">
         <v>1084274</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>285452</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>275059</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>7</v>
-      </c>
-      <c r="O9">
-        <v>6.7180060539145696</v>
       </c>
       <c r="P9">
         <v>6.7180060539145696</v>
@@ -1091,25 +1187,37 @@
         <v>6.7180060539145696</v>
       </c>
       <c r="R9">
-        <v>6.7272896431096703</v>
+        <v>6.7180060539145696</v>
       </c>
       <c r="S9">
-        <v>6.7272896431096703</v>
+        <v>6.7065081526374701</v>
       </c>
       <c r="T9">
         <v>6.7272896431096703</v>
       </c>
       <c r="U9">
-        <v>6.7273215011179897</v>
+        <v>6.7272896431096703</v>
       </c>
       <c r="V9">
-        <v>6.7273215011179897</v>
+        <v>6.7272896431096703</v>
       </c>
       <c r="W9">
         <v>6.7273215011179897</v>
       </c>
-    </row>
-    <row r="10" spans="1:23">
+      <c r="X9">
+        <v>12.595706548342701</v>
+      </c>
+      <c r="Y9">
+        <v>6.7273215011179897</v>
+      </c>
+      <c r="Z9">
+        <v>7.7909753224199996</v>
+      </c>
+      <c r="AA9">
+        <v>8.1377511160699996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1138,19 +1246,19 @@
         <v>6</v>
       </c>
       <c r="J10">
+        <v>37765</v>
+      </c>
+      <c r="K10">
         <v>6</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>253317</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>255808</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>8</v>
-      </c>
-      <c r="O10">
-        <v>6.7147889944674599</v>
       </c>
       <c r="P10">
         <v>6.7147889944674599</v>
@@ -1159,25 +1267,37 @@
         <v>6.7147889944674599</v>
       </c>
       <c r="R10">
-        <v>6.7164901138703499</v>
+        <v>6.7147889944674599</v>
       </c>
       <c r="S10">
-        <v>6.7164901138703499</v>
+        <v>6.7075052722987198</v>
       </c>
       <c r="T10">
         <v>6.7164901138703499</v>
       </c>
       <c r="U10">
-        <v>6.7167204167700296</v>
+        <v>6.7164901138703499</v>
       </c>
       <c r="V10">
-        <v>6.7167204167700296</v>
+        <v>6.7164901138703499</v>
       </c>
       <c r="W10">
         <v>6.7167204167700296</v>
       </c>
-    </row>
-    <row r="11" spans="1:23">
+      <c r="X10">
+        <v>11.631527574426499</v>
+      </c>
+      <c r="Y10">
+        <v>6.7167204167700296</v>
+      </c>
+      <c r="Z10">
+        <v>7.3915922618999996</v>
+      </c>
+      <c r="AA10">
+        <v>8.1628968254000007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1191,7 +1311,7 @@
         <v>6</v>
       </c>
       <c r="E11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F11">
         <v>6</v>
@@ -1206,16 +1326,19 @@
         <v>6</v>
       </c>
       <c r="J11">
+        <v>55703</v>
+      </c>
+      <c r="K11">
         <v>6</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>176097</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>189408</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:27">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1244,16 +1367,19 @@
         <v>5</v>
       </c>
       <c r="J12">
+        <v>65010</v>
+      </c>
+      <c r="K12">
         <v>5</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>96769</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>111077</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:27">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1282,16 +1408,19 @@
         <v>5</v>
       </c>
       <c r="J13">
+        <v>63034</v>
+      </c>
+      <c r="K13">
         <v>5</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>42194</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>51026</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:27">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1305,7 +1434,7 @@
         <v>4</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F14">
         <v>5</v>
@@ -1320,16 +1449,19 @@
         <v>5</v>
       </c>
       <c r="J14">
+        <v>59922</v>
+      </c>
+      <c r="K14">
         <v>5</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>14470</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>18077</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:27">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1358,16 +1490,19 @@
         <v>4</v>
       </c>
       <c r="J15">
+        <v>64286</v>
+      </c>
+      <c r="K15">
         <v>4</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>3790</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>4825</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:27">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1381,7 +1516,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>4</v>
@@ -1396,16 +1531,19 @@
         <v>4</v>
       </c>
       <c r="J16">
+        <v>75720</v>
+      </c>
+      <c r="K16">
         <v>4</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>754</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>945</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:27">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1434,16 +1572,19 @@
         <v>3</v>
       </c>
       <c r="J17">
+        <v>61251</v>
+      </c>
+      <c r="K17">
         <v>3</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>101</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:27">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1457,38 +1598,41 @@
         <v>2</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18">
         <v>3</v>
       </c>
       <c r="J18">
+        <v>40125</v>
+      </c>
+      <c r="K18">
         <v>3</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>7</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:27">
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19">
+        <v>9232</v>
+      </c>
+      <c r="K19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:27">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B20">
         <v>6.4422317091204899</v>
@@ -1500,7 +1644,7 @@
         <v>6.4422317091204899</v>
       </c>
       <c r="E20">
-        <v>6.4723567262788597</v>
+        <v>6.4151831315512604</v>
       </c>
       <c r="F20">
         <v>6.4723567262788597</v>
@@ -1509,24 +1653,27 @@
         <v>6.4723567262788597</v>
       </c>
       <c r="H20">
-        <v>6.4723530983925697</v>
+        <v>6.4723567262788597</v>
       </c>
       <c r="I20">
         <v>6.4723530983925697</v>
       </c>
       <c r="J20">
+        <v>10.918400071957</v>
+      </c>
+      <c r="K20">
         <v>6.4723530983925697</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>7.0470872126500002</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>7.1803660743500002</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:27">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B24" t="s">
         <v>0</v>
@@ -1538,61 +1685,73 @@
         <v>2</v>
       </c>
       <c r="E24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" t="s">
         <v>3</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>4</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>5</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>6</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>7</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>8</v>
       </c>
-      <c r="K24" t="s">
-        <v>10</v>
-      </c>
       <c r="L24" t="s">
-        <v>11</v>
-      </c>
-      <c r="N24" t="s">
+        <v>15</v>
+      </c>
+      <c r="M24" t="s">
+        <v>16</v>
+      </c>
+      <c r="O24" t="s">
         <v>9</v>
       </c>
-      <c r="O24" t="s">
-        <v>0</v>
-      </c>
       <c r="P24" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="s">
         <v>1</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="R24" t="s">
         <v>2</v>
       </c>
-      <c r="R24" t="s">
+      <c r="S24" t="s">
+        <v>17</v>
+      </c>
+      <c r="T24" t="s">
         <v>3</v>
       </c>
-      <c r="S24" t="s">
+      <c r="U24" t="s">
         <v>4</v>
       </c>
-      <c r="T24" t="s">
+      <c r="V24" t="s">
         <v>5</v>
       </c>
-      <c r="U24" t="s">
+      <c r="W24" t="s">
         <v>6</v>
       </c>
-      <c r="V24" t="s">
+      <c r="X24" t="s">
         <v>7</v>
       </c>
-      <c r="W24" t="s">
+      <c r="Y24" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:23">
+      <c r="Z24" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
       <c r="A25">
         <v>0</v>
       </c>
@@ -1623,8 +1782,8 @@
       <c r="J25">
         <v>256</v>
       </c>
-      <c r="N25">
-        <v>0</v>
+      <c r="K25">
+        <v>256</v>
       </c>
       <c r="O25">
         <v>0</v>
@@ -1653,8 +1812,20 @@
       <c r="W25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:23">
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1668,7 +1839,7 @@
         <v>19200</v>
       </c>
       <c r="E26">
-        <v>17700</v>
+        <v>20600</v>
       </c>
       <c r="F26">
         <v>17700</v>
@@ -1685,11 +1856,11 @@
       <c r="J26">
         <v>17700</v>
       </c>
-      <c r="N26">
+      <c r="K26">
+        <v>17700</v>
+      </c>
+      <c r="O26">
         <v>1</v>
-      </c>
-      <c r="O26">
-        <v>2.09375</v>
       </c>
       <c r="P26">
         <v>2.09375</v>
@@ -1715,8 +1886,20 @@
       <c r="W26">
         <v>2.09375</v>
       </c>
-    </row>
-    <row r="27" spans="1:23">
+      <c r="X26">
+        <v>2.09375</v>
+      </c>
+      <c r="Y26">
+        <v>2.09375</v>
+      </c>
+      <c r="Z26">
+        <v>2.375</v>
+      </c>
+      <c r="AA26">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
       <c r="A27">
         <v>2</v>
       </c>
@@ -1730,7 +1913,7 @@
         <v>86258</v>
       </c>
       <c r="E27">
-        <v>78969</v>
+        <v>92937</v>
       </c>
       <c r="F27">
         <v>78969</v>
@@ -1747,11 +1930,11 @@
       <c r="J27">
         <v>78969</v>
       </c>
-      <c r="N27">
+      <c r="K27">
+        <v>78969</v>
+      </c>
+      <c r="O27">
         <v>2</v>
-      </c>
-      <c r="O27">
-        <v>3.6709183673469301</v>
       </c>
       <c r="P27">
         <v>3.6709183673469301</v>
@@ -1760,10 +1943,10 @@
         <v>3.6709183673469301</v>
       </c>
       <c r="R27">
-        <v>3.71556122448979</v>
+        <v>3.6709183673469301</v>
       </c>
       <c r="S27">
-        <v>3.71556122448979</v>
+        <v>3.6326530612244898</v>
       </c>
       <c r="T27">
         <v>3.71556122448979</v>
@@ -1777,8 +1960,20 @@
       <c r="W27">
         <v>3.71556122448979</v>
       </c>
-    </row>
-    <row r="28" spans="1:23">
+      <c r="X27">
+        <v>3.71556122448979</v>
+      </c>
+      <c r="Y27">
+        <v>3.71556122448979</v>
+      </c>
+      <c r="Z27">
+        <v>5.2602040816300004</v>
+      </c>
+      <c r="AA27">
+        <v>5.9036989795899997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27">
       <c r="A28">
         <v>3</v>
       </c>
@@ -1809,11 +2004,11 @@
       <c r="J28">
         <v>0</v>
       </c>
-      <c r="N28">
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="O28">
         <v>3</v>
-      </c>
-      <c r="O28">
-        <v>4.8309948979591804</v>
       </c>
       <c r="P28">
         <v>4.8309948979591804</v>
@@ -1822,10 +2017,10 @@
         <v>4.8309948979591804</v>
       </c>
       <c r="R28">
-        <v>4.9160289115646201</v>
+        <v>4.8309948979591804</v>
       </c>
       <c r="S28">
-        <v>4.9160289115646201</v>
+        <v>4.7648278061224403</v>
       </c>
       <c r="T28">
         <v>4.9160289115646201</v>
@@ -1839,8 +2034,20 @@
       <c r="W28">
         <v>4.9160289115646201</v>
       </c>
-    </row>
-    <row r="29" spans="1:23">
+      <c r="X28">
+        <v>4.9160289115646201</v>
+      </c>
+      <c r="Y28">
+        <v>4.9160289115646201</v>
+      </c>
+      <c r="Z28">
+        <v>8.0300276360500007</v>
+      </c>
+      <c r="AA28">
+        <v>9.1807504251700003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27">
       <c r="A29">
         <v>4</v>
       </c>
@@ -1871,11 +2078,11 @@
       <c r="J29">
         <v>0</v>
       </c>
-      <c r="N29">
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="O29">
         <v>4</v>
-      </c>
-      <c r="O29">
-        <v>5.68506802721088</v>
       </c>
       <c r="P29">
         <v>5.68506802721088</v>
@@ -1884,10 +2091,10 @@
         <v>5.68506802721088</v>
       </c>
       <c r="R29">
-        <v>5.76793367346938</v>
+        <v>5.68506802721088</v>
       </c>
       <c r="S29">
-        <v>5.76793367346938</v>
+        <v>5.6266496598639399</v>
       </c>
       <c r="T29">
         <v>5.76793367346938</v>
@@ -1901,8 +2108,20 @@
       <c r="W29">
         <v>5.76793367346938</v>
       </c>
-    </row>
-    <row r="30" spans="1:23">
+      <c r="X29">
+        <v>5.76793367346938</v>
+      </c>
+      <c r="Y29">
+        <v>5.76793367346938</v>
+      </c>
+      <c r="Z29">
+        <v>10.7659353741</v>
+      </c>
+      <c r="AA29">
+        <v>12.302117346899999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27">
       <c r="A30">
         <v>5</v>
       </c>
@@ -1933,11 +2152,11 @@
       <c r="J30">
         <v>3088</v>
       </c>
-      <c r="N30">
+      <c r="K30">
+        <v>3088</v>
+      </c>
+      <c r="O30">
         <v>5</v>
-      </c>
-      <c r="O30">
-        <v>6.2765704719387703</v>
       </c>
       <c r="P30">
         <v>6.2765704719387703</v>
@@ -1946,10 +2165,10 @@
         <v>6.2765704719387703</v>
       </c>
       <c r="R30">
-        <v>6.3225154124149601</v>
+        <v>6.2765704719387703</v>
       </c>
       <c r="S30">
-        <v>6.3225154124149601</v>
+        <v>6.2356212797618999</v>
       </c>
       <c r="T30">
         <v>6.3225154124149601</v>
@@ -1963,8 +2182,20 @@
       <c r="W30">
         <v>6.3225154124149601</v>
       </c>
-    </row>
-    <row r="31" spans="1:23">
+      <c r="X30">
+        <v>6.3225154124149601</v>
+      </c>
+      <c r="Y30">
+        <v>6.3225154124149601</v>
+      </c>
+      <c r="Z30">
+        <v>13.4557583971</v>
+      </c>
+      <c r="AA30">
+        <v>15.322964498299999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27">
       <c r="A31">
         <v>6</v>
       </c>
@@ -1978,7 +2209,7 @@
         <v>255848</v>
       </c>
       <c r="E31">
-        <v>257348</v>
+        <v>254448</v>
       </c>
       <c r="F31">
         <v>257348</v>
@@ -1995,11 +2226,11 @@
       <c r="J31">
         <v>257348</v>
       </c>
-      <c r="N31">
+      <c r="K31">
+        <v>257348</v>
+      </c>
+      <c r="O31">
         <v>6</v>
-      </c>
-      <c r="O31">
-        <v>6.5860030470521496</v>
       </c>
       <c r="P31">
         <v>6.5860030470521496</v>
@@ -2008,10 +2239,10 @@
         <v>6.5860030470521496</v>
       </c>
       <c r="R31">
-        <v>6.6074209892290199</v>
+        <v>6.5860030470521496</v>
       </c>
       <c r="S31">
-        <v>6.6074209892290199</v>
+        <v>6.5636373299319697</v>
       </c>
       <c r="T31">
         <v>6.6074209892290199</v>
@@ -2025,8 +2256,20 @@
       <c r="W31">
         <v>6.6074209892290199</v>
       </c>
-    </row>
-    <row r="32" spans="1:23">
+      <c r="X31">
+        <v>6.6074209892290199</v>
+      </c>
+      <c r="Y31">
+        <v>6.6074209892290199</v>
+      </c>
+      <c r="Z31">
+        <v>15.9340738379</v>
+      </c>
+      <c r="AA31">
+        <v>18.162896825400001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27">
       <c r="A32">
         <v>7</v>
       </c>
@@ -2040,7 +2283,7 @@
         <v>1077079</v>
       </c>
       <c r="E32">
-        <v>1084368</v>
+        <v>1070400</v>
       </c>
       <c r="F32">
         <v>1084368</v>
@@ -2057,11 +2300,11 @@
       <c r="J32">
         <v>1084368</v>
       </c>
-      <c r="N32">
+      <c r="K32">
+        <v>1084368</v>
+      </c>
+      <c r="O32">
         <v>7</v>
-      </c>
-      <c r="O32">
-        <v>6.7155536954365003</v>
       </c>
       <c r="P32">
         <v>6.7155536954365003</v>
@@ -2070,10 +2313,10 @@
         <v>6.7155536954365003</v>
       </c>
       <c r="R32">
-        <v>6.7250713045634898</v>
+        <v>6.7155536954365003</v>
       </c>
       <c r="S32">
-        <v>6.7250713045634898</v>
+        <v>6.7035714285714203</v>
       </c>
       <c r="T32">
         <v>6.7250713045634898</v>
@@ -2087,16 +2330,25 @@
       <c r="W32">
         <v>6.7250713045634898</v>
       </c>
-    </row>
-    <row r="33" spans="1:23">
+      <c r="X32">
+        <v>6.7250713045634898</v>
+      </c>
+      <c r="Y32">
+        <v>6.7250713045634898</v>
+      </c>
+      <c r="Z32">
+        <v>17.870613219199999</v>
+      </c>
+      <c r="AA32">
+        <v>20.460742187499999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27">
       <c r="A33">
         <v>8</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>8</v>
-      </c>
-      <c r="O33">
-        <v>6.71150793650793</v>
       </c>
       <c r="P33">
         <v>6.71150793650793</v>
@@ -2105,10 +2357,10 @@
         <v>6.71150793650793</v>
       </c>
       <c r="R33">
-        <v>6.7134920634920601</v>
+        <v>6.71150793650793</v>
       </c>
       <c r="S33">
-        <v>6.7134920634920601</v>
+        <v>6.7035714285714203</v>
       </c>
       <c r="T33">
         <v>6.7134920634920601</v>
@@ -2122,10 +2374,22 @@
       <c r="W33">
         <v>6.7134920634920601</v>
       </c>
-    </row>
-    <row r="34" spans="1:23">
+      <c r="X33">
+        <v>6.7134920634920601</v>
+      </c>
+      <c r="Y33">
+        <v>6.7134920634920601</v>
+      </c>
+      <c r="Z33">
+        <v>17.264012896800001</v>
+      </c>
+      <c r="AA33">
+        <v>20.640674603200001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27">
       <c r="A34" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B34">
         <v>6.4379623355013296</v>
@@ -2137,7 +2401,7 @@
         <v>6.4379623355013296</v>
       </c>
       <c r="E34">
-        <v>6.46844309852961</v>
+        <v>6.4099438937553401</v>
       </c>
       <c r="F34">
         <v>6.46844309852961</v>
@@ -2154,10 +2418,19 @@
       <c r="J34">
         <v>6.46844309852961</v>
       </c>
-    </row>
-    <row r="38" spans="1:23">
+      <c r="K34">
+        <v>6.46844309852961</v>
+      </c>
+      <c r="L34">
+        <v>15.220706526700001</v>
+      </c>
+      <c r="M34">
+        <v>17.395689481200002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27">
       <c r="A38" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B38" t="s">
         <v>0</v>
@@ -2169,55 +2442,73 @@
         <v>2</v>
       </c>
       <c r="E38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" t="s">
         <v>3</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>4</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>5</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>6</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>7</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>8</v>
       </c>
-      <c r="N38" t="s">
+      <c r="L38" t="s">
+        <v>15</v>
+      </c>
+      <c r="M38" t="s">
+        <v>16</v>
+      </c>
+      <c r="O38" t="s">
         <v>9</v>
       </c>
-      <c r="O38" t="s">
-        <v>0</v>
-      </c>
       <c r="P38" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="s">
         <v>1</v>
       </c>
-      <c r="Q38" t="s">
+      <c r="R38" t="s">
         <v>2</v>
       </c>
-      <c r="R38" t="s">
+      <c r="S38" t="s">
+        <v>17</v>
+      </c>
+      <c r="T38" t="s">
         <v>3</v>
       </c>
-      <c r="S38" t="s">
+      <c r="U38" t="s">
         <v>4</v>
       </c>
-      <c r="T38" t="s">
+      <c r="V38" t="s">
         <v>5</v>
       </c>
-      <c r="U38" t="s">
+      <c r="W38" t="s">
         <v>6</v>
       </c>
-      <c r="V38" t="s">
+      <c r="X38" t="s">
         <v>7</v>
       </c>
-      <c r="W38" t="s">
+      <c r="Y38" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="39" spans="1:23">
+      <c r="Z38" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27">
       <c r="A39">
         <v>0</v>
       </c>
@@ -2248,8 +2539,8 @@
       <c r="J39">
         <v>1600</v>
       </c>
-      <c r="N39">
-        <v>0</v>
+      <c r="K39">
+        <v>1600</v>
       </c>
       <c r="O39">
         <v>0</v>
@@ -2278,8 +2569,20 @@
       <c r="W39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:23">
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+      <c r="AA39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27">
       <c r="A40">
         <v>1</v>
       </c>
@@ -2293,7 +2596,7 @@
         <v>104114</v>
       </c>
       <c r="E40">
-        <v>95325</v>
+        <v>112193</v>
       </c>
       <c r="F40">
         <v>95325</v>
@@ -2310,11 +2613,11 @@
       <c r="J40">
         <v>95325</v>
       </c>
-      <c r="N40">
+      <c r="K40">
+        <v>95325</v>
+      </c>
+      <c r="O40">
         <v>1</v>
-      </c>
-      <c r="O40">
-        <v>2.71875</v>
       </c>
       <c r="P40">
         <v>2.71875</v>
@@ -2340,8 +2643,20 @@
       <c r="W40">
         <v>2.71875</v>
       </c>
-    </row>
-    <row r="41" spans="1:23">
+      <c r="X40">
+        <v>2.71875</v>
+      </c>
+      <c r="Y40">
+        <v>2.71875</v>
+      </c>
+      <c r="Z40">
+        <v>2.8125</v>
+      </c>
+      <c r="AA40">
+        <v>3.03125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27">
       <c r="A41">
         <v>2</v>
       </c>
@@ -2372,11 +2687,11 @@
       <c r="J41">
         <v>0</v>
       </c>
-      <c r="N41">
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="O41">
         <v>2</v>
-      </c>
-      <c r="O41">
-        <v>4.7723214285714199</v>
       </c>
       <c r="P41">
         <v>4.7723214285714199</v>
@@ -2385,10 +2700,10 @@
         <v>4.7723214285714199</v>
       </c>
       <c r="R41">
-        <v>4.84375</v>
+        <v>4.7723214285714199</v>
       </c>
       <c r="S41">
-        <v>4.84375</v>
+        <v>4.7110969387755102</v>
       </c>
       <c r="T41">
         <v>4.84375</v>
@@ -2402,8 +2717,20 @@
       <c r="W41">
         <v>4.84375</v>
       </c>
-    </row>
-    <row r="42" spans="1:23">
+      <c r="X41">
+        <v>4.84375</v>
+      </c>
+      <c r="Y41">
+        <v>4.84375</v>
+      </c>
+      <c r="Z41">
+        <v>6.5931122449000004</v>
+      </c>
+      <c r="AA41">
+        <v>7.7512755102000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27">
       <c r="A42">
         <v>3</v>
       </c>
@@ -2434,11 +2761,11 @@
       <c r="J42">
         <v>0</v>
       </c>
-      <c r="N42">
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="O42">
         <v>3</v>
-      </c>
-      <c r="O42">
-        <v>6.2920918367346896</v>
       </c>
       <c r="P42">
         <v>6.2920918367346896</v>
@@ -2447,10 +2774,10 @@
         <v>6.2920918367346896</v>
       </c>
       <c r="R42">
-        <v>6.4281462585033999</v>
+        <v>6.2920918367346896</v>
       </c>
       <c r="S42">
-        <v>6.4281462585033999</v>
+        <v>6.1862244897959098</v>
       </c>
       <c r="T42">
         <v>6.4281462585033999</v>
@@ -2464,8 +2791,20 @@
       <c r="W42">
         <v>6.4281462585033999</v>
       </c>
-    </row>
-    <row r="43" spans="1:23">
+      <c r="X42">
+        <v>6.4281462585033999</v>
+      </c>
+      <c r="Y42">
+        <v>6.4281462585033999</v>
+      </c>
+      <c r="Z42">
+        <v>10.275244472800001</v>
+      </c>
+      <c r="AA42">
+        <v>12.3428996599</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27">
       <c r="A43">
         <v>4</v>
       </c>
@@ -2496,11 +2835,11 @@
       <c r="J43">
         <v>0</v>
       </c>
-      <c r="N43">
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="O43">
         <v>4</v>
-      </c>
-      <c r="O43">
-        <v>7.4209863945578203</v>
       </c>
       <c r="P43">
         <v>7.4209863945578203</v>
@@ -2509,10 +2848,10 @@
         <v>7.4209863945578203</v>
       </c>
       <c r="R43">
-        <v>7.5535714285714199</v>
+        <v>7.4209863945578203</v>
       </c>
       <c r="S43">
-        <v>7.5535714285714199</v>
+        <v>7.3275170068027196</v>
       </c>
       <c r="T43">
         <v>7.5535714285714199</v>
@@ -2526,8 +2865,20 @@
       <c r="W43">
         <v>7.5535714285714199</v>
       </c>
-    </row>
-    <row r="44" spans="1:23">
+      <c r="X43">
+        <v>7.5535714285714199</v>
+      </c>
+      <c r="Y43">
+        <v>7.5535714285714199</v>
+      </c>
+      <c r="Z43">
+        <v>14.025476190499999</v>
+      </c>
+      <c r="AA43">
+        <v>16.765841836700002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27">
       <c r="A44">
         <v>5</v>
       </c>
@@ -2558,11 +2909,11 @@
       <c r="J44">
         <v>0</v>
       </c>
-      <c r="N44">
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="O44">
         <v>5</v>
-      </c>
-      <c r="O44">
-        <v>8.2027423469387699</v>
       </c>
       <c r="P44">
         <v>8.2027423469387699</v>
@@ -2571,10 +2922,10 @@
         <v>8.2027423469387699</v>
       </c>
       <c r="R44">
-        <v>8.2762542517006796</v>
+        <v>8.2027423469387699</v>
       </c>
       <c r="S44">
-        <v>8.2762542517006796</v>
+        <v>8.1372236394557795</v>
       </c>
       <c r="T44">
         <v>8.2762542517006796</v>
@@ -2588,8 +2939,20 @@
       <c r="W44">
         <v>8.2762542517006796</v>
       </c>
-    </row>
-    <row r="45" spans="1:23">
+      <c r="X44">
+        <v>8.2762542517006796</v>
+      </c>
+      <c r="Y44">
+        <v>8.2762542517006796</v>
+      </c>
+      <c r="Z44">
+        <v>17.853956738899999</v>
+      </c>
+      <c r="AA44">
+        <v>21.135265199799999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27">
       <c r="A45">
         <v>6</v>
       </c>
@@ -2620,11 +2983,11 @@
       <c r="J45">
         <v>0</v>
       </c>
-      <c r="N45">
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="O45">
         <v>6</v>
-      </c>
-      <c r="O45">
-        <v>8.5923752834467102</v>
       </c>
       <c r="P45">
         <v>8.5923752834467102</v>
@@ -2633,10 +2996,10 @@
         <v>8.5923752834467102</v>
       </c>
       <c r="R45">
-        <v>8.6266439909297006</v>
+        <v>8.5923752834467102</v>
       </c>
       <c r="S45">
-        <v>8.6266439909297006</v>
+        <v>8.5565901360544192</v>
       </c>
       <c r="T45">
         <v>8.6266439909297006</v>
@@ -2650,8 +3013,20 @@
       <c r="W45">
         <v>8.6266439909297006</v>
       </c>
-    </row>
-    <row r="46" spans="1:23">
+      <c r="X45">
+        <v>8.6266439909297006</v>
+      </c>
+      <c r="Y45">
+        <v>8.6266439909297006</v>
+      </c>
+      <c r="Z45">
+        <v>21.5249167375</v>
+      </c>
+      <c r="AA45">
+        <v>25.3381306689</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27">
       <c r="A46">
         <v>7</v>
       </c>
@@ -2682,11 +3057,11 @@
       <c r="J46">
         <v>0</v>
       </c>
-      <c r="N46">
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="O46">
         <v>7</v>
-      </c>
-      <c r="O46">
-        <v>8.7477430555555493</v>
       </c>
       <c r="P46">
         <v>8.7477430555555493</v>
@@ -2695,10 +3070,10 @@
         <v>8.7477430555555493</v>
       </c>
       <c r="R46">
-        <v>8.7629712301587297</v>
+        <v>8.7477430555555493</v>
       </c>
       <c r="S46">
-        <v>8.7629712301587297</v>
+        <v>8.7285714285714207</v>
       </c>
       <c r="T46">
         <v>8.7629712301587297</v>
@@ -2712,8 +3087,20 @@
       <c r="W46">
         <v>8.7629712301587297</v>
       </c>
-    </row>
-    <row r="47" spans="1:23">
+      <c r="X46">
+        <v>8.7629712301587297</v>
+      </c>
+      <c r="Y46">
+        <v>8.7629712301587297</v>
+      </c>
+      <c r="Z46">
+        <v>24.5553416419</v>
+      </c>
+      <c r="AA46">
+        <v>28.827985491100002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27">
       <c r="A47">
         <v>8</v>
       </c>
@@ -2744,11 +3131,11 @@
       <c r="J47">
         <v>18292</v>
       </c>
-      <c r="N47">
+      <c r="K47">
+        <v>18292</v>
+      </c>
+      <c r="O47">
         <v>8</v>
-      </c>
-      <c r="O47">
-        <v>8.7412698412698404</v>
       </c>
       <c r="P47">
         <v>8.7412698412698404</v>
@@ -2757,10 +3144,10 @@
         <v>8.7412698412698404</v>
       </c>
       <c r="R47">
-        <v>8.74444444444444</v>
+        <v>8.7412698412698404</v>
       </c>
       <c r="S47">
-        <v>8.74444444444444</v>
+        <v>8.7285714285714207</v>
       </c>
       <c r="T47">
         <v>8.74444444444444</v>
@@ -2774,8 +3161,20 @@
       <c r="W47">
         <v>8.74444444444444</v>
       </c>
-    </row>
-    <row r="48" spans="1:23">
+      <c r="X47">
+        <v>8.74444444444444</v>
+      </c>
+      <c r="Y47">
+        <v>8.74444444444444</v>
+      </c>
+      <c r="Z47">
+        <v>23.793328373000001</v>
+      </c>
+      <c r="AA47">
+        <v>29.1240079365</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27">
       <c r="A48">
         <v>9</v>
       </c>
@@ -2789,7 +3188,7 @@
         <v>1317723</v>
       </c>
       <c r="E48">
-        <v>1326512</v>
+        <v>1309644</v>
       </c>
       <c r="F48">
         <v>1326512</v>
@@ -2806,53 +3205,56 @@
       <c r="J48">
         <v>1326512</v>
       </c>
-    </row>
-    <row r="49" spans="1:23">
+      <c r="K48">
+        <v>1326512</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27">
       <c r="A49">
         <v>10</v>
       </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23">
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27">
       <c r="A50">
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:23">
+    <row r="51" spans="1:27">
       <c r="A51">
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:23">
+    <row r="52" spans="1:27">
       <c r="A52">
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:23">
+    <row r="53" spans="1:27">
       <c r="A53">
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:23">
+    <row r="54" spans="1:27">
       <c r="A54">
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:23">
+    <row r="55" spans="1:27">
       <c r="A55">
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:23">
+    <row r="56" spans="1:27">
       <c r="A56">
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:23">
+    <row r="57" spans="1:27">
       <c r="A57" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B57">
         <v>8.3996069996511107</v>
@@ -2864,7 +3266,7 @@
         <v>8.3996069996511107</v>
       </c>
       <c r="E57">
-        <v>8.4483762204963604</v>
+        <v>8.3547774928575294</v>
       </c>
       <c r="F57">
         <v>8.4483762204963604</v>
@@ -2881,10 +3283,19 @@
       <c r="J57">
         <v>8.4483762204963604</v>
       </c>
-    </row>
-    <row r="64" spans="1:23">
+      <c r="K57">
+        <v>8.4483762204963604</v>
+      </c>
+      <c r="L57">
+        <v>20.532539055499999</v>
+      </c>
+      <c r="M57">
+        <v>24.238800079600001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27">
       <c r="A64" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B64" t="s">
         <v>0</v>
@@ -2896,55 +3307,73 @@
         <v>2</v>
       </c>
       <c r="E64" t="s">
+        <v>17</v>
+      </c>
+      <c r="F64" t="s">
         <v>3</v>
       </c>
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>4</v>
       </c>
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>5</v>
       </c>
-      <c r="H64" t="s">
+      <c r="I64" t="s">
         <v>6</v>
       </c>
-      <c r="I64" t="s">
+      <c r="J64" t="s">
         <v>7</v>
       </c>
-      <c r="J64" t="s">
+      <c r="K64" t="s">
         <v>8</v>
       </c>
-      <c r="N64" t="s">
+      <c r="L64" t="s">
+        <v>15</v>
+      </c>
+      <c r="M64" t="s">
+        <v>16</v>
+      </c>
+      <c r="O64" t="s">
         <v>9</v>
       </c>
-      <c r="O64" t="s">
-        <v>0</v>
-      </c>
       <c r="P64" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q64" t="s">
         <v>1</v>
       </c>
-      <c r="Q64" t="s">
+      <c r="R64" t="s">
         <v>2</v>
       </c>
-      <c r="R64" t="s">
+      <c r="S64" t="s">
+        <v>17</v>
+      </c>
+      <c r="T64" t="s">
         <v>3</v>
       </c>
-      <c r="S64" t="s">
+      <c r="U64" t="s">
         <v>4</v>
       </c>
-      <c r="T64" t="s">
+      <c r="V64" t="s">
         <v>5</v>
       </c>
-      <c r="U64" t="s">
+      <c r="W64" t="s">
         <v>6</v>
       </c>
-      <c r="V64" t="s">
+      <c r="X64" t="s">
         <v>7</v>
       </c>
-      <c r="W64" t="s">
+      <c r="Y64" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="65" spans="1:23">
+      <c r="Z64" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA64" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27">
       <c r="A65">
         <v>0</v>
       </c>
@@ -2964,7 +3393,7 @@
         <v>256</v>
       </c>
       <c r="G65">
-        <v>56</v>
+        <v>256</v>
       </c>
       <c r="H65">
         <v>256</v>
@@ -2975,8 +3404,8 @@
       <c r="J65">
         <v>256</v>
       </c>
-      <c r="N65">
-        <v>0</v>
+      <c r="K65">
+        <v>256</v>
       </c>
       <c r="O65">
         <v>0</v>
@@ -3005,8 +3434,20 @@
       <c r="W65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:23">
+      <c r="X65">
+        <v>0</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27">
       <c r="A66">
         <v>1</v>
       </c>
@@ -3037,11 +3478,11 @@
       <c r="J66">
         <v>1344</v>
       </c>
-      <c r="N66">
+      <c r="K66">
+        <v>1344</v>
+      </c>
+      <c r="O66">
         <v>1</v>
-      </c>
-      <c r="O66">
-        <v>9.59375</v>
       </c>
       <c r="P66">
         <v>9.59375</v>
@@ -3067,8 +3508,20 @@
       <c r="W66">
         <v>9.59375</v>
       </c>
-    </row>
-    <row r="67" spans="1:23">
+      <c r="X66">
+        <v>9.59375</v>
+      </c>
+      <c r="Y66">
+        <v>9.59375</v>
+      </c>
+      <c r="Z66">
+        <v>10.78125</v>
+      </c>
+      <c r="AA66">
+        <v>11.40625</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27">
       <c r="A67">
         <v>2</v>
       </c>
@@ -3099,11 +3552,11 @@
       <c r="J67">
         <v>0</v>
       </c>
-      <c r="N67">
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="O67">
         <v>2</v>
-      </c>
-      <c r="O67">
-        <v>16.729591836734599</v>
       </c>
       <c r="P67">
         <v>16.729591836734599</v>
@@ -3112,10 +3565,10 @@
         <v>16.729591836734599</v>
       </c>
       <c r="R67">
-        <v>16.952806122448902</v>
+        <v>16.729591836734599</v>
       </c>
       <c r="S67">
-        <v>16.952806122448902</v>
+        <v>16.538265306122401</v>
       </c>
       <c r="T67">
         <v>16.952806122448902</v>
@@ -3129,8 +3582,20 @@
       <c r="W67">
         <v>16.952806122448902</v>
       </c>
-    </row>
-    <row r="68" spans="1:23">
+      <c r="X67">
+        <v>16.952806122448902</v>
+      </c>
+      <c r="Y67">
+        <v>16.952806122448902</v>
+      </c>
+      <c r="Z67">
+        <v>24.269770408199999</v>
+      </c>
+      <c r="AA67">
+        <v>27.487244898</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27">
       <c r="A68">
         <v>3</v>
       </c>
@@ -3161,11 +3626,11 @@
       <c r="J68">
         <v>0</v>
       </c>
-      <c r="N68">
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="O68">
         <v>3</v>
-      </c>
-      <c r="O68">
-        <v>21.904974489795901</v>
       </c>
       <c r="P68">
         <v>21.904974489795901</v>
@@ -3174,10 +3639,10 @@
         <v>21.904974489795901</v>
       </c>
       <c r="R68">
-        <v>22.3301445578231</v>
+        <v>21.904974489795901</v>
       </c>
       <c r="S68">
-        <v>22.3301445578231</v>
+        <v>21.574139030612201</v>
       </c>
       <c r="T68">
         <v>22.3301445578231</v>
@@ -3191,8 +3656,20 @@
       <c r="W68">
         <v>22.3301445578231</v>
       </c>
-    </row>
-    <row r="69" spans="1:23">
+      <c r="X68">
+        <v>22.3301445578231</v>
+      </c>
+      <c r="Y68">
+        <v>22.3301445578231</v>
+      </c>
+      <c r="Z68">
+        <v>37.337638180299997</v>
+      </c>
+      <c r="AA68">
+        <v>43.091252125899999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27">
       <c r="A69">
         <v>4</v>
       </c>
@@ -3223,11 +3700,11 @@
       <c r="J69">
         <v>0</v>
       </c>
-      <c r="N69">
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="O69">
         <v>4</v>
-      </c>
-      <c r="O69">
-        <v>25.675340136054398</v>
       </c>
       <c r="P69">
         <v>25.675340136054398</v>
@@ -3236,10 +3713,10 @@
         <v>25.675340136054398</v>
       </c>
       <c r="R69">
-        <v>26.089668367346899</v>
+        <v>25.675340136054398</v>
       </c>
       <c r="S69">
-        <v>26.089668367346899</v>
+        <v>25.3832482993197</v>
       </c>
       <c r="T69">
         <v>26.089668367346899</v>
@@ -3253,8 +3730,20 @@
       <c r="W69">
         <v>26.089668367346899</v>
       </c>
-    </row>
-    <row r="70" spans="1:23">
+      <c r="X69">
+        <v>26.089668367346899</v>
+      </c>
+      <c r="Y69">
+        <v>26.089668367346899</v>
+      </c>
+      <c r="Z69">
+        <v>50.392176870699998</v>
+      </c>
+      <c r="AA69">
+        <v>58.073086734699999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27">
       <c r="A70">
         <v>5</v>
       </c>
@@ -3268,7 +3757,7 @@
         <v>17856</v>
       </c>
       <c r="E70">
-        <v>16356</v>
+        <v>19256</v>
       </c>
       <c r="F70">
         <v>16356</v>
@@ -3285,11 +3774,11 @@
       <c r="J70">
         <v>16356</v>
       </c>
-      <c r="N70">
+      <c r="K70">
+        <v>16356</v>
+      </c>
+      <c r="O70">
         <v>5</v>
-      </c>
-      <c r="O70">
-        <v>28.2578523596938</v>
       </c>
       <c r="P70">
         <v>28.2578523596938</v>
@@ -3298,10 +3787,10 @@
         <v>28.2578523596938</v>
       </c>
       <c r="R70">
-        <v>28.487577062074799</v>
+        <v>28.2578523596938</v>
       </c>
       <c r="S70">
-        <v>28.487577062074799</v>
+        <v>28.053106398809501</v>
       </c>
       <c r="T70">
         <v>28.487577062074799</v>
@@ -3315,8 +3804,20 @@
       <c r="W70">
         <v>28.487577062074799</v>
       </c>
-    </row>
-    <row r="71" spans="1:23">
+      <c r="X70">
+        <v>28.487577062074799</v>
+      </c>
+      <c r="Y70">
+        <v>28.487577062074799</v>
+      </c>
+      <c r="Z70">
+        <v>63.3725419855</v>
+      </c>
+      <c r="AA70">
+        <v>72.708572491499993</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27">
       <c r="A71">
         <v>6</v>
       </c>
@@ -3330,7 +3831,7 @@
         <v>86258</v>
       </c>
       <c r="E71">
-        <v>78969</v>
+        <v>92937</v>
       </c>
       <c r="F71">
         <v>78969</v>
@@ -3347,11 +3848,11 @@
       <c r="J71">
         <v>78969</v>
       </c>
-      <c r="N71">
+      <c r="K71">
+        <v>78969</v>
+      </c>
+      <c r="O71">
         <v>6</v>
-      </c>
-      <c r="O71">
-        <v>29.555015235260701</v>
       </c>
       <c r="P71">
         <v>29.555015235260701</v>
@@ -3360,10 +3861,10 @@
         <v>29.555015235260701</v>
       </c>
       <c r="R71">
-        <v>29.662104946145099</v>
+        <v>29.555015235260701</v>
       </c>
       <c r="S71">
-        <v>29.662104946145099</v>
+        <v>29.4431866496598</v>
       </c>
       <c r="T71">
         <v>29.662104946145099</v>
@@ -3377,8 +3878,20 @@
       <c r="W71">
         <v>29.662104946145099</v>
       </c>
-    </row>
-    <row r="72" spans="1:23">
+      <c r="X71">
+        <v>29.662104946145099</v>
+      </c>
+      <c r="Y71">
+        <v>29.662104946145099</v>
+      </c>
+      <c r="Z71">
+        <v>75.451619189300004</v>
+      </c>
+      <c r="AA71">
+        <v>86.595734127</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27">
       <c r="A72">
         <v>7</v>
       </c>
@@ -3409,11 +3922,11 @@
       <c r="J72">
         <v>0</v>
       </c>
-      <c r="N72">
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="O72">
         <v>7</v>
-      </c>
-      <c r="O72">
-        <v>30.077768477182499</v>
       </c>
       <c r="P72">
         <v>30.077768477182499</v>
@@ -3422,10 +3935,10 @@
         <v>30.077768477182499</v>
       </c>
       <c r="R72">
-        <v>30.125356522817398</v>
+        <v>30.077768477182499</v>
       </c>
       <c r="S72">
-        <v>30.125356522817398</v>
+        <v>30.0178571428571</v>
       </c>
       <c r="T72">
         <v>30.125356522817398</v>
@@ -3439,8 +3952,20 @@
       <c r="W72">
         <v>30.125356522817398</v>
       </c>
-    </row>
-    <row r="73" spans="1:23">
+      <c r="X72">
+        <v>30.125356522817398</v>
+      </c>
+      <c r="Y72">
+        <v>30.125356522817398</v>
+      </c>
+      <c r="Z72">
+        <v>84.978066096199996</v>
+      </c>
+      <c r="AA72">
+        <v>97.9287109375</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27">
       <c r="A73">
         <v>8</v>
       </c>
@@ -3471,11 +3996,11 @@
       <c r="J73">
         <v>0</v>
       </c>
-      <c r="N73">
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="O73">
         <v>8</v>
-      </c>
-      <c r="O73">
-        <v>30.057539682539598</v>
       </c>
       <c r="P73">
         <v>30.057539682539598</v>
@@ -3484,10 +4009,10 @@
         <v>30.057539682539598</v>
       </c>
       <c r="R73">
-        <v>30.067460317460299</v>
+        <v>30.057539682539598</v>
       </c>
       <c r="S73">
-        <v>30.067460317460299</v>
+        <v>30.0178571428571</v>
       </c>
       <c r="T73">
         <v>30.067460317460299</v>
@@ -3501,8 +4026,20 @@
       <c r="W73">
         <v>30.067460317460299</v>
       </c>
-    </row>
-    <row r="74" spans="1:23">
+      <c r="X73">
+        <v>30.067460317460299</v>
+      </c>
+      <c r="Y73">
+        <v>30.067460317460299</v>
+      </c>
+      <c r="Z73">
+        <v>81.945064484100001</v>
+      </c>
+      <c r="AA73">
+        <v>98.828373015899999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27">
       <c r="A74">
         <v>9</v>
       </c>
@@ -3533,8 +4070,11 @@
       <c r="J74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:23">
+      <c r="K74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27">
       <c r="A75">
         <v>10</v>
       </c>
@@ -3565,8 +4105,11 @@
       <c r="J75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:23">
+      <c r="K75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27">
       <c r="A76">
         <v>11</v>
       </c>
@@ -3597,8 +4140,11 @@
       <c r="J76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:23">
+      <c r="K76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27">
       <c r="A77">
         <v>12</v>
       </c>
@@ -3629,8 +4175,11 @@
       <c r="J77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:23">
+      <c r="K77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27">
       <c r="A78">
         <v>13</v>
       </c>
@@ -3661,8 +4210,11 @@
       <c r="J78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:23">
+      <c r="K78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27">
       <c r="A79">
         <v>14</v>
       </c>
@@ -3693,8 +4245,11 @@
       <c r="J79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:23">
+      <c r="K79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27">
       <c r="A80">
         <v>15</v>
       </c>
@@ -3725,8 +4280,11 @@
       <c r="J80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:10">
+      <c r="K80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81">
         <v>16</v>
       </c>
@@ -3757,8 +4315,11 @@
       <c r="J81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:10">
+      <c r="K81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82">
         <v>17</v>
       </c>
@@ -3789,8 +4350,11 @@
       <c r="J82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:10">
+      <c r="K82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83">
         <v>18</v>
       </c>
@@ -3821,8 +4385,11 @@
       <c r="J83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:10">
+      <c r="K83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84">
         <v>19</v>
       </c>
@@ -3853,8 +4420,11 @@
       <c r="J84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:10">
+      <c r="K84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85">
         <v>20</v>
       </c>
@@ -3885,8 +4455,11 @@
       <c r="J85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:10">
+      <c r="K85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86">
         <v>21</v>
       </c>
@@ -3917,8 +4490,11 @@
       <c r="J86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:10">
+      <c r="K86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87">
         <v>22</v>
       </c>
@@ -3949,8 +4525,11 @@
       <c r="J87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:10">
+      <c r="K87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88">
         <v>23</v>
       </c>
@@ -3981,8 +4560,11 @@
       <c r="J88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:10">
+      <c r="K88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89">
         <v>24</v>
       </c>
@@ -4013,8 +4595,11 @@
       <c r="J89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:10">
+      <c r="K89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90">
         <v>25</v>
       </c>
@@ -4045,8 +4630,11 @@
       <c r="J90">
         <v>3088</v>
       </c>
-    </row>
-    <row r="91" spans="1:10">
+      <c r="K90">
+        <v>3088</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91">
         <v>26</v>
       </c>
@@ -4077,8 +4665,11 @@
       <c r="J91">
         <v>15204</v>
       </c>
-    </row>
-    <row r="92" spans="1:10">
+      <c r="K91">
+        <v>15204</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92">
         <v>27</v>
       </c>
@@ -4109,8 +4700,11 @@
       <c r="J92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:10">
+      <c r="K92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93">
         <v>28</v>
       </c>
@@ -4141,8 +4735,11 @@
       <c r="J93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:10">
+      <c r="K93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94">
         <v>29</v>
       </c>
@@ -4173,8 +4770,11 @@
       <c r="J94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:10">
+      <c r="K94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95">
         <v>30</v>
       </c>
@@ -4188,7 +4788,7 @@
         <v>240644</v>
       </c>
       <c r="E95">
-        <v>242144</v>
+        <v>239244</v>
       </c>
       <c r="F95">
         <v>242144</v>
@@ -4205,8 +4805,11 @@
       <c r="J95">
         <v>242144</v>
       </c>
-    </row>
-    <row r="96" spans="1:10">
+      <c r="K95">
+        <v>242144</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96">
         <v>31</v>
       </c>
@@ -4220,7 +4823,7 @@
         <v>1077079</v>
       </c>
       <c r="E96">
-        <v>1084368</v>
+        <v>1070400</v>
       </c>
       <c r="F96">
         <v>1084368</v>
@@ -4237,10 +4840,13 @@
       <c r="J96">
         <v>1084368</v>
       </c>
-    </row>
-    <row r="97" spans="1:10">
+      <c r="K96">
+        <v>1084368</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B97">
         <v>28.916283850848501</v>
@@ -4252,7 +4858,7 @@
         <v>28.916283850848501</v>
       </c>
       <c r="E97">
-        <v>29.068687665989899</v>
+        <v>28.776191642118501</v>
       </c>
       <c r="F97">
         <v>29.068687665989899</v>
@@ -4268,6 +4874,15 @@
       </c>
       <c r="J97">
         <v>29.068687665989899</v>
+      </c>
+      <c r="K97">
+        <v>29.068687665989899</v>
+      </c>
+      <c r="L97">
+        <v>72.011622850099997</v>
+      </c>
+      <c r="M97">
+        <v>82.886537622500001</v>
       </c>
     </row>
   </sheetData>

--- a/summary_qcost.xlsx
+++ b/summary_qcost.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-catsai.FAREAST\Documents\GitHub\quantum-logic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFACC6EE-FF42-4E19-A24E-E7402DCFDFE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F1C0569-21A7-4606-B20F-25E950345503}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3690" yWindow="1710" windowWidth="21600" windowHeight="11385" xr2:uid="{15ABC293-405C-462E-8E8C-BE0E81CEA200}"/>
   </bookViews>
@@ -491,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0123011-1B57-48AF-9231-E9A37AC2F31A}">
   <dimension ref="A1:Y367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="L151" sqref="L151:L366"/>
+    <sheetView tabSelected="1" topLeftCell="A353" workbookViewId="0">
+      <selection activeCell="A367" sqref="A367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -662,7 +662,7 @@
         <v>1736</v>
       </c>
       <c r="F3">
-        <v>16704</v>
+        <v>1736</v>
       </c>
       <c r="G3">
         <v>1736</v>
@@ -698,7 +698,7 @@
         <v>1.2978723404255299</v>
       </c>
       <c r="S3">
-        <v>0.89795918367346905</v>
+        <v>1.2978723404255299</v>
       </c>
       <c r="T3">
         <v>1.2978723404255299</v>
@@ -736,7 +736,7 @@
         <v>6439</v>
       </c>
       <c r="F4">
-        <v>78977</v>
+        <v>6055</v>
       </c>
       <c r="G4">
         <v>6439</v>
@@ -772,7 +772,7 @@
         <v>2.9047619047619002</v>
       </c>
       <c r="S4">
-        <v>3.2518740629685099</v>
+        <v>2.9183673469387701</v>
       </c>
       <c r="T4">
         <v>2.9047619047619002</v>
@@ -810,7 +810,7 @@
         <v>14847</v>
       </c>
       <c r="F5">
-        <v>8</v>
+        <v>13479</v>
       </c>
       <c r="G5">
         <v>14847</v>
@@ -846,7 +846,7 @@
         <v>5.3701423624470896</v>
       </c>
       <c r="S5">
-        <v>4.9234783534799504</v>
+        <v>5.3805326876513302</v>
       </c>
       <c r="T5">
         <v>5.3701423624470896</v>
@@ -884,7 +884,7 @@
         <v>22637</v>
       </c>
       <c r="F6">
-        <v>7</v>
+        <v>20935</v>
       </c>
       <c r="G6">
         <v>22637</v>
@@ -920,7 +920,7 @@
         <v>7.5774696408578004</v>
       </c>
       <c r="S6">
-        <v>5.7754957748398503</v>
+        <v>7.6184482011270003</v>
       </c>
       <c r="T6">
         <v>7.5774696408578004</v>
@@ -958,7 +958,7 @@
         <v>23830</v>
       </c>
       <c r="F7">
-        <v>3070</v>
+        <v>23560</v>
       </c>
       <c r="G7">
         <v>23830</v>
@@ -994,7 +994,7 @@
         <v>9.7634069968326997</v>
       </c>
       <c r="S7">
-        <v>6.3274561538829799</v>
+        <v>9.7747792464045204</v>
       </c>
       <c r="T7">
         <v>9.7634069968326997</v>
@@ -1032,7 +1032,7 @@
         <v>20916</v>
       </c>
       <c r="F8">
-        <v>257136</v>
+        <v>22034</v>
       </c>
       <c r="G8">
         <v>20916</v>
@@ -1068,7 +1068,7 @@
         <v>11.6890512793697</v>
       </c>
       <c r="S8">
-        <v>6.6104359015716403</v>
+        <v>11.7343070202137</v>
       </c>
       <c r="T8">
         <v>11.6890512793697</v>
@@ -1106,7 +1106,7 @@
         <v>23771</v>
       </c>
       <c r="F9">
-        <v>1084279</v>
+        <v>24035</v>
       </c>
       <c r="G9">
         <v>23771</v>
@@ -1142,7 +1142,7 @@
         <v>11.759301772017899</v>
       </c>
       <c r="S9">
-        <v>6.7272896431096703</v>
+        <v>11.791066490454501</v>
       </c>
       <c r="T9">
         <v>11.759301772017899</v>
@@ -1180,7 +1180,7 @@
         <v>38240</v>
       </c>
       <c r="F10">
-        <v>6</v>
+        <v>35935</v>
       </c>
       <c r="G10">
         <v>38240</v>
@@ -1216,7 +1216,7 @@
         <v>9.7209786569494998</v>
       </c>
       <c r="S10">
-        <v>6.7164901138703499</v>
+        <v>9.7246760484882202</v>
       </c>
       <c r="T10">
         <v>9.7209786569494998</v>
@@ -1254,7 +1254,7 @@
         <v>55935</v>
       </c>
       <c r="F11">
-        <v>6</v>
+        <v>51310</v>
       </c>
       <c r="G11">
         <v>55935</v>
@@ -1292,7 +1292,7 @@
         <v>57213</v>
       </c>
       <c r="F12">
-        <v>5</v>
+        <v>56362</v>
       </c>
       <c r="G12">
         <v>57213</v>
@@ -1330,7 +1330,7 @@
         <v>46628</v>
       </c>
       <c r="F13">
-        <v>5</v>
+        <v>49677</v>
       </c>
       <c r="G13">
         <v>46628</v>
@@ -1368,7 +1368,7 @@
         <v>43146</v>
       </c>
       <c r="F14">
-        <v>5</v>
+        <v>45106</v>
       </c>
       <c r="G14">
         <v>43146</v>
@@ -1406,7 +1406,7 @@
         <v>55576</v>
       </c>
       <c r="F15">
-        <v>4</v>
+        <v>52390</v>
       </c>
       <c r="G15">
         <v>55576</v>
@@ -1444,7 +1444,7 @@
         <v>74656</v>
       </c>
       <c r="F16">
-        <v>4</v>
+        <v>67800</v>
       </c>
       <c r="G16">
         <v>74656</v>
@@ -1482,7 +1482,7 @@
         <v>57138</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>54658</v>
       </c>
       <c r="G17">
         <v>57138</v>
@@ -1511,7 +1511,7 @@
         <v>24818</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>27425</v>
       </c>
       <c r="G18">
         <v>24818</v>
@@ -1563,7 +1563,7 @@
         <v>10.5581032861203</v>
       </c>
       <c r="F20">
-        <v>6.4723567262788597</v>
+        <v>10.575828625082</v>
       </c>
       <c r="G20">
         <v>10.5581032861203</v>
@@ -1749,7 +1749,7 @@
         <v>1728</v>
       </c>
       <c r="F26">
-        <v>17700</v>
+        <v>1728</v>
       </c>
       <c r="G26">
         <v>1728</v>
@@ -1785,7 +1785,7 @@
         <v>3</v>
       </c>
       <c r="S26">
-        <v>2.09375</v>
+        <v>3</v>
       </c>
       <c r="T26">
         <v>3</v>
@@ -1823,7 +1823,7 @@
         <v>6432</v>
       </c>
       <c r="F27">
-        <v>78969</v>
+        <v>6048</v>
       </c>
       <c r="G27">
         <v>6432</v>
@@ -1859,7 +1859,7 @@
         <v>6.0727040816326499</v>
       </c>
       <c r="S27">
-        <v>3.71556122448979</v>
+        <v>6.0841836734693802</v>
       </c>
       <c r="T27">
         <v>6.0727040816326499</v>
@@ -1897,7 +1897,7 @@
         <v>14840</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>13472</v>
       </c>
       <c r="G28">
         <v>14840</v>
@@ -1933,7 +1933,7 @@
         <v>9.1903698979591795</v>
       </c>
       <c r="S28">
-        <v>4.9160289115646201</v>
+        <v>9.2248086734693793</v>
       </c>
       <c r="T28">
         <v>9.1903698979591795</v>
@@ -1971,7 +1971,7 @@
         <v>22632</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>20930</v>
       </c>
       <c r="G29">
         <v>22632</v>
@@ -2007,7 +2007,7 @@
         <v>12.3068792517006</v>
       </c>
       <c r="S29">
-        <v>5.76793367346938</v>
+        <v>12.375756802721</v>
       </c>
       <c r="T29">
         <v>12.3068792517006</v>
@@ -2045,7 +2045,7 @@
         <v>23830</v>
       </c>
       <c r="F30">
-        <v>3088</v>
+        <v>23560</v>
       </c>
       <c r="G30">
         <v>23830</v>
@@ -2081,7 +2081,7 @@
         <v>15.325996492346899</v>
       </c>
       <c r="S30">
-        <v>6.3225154124149601</v>
+        <v>15.4407924107142</v>
       </c>
       <c r="T30">
         <v>15.325996492346899</v>
@@ -2119,7 +2119,7 @@
         <v>20964</v>
       </c>
       <c r="F31">
-        <v>257348</v>
+        <v>22082</v>
       </c>
       <c r="G31">
         <v>20964</v>
@@ -2155,7 +2155,7 @@
         <v>17.965481505102002</v>
       </c>
       <c r="S31">
-        <v>6.6074209892290199</v>
+        <v>18.137675382653001</v>
       </c>
       <c r="T31">
         <v>17.965481505102002</v>
@@ -2193,7 +2193,7 @@
         <v>23900</v>
       </c>
       <c r="F32">
-        <v>1084368</v>
+        <v>24161</v>
       </c>
       <c r="G32">
         <v>23900</v>
@@ -2229,7 +2229,7 @@
         <v>19.4271577380952</v>
       </c>
       <c r="S32">
-        <v>6.7250713045634898</v>
+        <v>19.668229166666599</v>
       </c>
       <c r="T32">
         <v>19.4271577380952</v>
@@ -2266,6 +2266,9 @@
       <c r="E33">
         <v>38374</v>
       </c>
+      <c r="F33">
+        <v>36067</v>
+      </c>
       <c r="G33">
         <v>38374</v>
       </c>
@@ -2300,7 +2303,7 @@
         <v>18.168452380952299</v>
       </c>
       <c r="S33">
-        <v>6.7134920634920601</v>
+        <v>18.489880952380901</v>
       </c>
       <c r="T33">
         <v>18.168452380952299</v>
@@ -2337,6 +2340,9 @@
       <c r="E34">
         <v>56128</v>
       </c>
+      <c r="F34">
+        <v>51513</v>
+      </c>
       <c r="G34">
         <v>56128</v>
       </c>
@@ -2372,6 +2378,9 @@
       <c r="E35">
         <v>58155</v>
       </c>
+      <c r="F35">
+        <v>57353</v>
+      </c>
       <c r="G35">
         <v>58155</v>
       </c>
@@ -2407,6 +2416,9 @@
       <c r="E36">
         <v>47959</v>
       </c>
+      <c r="F36">
+        <v>51029</v>
+      </c>
       <c r="G36">
         <v>47959</v>
       </c>
@@ -2442,6 +2454,9 @@
       <c r="E37">
         <v>46736</v>
       </c>
+      <c r="F37">
+        <v>48589</v>
+      </c>
       <c r="G37">
         <v>46736</v>
       </c>
@@ -2477,6 +2492,9 @@
       <c r="E38">
         <v>67001</v>
       </c>
+      <c r="F38">
+        <v>63500</v>
+      </c>
       <c r="G38">
         <v>67001</v>
       </c>
@@ -2512,6 +2530,9 @@
       <c r="E39">
         <v>94121</v>
       </c>
+      <c r="F39">
+        <v>86701</v>
+      </c>
       <c r="G39">
         <v>94121</v>
       </c>
@@ -2547,6 +2568,9 @@
       <c r="E40">
         <v>95835</v>
       </c>
+      <c r="F40">
+        <v>93610</v>
+      </c>
       <c r="G40">
         <v>95835</v>
       </c>
@@ -2582,6 +2606,9 @@
       <c r="E41">
         <v>72316</v>
       </c>
+      <c r="F41">
+        <v>78414</v>
+      </c>
       <c r="G41">
         <v>72316</v>
       </c>
@@ -2617,6 +2644,9 @@
       <c r="E42">
         <v>57709</v>
       </c>
+      <c r="F42">
+        <v>62798</v>
+      </c>
       <c r="G42">
         <v>57709</v>
       </c>
@@ -2652,6 +2682,9 @@
       <c r="E43">
         <v>71706</v>
       </c>
+      <c r="F43">
+        <v>69010</v>
+      </c>
       <c r="G43">
         <v>71706</v>
       </c>
@@ -2687,6 +2720,9 @@
       <c r="E44">
         <v>97418</v>
       </c>
+      <c r="F44">
+        <v>89341</v>
+      </c>
       <c r="G44">
         <v>97418</v>
       </c>
@@ -2722,6 +2758,9 @@
       <c r="E45">
         <v>98398</v>
       </c>
+      <c r="F45">
+        <v>95843</v>
+      </c>
       <c r="G45">
         <v>98398</v>
       </c>
@@ -2757,6 +2796,9 @@
       <c r="E46">
         <v>71434</v>
       </c>
+      <c r="F46">
+        <v>77928</v>
+      </c>
       <c r="G46">
         <v>71434</v>
       </c>
@@ -2792,6 +2834,9 @@
       <c r="E47">
         <v>46235</v>
       </c>
+      <c r="F47">
+        <v>53430</v>
+      </c>
       <c r="G47">
         <v>46235</v>
       </c>
@@ -2827,6 +2872,9 @@
       <c r="E48">
         <v>44730</v>
       </c>
+      <c r="F48">
+        <v>45387</v>
+      </c>
       <c r="G48">
         <v>44730</v>
       </c>
@@ -2862,6 +2910,9 @@
       <c r="E49">
         <v>57750</v>
       </c>
+      <c r="F49">
+        <v>53101</v>
+      </c>
       <c r="G49">
         <v>57750</v>
       </c>
@@ -2897,6 +2948,9 @@
       <c r="E50">
         <v>59255</v>
       </c>
+      <c r="F50">
+        <v>57174</v>
+      </c>
       <c r="G50">
         <v>59255</v>
       </c>
@@ -2932,6 +2986,9 @@
       <c r="E51">
         <v>42334</v>
       </c>
+      <c r="F51">
+        <v>45760</v>
+      </c>
       <c r="G51">
         <v>42334</v>
       </c>
@@ -2967,6 +3024,9 @@
       <c r="E52">
         <v>21284</v>
       </c>
+      <c r="F52">
+        <v>26811</v>
+      </c>
       <c r="G52">
         <v>21284</v>
       </c>
@@ -3002,6 +3062,9 @@
       <c r="E53">
         <v>12364</v>
       </c>
+      <c r="F53">
+        <v>14750</v>
+      </c>
       <c r="G53">
         <v>12364</v>
       </c>
@@ -3037,6 +3100,9 @@
       <c r="E54">
         <v>14941</v>
       </c>
+      <c r="F54">
+        <v>14038</v>
+      </c>
       <c r="G54">
         <v>14941</v>
       </c>
@@ -3072,6 +3138,9 @@
       <c r="E55">
         <v>18583</v>
       </c>
+      <c r="F55">
+        <v>17017</v>
+      </c>
       <c r="G55">
         <v>18583</v>
       </c>
@@ -3107,6 +3176,9 @@
       <c r="E56">
         <v>15170</v>
       </c>
+      <c r="F56">
+        <v>15574</v>
+      </c>
       <c r="G56">
         <v>15170</v>
       </c>
@@ -3142,6 +3214,9 @@
       <c r="E57">
         <v>7746</v>
       </c>
+      <c r="F57">
+        <v>9673</v>
+      </c>
       <c r="G57">
         <v>7746</v>
       </c>
@@ -3177,6 +3252,9 @@
       <c r="E58">
         <v>2813</v>
       </c>
+      <c r="F58">
+        <v>4037</v>
+      </c>
       <c r="G58">
         <v>2813</v>
       </c>
@@ -3212,6 +3290,9 @@
       <c r="E59">
         <v>1866</v>
       </c>
+      <c r="F59">
+        <v>2042</v>
+      </c>
       <c r="G59">
         <v>1866</v>
       </c>
@@ -3247,6 +3328,9 @@
       <c r="E60">
         <v>2843</v>
       </c>
+      <c r="F60">
+        <v>2506</v>
+      </c>
       <c r="G60">
         <v>2843</v>
       </c>
@@ -3282,6 +3366,9 @@
       <c r="E61">
         <v>2971</v>
       </c>
+      <c r="F61">
+        <v>2808</v>
+      </c>
       <c r="G61">
         <v>2971</v>
       </c>
@@ -3317,6 +3404,9 @@
       <c r="E62">
         <v>1776</v>
       </c>
+      <c r="F62">
+        <v>2079</v>
+      </c>
       <c r="G62">
         <v>1776</v>
       </c>
@@ -3349,6 +3439,9 @@
       <c r="E63">
         <v>593</v>
       </c>
+      <c r="F63">
+        <v>889</v>
+      </c>
       <c r="G63">
         <v>593</v>
       </c>
@@ -3372,6 +3465,9 @@
       <c r="E64">
         <v>92</v>
       </c>
+      <c r="F64">
+        <v>209</v>
+      </c>
       <c r="G64">
         <v>92</v>
       </c>
@@ -3395,6 +3491,9 @@
       <c r="E65">
         <v>109</v>
       </c>
+      <c r="F65">
+        <v>87</v>
+      </c>
       <c r="G65">
         <v>109</v>
       </c>
@@ -3418,6 +3517,9 @@
       <c r="E66">
         <v>162</v>
       </c>
+      <c r="F66">
+        <v>152</v>
+      </c>
       <c r="G66">
         <v>162</v>
       </c>
@@ -3441,6 +3543,9 @@
       <c r="E67">
         <v>175</v>
       </c>
+      <c r="F67">
+        <v>156</v>
+      </c>
       <c r="G67">
         <v>175</v>
       </c>
@@ -3464,6 +3569,9 @@
       <c r="E68">
         <v>55</v>
       </c>
+      <c r="F68">
+        <v>90</v>
+      </c>
       <c r="G68">
         <v>55</v>
       </c>
@@ -3508,7 +3616,7 @@
         <v>17.019522392904602</v>
       </c>
       <c r="F70">
-        <v>6.46844309852961</v>
+        <v>17.185910112094501</v>
       </c>
       <c r="G70">
         <v>17.019522392904602</v>
@@ -3694,7 +3802,7 @@
         <v>7008</v>
       </c>
       <c r="F76">
-        <v>95325</v>
+        <v>7008</v>
       </c>
       <c r="G76">
         <v>7008</v>
@@ -3730,7 +3838,7 @@
         <v>3.75</v>
       </c>
       <c r="S76">
-        <v>2.71875</v>
+        <v>3.75</v>
       </c>
       <c r="T76">
         <v>3.75</v>
@@ -3768,7 +3876,7 @@
         <v>17736</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>17736</v>
       </c>
       <c r="G77">
         <v>17736</v>
@@ -3804,7 +3912,7 @@
         <v>7.7353316326530601</v>
       </c>
       <c r="S77">
-        <v>4.84375</v>
+        <v>7.7353316326530601</v>
       </c>
       <c r="T77">
         <v>7.7353316326530601</v>
@@ -3842,7 +3950,7 @@
         <v>26824</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>26824</v>
       </c>
       <c r="G78">
         <v>26824</v>
@@ -3878,7 +3986,7 @@
         <v>11.925860969387699</v>
       </c>
       <c r="S78">
-        <v>6.4281462585033999</v>
+        <v>11.925860969387699</v>
       </c>
       <c r="T78">
         <v>11.925860969387699</v>
@@ -3916,7 +4024,7 @@
         <v>25572</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>25572</v>
       </c>
       <c r="G79">
         <v>25572</v>
@@ -3952,7 +4060,7 @@
         <v>16.2684098639455</v>
       </c>
       <c r="S79">
-        <v>7.5535714285714199</v>
+        <v>16.2684098639455</v>
       </c>
       <c r="T79">
         <v>16.2684098639455</v>
@@ -3990,7 +4098,7 @@
         <v>13742</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>13742</v>
       </c>
       <c r="G80">
         <v>13742</v>
@@ -4026,7 +4134,7 @@
         <v>20.636559311224399</v>
       </c>
       <c r="S80">
-        <v>8.2762542517006796</v>
+        <v>20.636559311224399</v>
       </c>
       <c r="T80">
         <v>20.636559311224399</v>
@@ -4064,7 +4172,7 @@
         <v>3948</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>3948</v>
       </c>
       <c r="G81">
         <v>3948</v>
@@ -4100,7 +4208,7 @@
         <v>24.6072332057823</v>
       </c>
       <c r="S81">
-        <v>8.6266439909297006</v>
+        <v>24.6072332057823</v>
       </c>
       <c r="T81">
         <v>24.6072332057823</v>
@@ -4174,7 +4282,7 @@
         <v>26.925725446428501</v>
       </c>
       <c r="S82">
-        <v>8.7629712301587297</v>
+        <v>26.925725446428501</v>
       </c>
       <c r="T82">
         <v>26.925725446428501</v>
@@ -4212,7 +4320,7 @@
         <v>3504</v>
       </c>
       <c r="F83">
-        <v>18292</v>
+        <v>3504</v>
       </c>
       <c r="G83">
         <v>3504</v>
@@ -4248,7 +4356,7 @@
         <v>25.137499999999999</v>
       </c>
       <c r="S83">
-        <v>8.74444444444444</v>
+        <v>25.137499999999999</v>
       </c>
       <c r="T83">
         <v>25.137499999999999</v>
@@ -4286,7 +4394,7 @@
         <v>16944</v>
       </c>
       <c r="F84">
-        <v>1326512</v>
+        <v>16944</v>
       </c>
       <c r="G84">
         <v>16944</v>
@@ -4324,7 +4432,7 @@
         <v>41958</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>41958</v>
       </c>
       <c r="G85">
         <v>41958</v>
@@ -4361,6 +4469,9 @@
       <c r="E86">
         <v>66527</v>
       </c>
+      <c r="F86">
+        <v>66527</v>
+      </c>
       <c r="G86">
         <v>66527</v>
       </c>
@@ -4396,6 +4507,9 @@
       <c r="E87">
         <v>62286</v>
       </c>
+      <c r="F87">
+        <v>62286</v>
+      </c>
       <c r="G87">
         <v>62286</v>
       </c>
@@ -4431,6 +4545,9 @@
       <c r="E88">
         <v>35385</v>
       </c>
+      <c r="F88">
+        <v>35385</v>
+      </c>
       <c r="G88">
         <v>35385</v>
       </c>
@@ -4466,6 +4583,9 @@
       <c r="E89">
         <v>9526</v>
       </c>
+      <c r="F89">
+        <v>9526</v>
+      </c>
       <c r="G89">
         <v>9526</v>
       </c>
@@ -4501,6 +4621,9 @@
       <c r="E90">
         <v>0</v>
       </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
       <c r="G90">
         <v>0</v>
       </c>
@@ -4536,6 +4659,9 @@
       <c r="E91">
         <v>5760</v>
       </c>
+      <c r="F91">
+        <v>5760</v>
+      </c>
       <c r="G91">
         <v>5760</v>
       </c>
@@ -4571,6 +4697,9 @@
       <c r="E92">
         <v>28272</v>
       </c>
+      <c r="F92">
+        <v>28272</v>
+      </c>
       <c r="G92">
         <v>28272</v>
       </c>
@@ -4606,6 +4735,9 @@
       <c r="E93">
         <v>72306</v>
       </c>
+      <c r="F93">
+        <v>72306</v>
+      </c>
       <c r="G93">
         <v>72306</v>
       </c>
@@ -4641,6 +4773,9 @@
       <c r="E94">
         <v>109339</v>
       </c>
+      <c r="F94">
+        <v>109339</v>
+      </c>
       <c r="G94">
         <v>109339</v>
       </c>
@@ -4676,6 +4811,9 @@
       <c r="E95">
         <v>102900</v>
       </c>
+      <c r="F95">
+        <v>102900</v>
+      </c>
       <c r="G95">
         <v>102900</v>
       </c>
@@ -4711,6 +4849,9 @@
       <c r="E96">
         <v>55892</v>
       </c>
+      <c r="F96">
+        <v>55892</v>
+      </c>
       <c r="G96">
         <v>55892</v>
       </c>
@@ -4746,6 +4887,9 @@
       <c r="E97">
         <v>15211</v>
       </c>
+      <c r="F97">
+        <v>15211</v>
+      </c>
       <c r="G97">
         <v>15211</v>
       </c>
@@ -4781,6 +4925,9 @@
       <c r="E98">
         <v>0</v>
       </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
       <c r="G98">
         <v>0</v>
       </c>
@@ -4816,6 +4963,9 @@
       <c r="E99">
         <v>5600</v>
       </c>
+      <c r="F99">
+        <v>5600</v>
+      </c>
       <c r="G99">
         <v>5600</v>
       </c>
@@ -4851,6 +5001,9 @@
       <c r="E100">
         <v>27232</v>
       </c>
+      <c r="F100">
+        <v>27232</v>
+      </c>
       <c r="G100">
         <v>27232</v>
       </c>
@@ -4886,6 +5039,9 @@
       <c r="E101">
         <v>73649</v>
       </c>
+      <c r="F101">
+        <v>73649</v>
+      </c>
       <c r="G101">
         <v>73649</v>
       </c>
@@ -4921,6 +5077,9 @@
       <c r="E102">
         <v>111388</v>
       </c>
+      <c r="F102">
+        <v>111388</v>
+      </c>
       <c r="G102">
         <v>111388</v>
       </c>
@@ -4956,6 +5115,9 @@
       <c r="E103">
         <v>107537</v>
       </c>
+      <c r="F103">
+        <v>107537</v>
+      </c>
       <c r="G103">
         <v>107537</v>
       </c>
@@ -4991,6 +5153,9 @@
       <c r="E104">
         <v>59153</v>
       </c>
+      <c r="F104">
+        <v>59153</v>
+      </c>
       <c r="G104">
         <v>59153</v>
       </c>
@@ -5026,6 +5191,9 @@
       <c r="E105">
         <v>16600</v>
       </c>
+      <c r="F105">
+        <v>16600</v>
+      </c>
       <c r="G105">
         <v>16600</v>
       </c>
@@ -5061,6 +5229,9 @@
       <c r="E106">
         <v>0</v>
       </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
       <c r="G106">
         <v>0</v>
       </c>
@@ -5096,6 +5267,9 @@
       <c r="E107">
         <v>3060</v>
       </c>
+      <c r="F107">
+        <v>3060</v>
+      </c>
       <c r="G107">
         <v>3060</v>
       </c>
@@ -5131,6 +5305,9 @@
       <c r="E108">
         <v>14928</v>
       </c>
+      <c r="F108">
+        <v>14928</v>
+      </c>
       <c r="G108">
         <v>14928</v>
       </c>
@@ -5166,6 +5343,9 @@
       <c r="E109">
         <v>41717</v>
       </c>
+      <c r="F109">
+        <v>41717</v>
+      </c>
       <c r="G109">
         <v>41717</v>
       </c>
@@ -5201,6 +5381,9 @@
       <c r="E110">
         <v>64902</v>
       </c>
+      <c r="F110">
+        <v>64902</v>
+      </c>
       <c r="G110">
         <v>64902</v>
       </c>
@@ -5236,6 +5419,9 @@
       <c r="E111">
         <v>65368</v>
       </c>
+      <c r="F111">
+        <v>65368</v>
+      </c>
       <c r="G111">
         <v>65368</v>
       </c>
@@ -5271,6 +5457,9 @@
       <c r="E112">
         <v>37880</v>
       </c>
+      <c r="F112">
+        <v>37880</v>
+      </c>
       <c r="G112">
         <v>37880</v>
       </c>
@@ -5306,6 +5495,9 @@
       <c r="E113">
         <v>11026</v>
       </c>
+      <c r="F113">
+        <v>11026</v>
+      </c>
       <c r="G113">
         <v>11026</v>
       </c>
@@ -5341,6 +5533,9 @@
       <c r="E114">
         <v>0</v>
       </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
       <c r="G114">
         <v>0</v>
       </c>
@@ -5376,6 +5571,9 @@
       <c r="E115">
         <v>368</v>
       </c>
+      <c r="F115">
+        <v>368</v>
+      </c>
       <c r="G115">
         <v>368</v>
       </c>
@@ -5411,6 +5609,9 @@
       <c r="E116">
         <v>1760</v>
       </c>
+      <c r="F116">
+        <v>1760</v>
+      </c>
       <c r="G116">
         <v>1760</v>
       </c>
@@ -5446,6 +5647,9 @@
       <c r="E117">
         <v>7945</v>
       </c>
+      <c r="F117">
+        <v>7945</v>
+      </c>
       <c r="G117">
         <v>7945</v>
       </c>
@@ -5481,6 +5685,9 @@
       <c r="E118">
         <v>16144</v>
       </c>
+      <c r="F118">
+        <v>16144</v>
+      </c>
       <c r="G118">
         <v>16144</v>
       </c>
@@ -5516,6 +5723,9 @@
       <c r="E119">
         <v>21681</v>
       </c>
+      <c r="F119">
+        <v>21681</v>
+      </c>
       <c r="G119">
         <v>21681</v>
       </c>
@@ -5551,6 +5761,9 @@
       <c r="E120">
         <v>15207</v>
       </c>
+      <c r="F120">
+        <v>15207</v>
+      </c>
       <c r="G120">
         <v>15207</v>
       </c>
@@ -5586,6 +5799,9 @@
       <c r="E121">
         <v>5248</v>
       </c>
+      <c r="F121">
+        <v>5248</v>
+      </c>
       <c r="G121">
         <v>5248</v>
       </c>
@@ -5621,6 +5837,9 @@
       <c r="E122">
         <v>0</v>
       </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
       <c r="G122">
         <v>0</v>
       </c>
@@ -5656,6 +5875,9 @@
       <c r="E123">
         <v>0</v>
       </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
       <c r="G123">
         <v>0</v>
       </c>
@@ -5691,6 +5913,9 @@
       <c r="E124">
         <v>0</v>
       </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
       <c r="G124">
         <v>0</v>
       </c>
@@ -5726,6 +5951,9 @@
       <c r="E125">
         <v>616</v>
       </c>
+      <c r="F125">
+        <v>616</v>
+      </c>
       <c r="G125">
         <v>616</v>
       </c>
@@ -5761,6 +5989,9 @@
       <c r="E126">
         <v>1512</v>
       </c>
+      <c r="F126">
+        <v>1512</v>
+      </c>
       <c r="G126">
         <v>1512</v>
       </c>
@@ -5793,6 +6024,9 @@
       <c r="E127">
         <v>3536</v>
       </c>
+      <c r="F127">
+        <v>3536</v>
+      </c>
       <c r="G127">
         <v>3536</v>
       </c>
@@ -5825,6 +6059,9 @@
       <c r="E128">
         <v>3303</v>
       </c>
+      <c r="F128">
+        <v>3303</v>
+      </c>
       <c r="G128">
         <v>3303</v>
       </c>
@@ -5848,6 +6085,9 @@
       <c r="E129">
         <v>1590</v>
       </c>
+      <c r="F129">
+        <v>1590</v>
+      </c>
       <c r="G129">
         <v>1590</v>
       </c>
@@ -5871,6 +6111,9 @@
       <c r="E130">
         <v>0</v>
       </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
       <c r="G130">
         <v>0</v>
       </c>
@@ -5894,6 +6137,9 @@
       <c r="E131">
         <v>0</v>
       </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
       <c r="G131">
         <v>0</v>
       </c>
@@ -5917,6 +6163,9 @@
       <c r="E132">
         <v>0</v>
       </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
       <c r="G132">
         <v>0</v>
       </c>
@@ -5940,6 +6189,9 @@
       <c r="E133">
         <v>0</v>
       </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
       <c r="G133">
         <v>0</v>
       </c>
@@ -5963,6 +6215,9 @@
       <c r="E134">
         <v>0</v>
       </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
       <c r="G134">
         <v>0</v>
       </c>
@@ -5986,6 +6241,9 @@
       <c r="E135">
         <v>147</v>
       </c>
+      <c r="F135">
+        <v>147</v>
+      </c>
       <c r="G135">
         <v>147</v>
       </c>
@@ -6009,6 +6267,9 @@
       <c r="E136">
         <v>160</v>
       </c>
+      <c r="F136">
+        <v>160</v>
+      </c>
       <c r="G136">
         <v>160</v>
       </c>
@@ -6026,9 +6287,15 @@
       </c>
     </row>
     <row r="137" spans="1:12">
+      <c r="A137">
+        <v>62</v>
+      </c>
       <c r="E137">
         <v>232</v>
       </c>
+      <c r="F137">
+        <v>232</v>
+      </c>
       <c r="G137">
         <v>232</v>
       </c>
@@ -6037,26 +6304,41 @@
       </c>
     </row>
     <row r="138" spans="1:12">
+      <c r="A138">
+        <v>63</v>
+      </c>
       <c r="L138">
         <v>27</v>
       </c>
     </row>
     <row r="139" spans="1:12">
+      <c r="A139">
+        <v>64</v>
+      </c>
       <c r="L139">
         <v>7</v>
       </c>
     </row>
     <row r="140" spans="1:12">
+      <c r="A140">
+        <v>65</v>
+      </c>
       <c r="L140">
         <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:12">
+      <c r="A141">
+        <v>66</v>
+      </c>
       <c r="L141">
         <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:12">
+      <c r="A142">
+        <v>67</v>
+      </c>
       <c r="L142">
         <v>1</v>
       </c>
@@ -6078,7 +6360,7 @@
         <v>23.239373002832</v>
       </c>
       <c r="F143">
-        <v>8.4483762204963604</v>
+        <v>23.239373002832</v>
       </c>
       <c r="G143">
         <v>23.239373002832</v>
@@ -6264,7 +6546,7 @@
         <v>576</v>
       </c>
       <c r="F152">
-        <v>1344</v>
+        <v>576</v>
       </c>
       <c r="G152">
         <v>576</v>
@@ -6300,7 +6582,7 @@
         <v>13.5</v>
       </c>
       <c r="S152">
-        <v>9.59375</v>
+        <v>13.5</v>
       </c>
       <c r="T152">
         <v>13.5</v>
@@ -6338,7 +6620,7 @@
         <v>576</v>
       </c>
       <c r="F153">
-        <v>0</v>
+        <v>576</v>
       </c>
       <c r="G153">
         <v>576</v>
@@ -6374,7 +6656,7 @@
         <v>27.623724489795901</v>
       </c>
       <c r="S153">
-        <v>16.952806122448902</v>
+        <v>27.635204081632601</v>
       </c>
       <c r="T153">
         <v>27.623724489795901</v>
@@ -6412,7 +6694,7 @@
         <v>192</v>
       </c>
       <c r="F154">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="G154">
         <v>192</v>
@@ -6448,7 +6730,7 @@
         <v>42.2324617346938</v>
       </c>
       <c r="S154">
-        <v>22.3301445578231</v>
+        <v>42.266900510204003</v>
       </c>
       <c r="T154">
         <v>42.2324617346938</v>
@@ -6522,7 +6804,7 @@
         <v>57.095620748299297</v>
       </c>
       <c r="S155">
-        <v>26.089668367346899</v>
+        <v>57.164498299319703</v>
       </c>
       <c r="T155">
         <v>57.095620748299297</v>
@@ -6560,7 +6842,7 @@
         <v>1152</v>
       </c>
       <c r="F156">
-        <v>16356</v>
+        <v>1152</v>
       </c>
       <c r="G156">
         <v>1152</v>
@@ -6596,7 +6878,7 @@
         <v>71.732023278061206</v>
       </c>
       <c r="S156">
-        <v>28.487577062074799</v>
+        <v>71.846819196428498</v>
       </c>
       <c r="T156">
         <v>71.732023278061206</v>
@@ -6634,7 +6916,7 @@
         <v>2880</v>
       </c>
       <c r="F157">
-        <v>78969</v>
+        <v>2496</v>
       </c>
       <c r="G157">
         <v>2880</v>
@@ -6670,7 +6952,7 @@
         <v>84.73046875</v>
       </c>
       <c r="S157">
-        <v>29.662104946145099</v>
+        <v>84.902662627550995</v>
       </c>
       <c r="T157">
         <v>84.73046875</v>
@@ -6708,7 +6990,7 @@
         <v>2400</v>
       </c>
       <c r="F158">
-        <v>0</v>
+        <v>2496</v>
       </c>
       <c r="G158">
         <v>2400</v>
@@ -6744,7 +7026,7 @@
         <v>92.100074404761898</v>
       </c>
       <c r="S158">
-        <v>30.125356522817398</v>
+        <v>92.3411458333333</v>
       </c>
       <c r="T158">
         <v>92.100074404761898</v>
@@ -6782,7 +7064,7 @@
         <v>576</v>
       </c>
       <c r="F159">
-        <v>0</v>
+        <v>864</v>
       </c>
       <c r="G159">
         <v>576</v>
@@ -6818,7 +7100,7 @@
         <v>86.127976190476105</v>
       </c>
       <c r="S159">
-        <v>30.067460317460299</v>
+        <v>86.449404761904702</v>
       </c>
       <c r="T159">
         <v>86.127976190476105</v>
@@ -6894,7 +7176,7 @@
         <v>2976</v>
       </c>
       <c r="F161">
-        <v>0</v>
+        <v>2976</v>
       </c>
       <c r="G161">
         <v>2976</v>
@@ -6932,7 +7214,7 @@
         <v>7656</v>
       </c>
       <c r="F162">
-        <v>0</v>
+        <v>6192</v>
       </c>
       <c r="G162">
         <v>7656</v>
@@ -6970,7 +7252,7 @@
         <v>5640</v>
       </c>
       <c r="F163">
-        <v>0</v>
+        <v>6396</v>
       </c>
       <c r="G163">
         <v>5640</v>
@@ -7008,7 +7290,7 @@
         <v>1464</v>
       </c>
       <c r="F164">
-        <v>0</v>
+        <v>2172</v>
       </c>
       <c r="G164">
         <v>1464</v>
@@ -7084,7 +7366,7 @@
         <v>4592</v>
       </c>
       <c r="F166">
-        <v>0</v>
+        <v>4592</v>
       </c>
       <c r="G166">
         <v>4592</v>
@@ -7122,7 +7404,7 @@
         <v>11976</v>
       </c>
       <c r="F167">
-        <v>0</v>
+        <v>9230</v>
       </c>
       <c r="G167">
         <v>11976</v>
@@ -7160,7 +7442,7 @@
         <v>8094</v>
       </c>
       <c r="F168">
-        <v>0</v>
+        <v>9764</v>
       </c>
       <c r="G168">
         <v>8094</v>
@@ -7198,7 +7480,7 @@
         <v>2162</v>
       </c>
       <c r="F169">
-        <v>0</v>
+        <v>3238</v>
       </c>
       <c r="G169">
         <v>2162</v>
@@ -7274,7 +7556,7 @@
         <v>4440</v>
       </c>
       <c r="F171">
-        <v>0</v>
+        <v>4440</v>
       </c>
       <c r="G171">
         <v>4440</v>
@@ -7312,7 +7594,7 @@
         <v>11288</v>
       </c>
       <c r="F172">
-        <v>0</v>
+        <v>8640</v>
       </c>
       <c r="G172">
         <v>11288</v>
@@ -7350,7 +7632,7 @@
         <v>8060</v>
       </c>
       <c r="F173">
-        <v>0</v>
+        <v>9402</v>
       </c>
       <c r="G173">
         <v>8060</v>
@@ -7388,7 +7670,7 @@
         <v>1784</v>
       </c>
       <c r="F174">
-        <v>0</v>
+        <v>3090</v>
       </c>
       <c r="G174">
         <v>1784</v>
@@ -7464,7 +7746,7 @@
         <v>2984</v>
       </c>
       <c r="F176">
-        <v>3088</v>
+        <v>2984</v>
       </c>
       <c r="G176">
         <v>2984</v>
@@ -7502,7 +7784,7 @@
         <v>7166</v>
       </c>
       <c r="F177">
-        <v>15204</v>
+        <v>5866</v>
       </c>
       <c r="G177">
         <v>7166</v>
@@ -7540,7 +7822,7 @@
         <v>6048</v>
       </c>
       <c r="F178">
-        <v>0</v>
+        <v>6371</v>
       </c>
       <c r="G178">
         <v>6048</v>
@@ -7578,7 +7860,7 @@
         <v>1048</v>
       </c>
       <c r="F179">
-        <v>0</v>
+        <v>2025</v>
       </c>
       <c r="G179">
         <v>1048</v>
@@ -7654,7 +7936,7 @@
         <v>3576</v>
       </c>
       <c r="F181">
-        <v>242144</v>
+        <v>3576</v>
       </c>
       <c r="G181">
         <v>3576</v>
@@ -7692,7 +7974,7 @@
         <v>8796</v>
       </c>
       <c r="F182">
-        <v>1084368</v>
+        <v>7428</v>
       </c>
       <c r="G182">
         <v>8796</v>
@@ -7730,7 +8012,7 @@
         <v>6834</v>
       </c>
       <c r="F183">
-        <v>29.068687665989899</v>
+        <v>7438</v>
       </c>
       <c r="G183">
         <v>6834</v>
@@ -7767,6 +8049,9 @@
       <c r="E184">
         <v>1686</v>
       </c>
+      <c r="F184">
+        <v>2450</v>
+      </c>
       <c r="G184">
         <v>1686</v>
       </c>
@@ -7802,6 +8087,9 @@
       <c r="E185">
         <v>0</v>
       </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
       <c r="G185">
         <v>0</v>
       </c>
@@ -7837,6 +8125,9 @@
       <c r="E186">
         <v>7272</v>
       </c>
+      <c r="F186">
+        <v>7272</v>
+      </c>
       <c r="G186">
         <v>7272</v>
       </c>
@@ -7872,6 +8163,9 @@
       <c r="E187">
         <v>18750</v>
       </c>
+      <c r="F187">
+        <v>14862</v>
+      </c>
       <c r="G187">
         <v>18750</v>
       </c>
@@ -7907,6 +8201,9 @@
       <c r="E188">
         <v>12900</v>
       </c>
+      <c r="F188">
+        <v>14850</v>
+      </c>
       <c r="G188">
         <v>12900</v>
       </c>
@@ -7942,6 +8239,9 @@
       <c r="E189">
         <v>3036</v>
       </c>
+      <c r="F189">
+        <v>4974</v>
+      </c>
       <c r="G189">
         <v>3036</v>
       </c>
@@ -7977,6 +8277,9 @@
       <c r="E190">
         <v>0</v>
       </c>
+      <c r="F190">
+        <v>0</v>
+      </c>
       <c r="G190">
         <v>0</v>
       </c>
@@ -8012,6 +8315,9 @@
       <c r="E191">
         <v>11742</v>
       </c>
+      <c r="F191">
+        <v>11742</v>
+      </c>
       <c r="G191">
         <v>11742</v>
       </c>
@@ -8047,6 +8353,9 @@
       <c r="E192">
         <v>30438</v>
       </c>
+      <c r="F192">
+        <v>23109</v>
+      </c>
       <c r="G192">
         <v>30438</v>
       </c>
@@ -8082,6 +8391,9 @@
       <c r="E193">
         <v>19580</v>
       </c>
+      <c r="F193">
+        <v>23772</v>
+      </c>
       <c r="G193">
         <v>19580</v>
       </c>
@@ -8117,6 +8429,9 @@
       <c r="E194">
         <v>4767</v>
       </c>
+      <c r="F194">
+        <v>7904</v>
+      </c>
       <c r="G194">
         <v>4767</v>
       </c>
@@ -8152,6 +8467,9 @@
       <c r="E195">
         <v>0</v>
       </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
       <c r="G195">
         <v>0</v>
       </c>
@@ -8187,6 +8505,9 @@
       <c r="E196">
         <v>11104</v>
       </c>
+      <c r="F196">
+        <v>11104</v>
+      </c>
       <c r="G196">
         <v>11104</v>
       </c>
@@ -8222,6 +8543,9 @@
       <c r="E197">
         <v>28233</v>
       </c>
+      <c r="F197">
+        <v>21301</v>
+      </c>
       <c r="G197">
         <v>28233</v>
       </c>
@@ -8257,6 +8581,9 @@
       <c r="E198">
         <v>18883</v>
       </c>
+      <c r="F198">
+        <v>22463</v>
+      </c>
       <c r="G198">
         <v>18883</v>
       </c>
@@ -8292,6 +8619,9 @@
       <c r="E199">
         <v>4066</v>
       </c>
+      <c r="F199">
+        <v>7418</v>
+      </c>
       <c r="G199">
         <v>4066</v>
       </c>
@@ -8327,6 +8657,9 @@
       <c r="E200">
         <v>0</v>
       </c>
+      <c r="F200">
+        <v>0</v>
+      </c>
       <c r="G200">
         <v>0</v>
       </c>
@@ -8362,6 +8695,9 @@
       <c r="E201">
         <v>7306</v>
       </c>
+      <c r="F201">
+        <v>7306</v>
+      </c>
       <c r="G201">
         <v>7306</v>
       </c>
@@ -8397,6 +8733,9 @@
       <c r="E202">
         <v>17717</v>
       </c>
+      <c r="F202">
+        <v>14070</v>
+      </c>
       <c r="G202">
         <v>17717</v>
       </c>
@@ -8432,6 +8771,9 @@
       <c r="E203">
         <v>13626</v>
       </c>
+      <c r="F203">
+        <v>14905</v>
+      </c>
       <c r="G203">
         <v>13626</v>
       </c>
@@ -8467,6 +8809,9 @@
       <c r="E204">
         <v>2496</v>
       </c>
+      <c r="F204">
+        <v>4864</v>
+      </c>
       <c r="G204">
         <v>2496</v>
       </c>
@@ -8502,6 +8847,9 @@
       <c r="E205">
         <v>0</v>
       </c>
+      <c r="F205">
+        <v>0</v>
+      </c>
       <c r="G205">
         <v>0</v>
       </c>
@@ -8537,6 +8885,9 @@
       <c r="E206">
         <v>6592</v>
       </c>
+      <c r="F206">
+        <v>6592</v>
+      </c>
       <c r="G206">
         <v>6592</v>
       </c>
@@ -8572,6 +8923,9 @@
       <c r="E207">
         <v>16252</v>
       </c>
+      <c r="F207">
+        <v>13474</v>
+      </c>
       <c r="G207">
         <v>16252</v>
       </c>
@@ -8607,6 +8961,9 @@
       <c r="E208">
         <v>12007</v>
       </c>
+      <c r="F208">
+        <v>13242</v>
+      </c>
       <c r="G208">
         <v>12007</v>
       </c>
@@ -8642,6 +8999,9 @@
       <c r="E209">
         <v>2947</v>
       </c>
+      <c r="F209">
+        <v>4490</v>
+      </c>
       <c r="G209">
         <v>2947</v>
       </c>
@@ -8677,6 +9037,9 @@
       <c r="E210">
         <v>0</v>
       </c>
+      <c r="F210">
+        <v>0</v>
+      </c>
       <c r="G210">
         <v>0</v>
       </c>
@@ -8712,6 +9075,9 @@
       <c r="E211">
         <v>12792</v>
       </c>
+      <c r="F211">
+        <v>12792</v>
+      </c>
       <c r="G211">
         <v>12792</v>
       </c>
@@ -8747,6 +9113,9 @@
       <c r="E212">
         <v>32778</v>
       </c>
+      <c r="F212">
+        <v>25674</v>
+      </c>
       <c r="G212">
         <v>32778</v>
       </c>
@@ -8782,6 +9151,9 @@
       <c r="E213">
         <v>21564</v>
       </c>
+      <c r="F213">
+        <v>25314</v>
+      </c>
       <c r="G213">
         <v>21564</v>
       </c>
@@ -8817,6 +9189,9 @@
       <c r="E214">
         <v>5172</v>
       </c>
+      <c r="F214">
+        <v>8526</v>
+      </c>
       <c r="G214">
         <v>5172</v>
       </c>
@@ -8852,6 +9227,9 @@
       <c r="E215">
         <v>0</v>
       </c>
+      <c r="F215">
+        <v>0</v>
+      </c>
       <c r="G215">
         <v>0</v>
       </c>
@@ -8887,6 +9265,9 @@
       <c r="E216">
         <v>19720</v>
       </c>
+      <c r="F216">
+        <v>19720</v>
+      </c>
       <c r="G216">
         <v>19720</v>
       </c>
@@ -8922,6 +9303,9 @@
       <c r="E217">
         <v>50864</v>
       </c>
+      <c r="F217">
+        <v>38151</v>
+      </c>
       <c r="G217">
         <v>50864</v>
       </c>
@@ -8957,6 +9341,9 @@
       <c r="E218">
         <v>31873</v>
       </c>
+      <c r="F218">
+        <v>38590</v>
+      </c>
       <c r="G218">
         <v>31873</v>
       </c>
@@ -8992,6 +9379,9 @@
       <c r="E219">
         <v>6882</v>
       </c>
+      <c r="F219">
+        <v>12878</v>
+      </c>
       <c r="G219">
         <v>6882</v>
       </c>
@@ -9027,6 +9417,9 @@
       <c r="E220">
         <v>0</v>
       </c>
+      <c r="F220">
+        <v>0</v>
+      </c>
       <c r="G220">
         <v>0</v>
       </c>
@@ -9062,6 +9455,9 @@
       <c r="E221">
         <v>18746</v>
       </c>
+      <c r="F221">
+        <v>18746</v>
+      </c>
       <c r="G221">
         <v>18746</v>
       </c>
@@ -9097,6 +9493,9 @@
       <c r="E222">
         <v>47594</v>
       </c>
+      <c r="F222">
+        <v>35298</v>
+      </c>
       <c r="G222">
         <v>47594</v>
       </c>
@@ -9132,6 +9531,9 @@
       <c r="E223">
         <v>30366</v>
       </c>
+      <c r="F223">
+        <v>36752</v>
+      </c>
       <c r="G223">
         <v>30366</v>
       </c>
@@ -9167,6 +9569,9 @@
       <c r="E224">
         <v>6194</v>
       </c>
+      <c r="F224">
+        <v>12104</v>
+      </c>
       <c r="G224">
         <v>6194</v>
       </c>
@@ -9202,6 +9607,9 @@
       <c r="E225">
         <v>0</v>
       </c>
+      <c r="F225">
+        <v>0</v>
+      </c>
       <c r="G225">
         <v>0</v>
       </c>
@@ -9237,6 +9645,9 @@
       <c r="E226">
         <v>11196</v>
       </c>
+      <c r="F226">
+        <v>11196</v>
+      </c>
       <c r="G226">
         <v>11196</v>
       </c>
@@ -9272,6 +9683,9 @@
       <c r="E227">
         <v>27444</v>
       </c>
+      <c r="F227">
+        <v>21160</v>
+      </c>
       <c r="G227">
         <v>27444</v>
       </c>
@@ -9307,6 +9721,9 @@
       <c r="E228">
         <v>19333</v>
       </c>
+      <c r="F228">
+        <v>22007</v>
+      </c>
       <c r="G228">
         <v>19333</v>
       </c>
@@ -9342,6 +9759,9 @@
       <c r="E229">
         <v>3519</v>
       </c>
+      <c r="F229">
+        <v>7129</v>
+      </c>
       <c r="G229">
         <v>3519</v>
       </c>
@@ -9377,6 +9797,9 @@
       <c r="E230">
         <v>0</v>
       </c>
+      <c r="F230">
+        <v>0</v>
+      </c>
       <c r="G230">
         <v>0</v>
       </c>
@@ -9412,6 +9835,9 @@
       <c r="E231">
         <v>7624</v>
       </c>
+      <c r="F231">
+        <v>7624</v>
+      </c>
       <c r="G231">
         <v>7624</v>
       </c>
@@ -9447,6 +9873,9 @@
       <c r="E232">
         <v>18770</v>
       </c>
+      <c r="F232">
+        <v>15275</v>
+      </c>
       <c r="G232">
         <v>18770</v>
       </c>
@@ -9482,6 +9911,9 @@
       <c r="E233">
         <v>13390</v>
       </c>
+      <c r="F233">
+        <v>14688</v>
+      </c>
       <c r="G233">
         <v>13390</v>
       </c>
@@ -9517,6 +9949,9 @@
       <c r="E234">
         <v>2659</v>
       </c>
+      <c r="F234">
+        <v>4856</v>
+      </c>
       <c r="G234">
         <v>2659</v>
       </c>
@@ -9552,6 +9987,9 @@
       <c r="E235">
         <v>0</v>
       </c>
+      <c r="F235">
+        <v>0</v>
+      </c>
       <c r="G235">
         <v>0</v>
       </c>
@@ -9587,6 +10025,9 @@
       <c r="E236">
         <v>13412</v>
       </c>
+      <c r="F236">
+        <v>13412</v>
+      </c>
       <c r="G236">
         <v>13412</v>
       </c>
@@ -9622,6 +10063,9 @@
       <c r="E237">
         <v>34163</v>
       </c>
+      <c r="F237">
+        <v>26559</v>
+      </c>
       <c r="G237">
         <v>34163</v>
       </c>
@@ -9657,6 +10101,9 @@
       <c r="E238">
         <v>21556</v>
       </c>
+      <c r="F238">
+        <v>25186</v>
+      </c>
       <c r="G238">
         <v>21556</v>
       </c>
@@ -9692,6 +10139,9 @@
       <c r="E239">
         <v>4518</v>
       </c>
+      <c r="F239">
+        <v>8492</v>
+      </c>
       <c r="G239">
         <v>4518</v>
       </c>
@@ -9727,6 +10177,9 @@
       <c r="E240">
         <v>0</v>
       </c>
+      <c r="F240">
+        <v>0</v>
+      </c>
       <c r="G240">
         <v>0</v>
       </c>
@@ -9762,6 +10215,9 @@
       <c r="E241">
         <v>20634</v>
       </c>
+      <c r="F241">
+        <v>20634</v>
+      </c>
       <c r="G241">
         <v>20634</v>
       </c>
@@ -9797,6 +10253,9 @@
       <c r="E242">
         <v>53153</v>
       </c>
+      <c r="F242">
+        <v>39249</v>
+      </c>
       <c r="G242">
         <v>53153</v>
       </c>
@@ -9832,6 +10291,9 @@
       <c r="E243">
         <v>31260</v>
       </c>
+      <c r="F243">
+        <v>38566</v>
+      </c>
       <c r="G243">
         <v>31260</v>
       </c>
@@ -9867,6 +10329,9 @@
       <c r="E244">
         <v>6341</v>
       </c>
+      <c r="F244">
+        <v>12939</v>
+      </c>
       <c r="G244">
         <v>6341</v>
       </c>
@@ -9902,6 +10367,9 @@
       <c r="E245">
         <v>0</v>
       </c>
+      <c r="F245">
+        <v>0</v>
+      </c>
       <c r="G245">
         <v>0</v>
       </c>
@@ -9937,6 +10405,9 @@
       <c r="E246">
         <v>20050</v>
       </c>
+      <c r="F246">
+        <v>20050</v>
+      </c>
       <c r="G246">
         <v>20050</v>
       </c>
@@ -9972,6 +10443,9 @@
       <c r="E247">
         <v>51050</v>
       </c>
+      <c r="F247">
+        <v>37215</v>
+      </c>
       <c r="G247">
         <v>51050</v>
       </c>
@@ -10007,6 +10481,9 @@
       <c r="E248">
         <v>30504</v>
       </c>
+      <c r="F248">
+        <v>37750</v>
+      </c>
       <c r="G248">
         <v>30504</v>
       </c>
@@ -10042,6 +10519,9 @@
       <c r="E249">
         <v>5933</v>
       </c>
+      <c r="F249">
+        <v>12522</v>
+      </c>
       <c r="G249">
         <v>5933</v>
       </c>
@@ -10077,6 +10557,9 @@
       <c r="E250">
         <v>0</v>
       </c>
+      <c r="F250">
+        <v>0</v>
+      </c>
       <c r="G250">
         <v>0</v>
       </c>
@@ -10112,6 +10595,9 @@
       <c r="E251">
         <v>11570</v>
       </c>
+      <c r="F251">
+        <v>11570</v>
+      </c>
       <c r="G251">
         <v>11570</v>
       </c>
@@ -10147,6 +10633,9 @@
       <c r="E252">
         <v>28847</v>
       </c>
+      <c r="F252">
+        <v>21497</v>
+      </c>
       <c r="G252">
         <v>28847</v>
       </c>
@@ -10182,6 +10671,9 @@
       <c r="E253">
         <v>18505</v>
       </c>
+      <c r="F253">
+        <v>21964</v>
+      </c>
       <c r="G253">
         <v>18505</v>
       </c>
@@ -10202,6 +10694,9 @@
       </c>
     </row>
     <row r="254" spans="1:12">
+      <c r="A254">
+        <v>102</v>
+      </c>
       <c r="B254">
         <v>2707</v>
       </c>
@@ -10214,6 +10709,9 @@
       <c r="E254">
         <v>3291</v>
       </c>
+      <c r="F254">
+        <v>7182</v>
+      </c>
       <c r="G254">
         <v>3291</v>
       </c>
@@ -10234,6 +10732,9 @@
       </c>
     </row>
     <row r="255" spans="1:12">
+      <c r="A255">
+        <v>103</v>
+      </c>
       <c r="B255">
         <v>0</v>
       </c>
@@ -10246,6 +10747,9 @@
       <c r="E255">
         <v>0</v>
       </c>
+      <c r="F255">
+        <v>0</v>
+      </c>
       <c r="G255">
         <v>0</v>
       </c>
@@ -10266,6 +10770,9 @@
       </c>
     </row>
     <row r="256" spans="1:12">
+      <c r="A256">
+        <v>104</v>
+      </c>
       <c r="B256">
         <v>4416</v>
       </c>
@@ -10278,6 +10785,9 @@
       <c r="E256">
         <v>5742</v>
       </c>
+      <c r="F256">
+        <v>5742</v>
+      </c>
       <c r="G256">
         <v>5742</v>
       </c>
@@ -10297,7 +10807,10 @@
         <v>48176</v>
       </c>
     </row>
-    <row r="257" spans="2:12">
+    <row r="257" spans="1:12">
+      <c r="A257">
+        <v>105</v>
+      </c>
       <c r="B257">
         <v>10831</v>
       </c>
@@ -10310,6 +10823,9 @@
       <c r="E257">
         <v>14121</v>
       </c>
+      <c r="F257">
+        <v>11268</v>
+      </c>
       <c r="G257">
         <v>14121</v>
       </c>
@@ -10329,7 +10845,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="2:12">
+    <row r="258" spans="1:12">
+      <c r="A258">
+        <v>106</v>
+      </c>
       <c r="B258">
         <v>7340</v>
       </c>
@@ -10342,6 +10861,9 @@
       <c r="E258">
         <v>9752</v>
       </c>
+      <c r="F258">
+        <v>10882</v>
+      </c>
       <c r="G258">
         <v>9752</v>
       </c>
@@ -10361,7 +10883,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="2:12">
+    <row r="259" spans="1:12">
+      <c r="A259">
+        <v>107</v>
+      </c>
       <c r="B259">
         <v>1336</v>
       </c>
@@ -10374,6 +10899,9 @@
       <c r="E259">
         <v>1913</v>
       </c>
+      <c r="F259">
+        <v>3636</v>
+      </c>
       <c r="G259">
         <v>1913</v>
       </c>
@@ -10393,7 +10921,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="2:12">
+    <row r="260" spans="1:12">
+      <c r="A260">
+        <v>108</v>
+      </c>
       <c r="B260">
         <v>0</v>
       </c>
@@ -10406,6 +10937,9 @@
       <c r="E260">
         <v>0</v>
       </c>
+      <c r="F260">
+        <v>0</v>
+      </c>
       <c r="G260">
         <v>0</v>
       </c>
@@ -10425,7 +10959,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="2:12">
+    <row r="261" spans="1:12">
+      <c r="A261">
+        <v>109</v>
+      </c>
       <c r="B261">
         <v>7434</v>
       </c>
@@ -10438,6 +10975,9 @@
       <c r="E261">
         <v>7676</v>
       </c>
+      <c r="F261">
+        <v>7676</v>
+      </c>
       <c r="G261">
         <v>7676</v>
       </c>
@@ -10457,7 +10997,10 @@
         <v>43276</v>
       </c>
     </row>
-    <row r="262" spans="2:12">
+    <row r="262" spans="1:12">
+      <c r="A262">
+        <v>110</v>
+      </c>
       <c r="B262">
         <v>18890</v>
       </c>
@@ -10470,6 +11013,9 @@
       <c r="E262">
         <v>19497</v>
       </c>
+      <c r="F262">
+        <v>15133</v>
+      </c>
       <c r="G262">
         <v>19497</v>
       </c>
@@ -10489,7 +11035,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="2:12">
+    <row r="263" spans="1:12">
+      <c r="A263">
+        <v>111</v>
+      </c>
       <c r="B263">
         <v>11374</v>
       </c>
@@ -10502,6 +11051,9 @@
       <c r="E263">
         <v>12064</v>
       </c>
+      <c r="F263">
+        <v>14074</v>
+      </c>
       <c r="G263">
         <v>12064</v>
       </c>
@@ -10521,7 +11073,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="2:12">
+    <row r="264" spans="1:12">
+      <c r="A264">
+        <v>112</v>
+      </c>
       <c r="B264">
         <v>2168</v>
       </c>
@@ -10534,6 +11089,9 @@
       <c r="E264">
         <v>2480</v>
       </c>
+      <c r="F264">
+        <v>4834</v>
+      </c>
       <c r="G264">
         <v>2480</v>
       </c>
@@ -10553,7 +11111,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="2:12">
+    <row r="265" spans="1:12">
+      <c r="A265">
+        <v>113</v>
+      </c>
       <c r="B265">
         <v>0</v>
       </c>
@@ -10566,6 +11127,9 @@
       <c r="E265">
         <v>0</v>
       </c>
+      <c r="F265">
+        <v>0</v>
+      </c>
       <c r="G265">
         <v>0</v>
       </c>
@@ -10585,7 +11149,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="2:12">
+    <row r="266" spans="1:12">
+      <c r="A266">
+        <v>114</v>
+      </c>
       <c r="B266">
         <v>11462</v>
       </c>
@@ -10598,6 +11165,9 @@
       <c r="E266">
         <v>12190</v>
       </c>
+      <c r="F266">
+        <v>12190</v>
+      </c>
       <c r="G266">
         <v>12190</v>
       </c>
@@ -10617,7 +11187,10 @@
         <v>57797</v>
       </c>
     </row>
-    <row r="267" spans="2:12">
+    <row r="267" spans="1:12">
+      <c r="A267">
+        <v>115</v>
+      </c>
       <c r="B267">
         <v>29434</v>
       </c>
@@ -10630,6 +11203,9 @@
       <c r="E267">
         <v>31415</v>
       </c>
+      <c r="F267">
+        <v>23033</v>
+      </c>
       <c r="G267">
         <v>31415</v>
       </c>
@@ -10649,7 +11225,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="2:12">
+    <row r="268" spans="1:12">
+      <c r="A268">
+        <v>116</v>
+      </c>
       <c r="B268">
         <v>16218</v>
       </c>
@@ -10662,6 +11241,9 @@
       <c r="E268">
         <v>17816</v>
       </c>
+      <c r="F268">
+        <v>22183</v>
+      </c>
       <c r="G268">
         <v>17816</v>
       </c>
@@ -10681,7 +11263,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="2:12">
+    <row r="269" spans="1:12">
+      <c r="A269">
+        <v>117</v>
+      </c>
       <c r="B269">
         <v>3150</v>
       </c>
@@ -10694,6 +11279,9 @@
       <c r="E269">
         <v>3481</v>
       </c>
+      <c r="F269">
+        <v>7496</v>
+      </c>
       <c r="G269">
         <v>3481</v>
       </c>
@@ -10713,7 +11301,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="2:12">
+    <row r="270" spans="1:12">
+      <c r="A270">
+        <v>118</v>
+      </c>
       <c r="B270">
         <v>0</v>
       </c>
@@ -10726,6 +11317,9 @@
       <c r="E270">
         <v>0</v>
       </c>
+      <c r="F270">
+        <v>0</v>
+      </c>
       <c r="G270">
         <v>0</v>
       </c>
@@ -10745,7 +11339,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="2:12">
+    <row r="271" spans="1:12">
+      <c r="A271">
+        <v>119</v>
+      </c>
       <c r="B271">
         <v>9952</v>
       </c>
@@ -10758,6 +11355,9 @@
       <c r="E271">
         <v>12358</v>
       </c>
+      <c r="F271">
+        <v>12358</v>
+      </c>
       <c r="G271">
         <v>12358</v>
       </c>
@@ -10777,7 +11377,10 @@
         <v>60694</v>
       </c>
     </row>
-    <row r="272" spans="2:12">
+    <row r="272" spans="1:12">
+      <c r="A272">
+        <v>120</v>
+      </c>
       <c r="B272">
         <v>25230</v>
       </c>
@@ -10790,6 +11393,9 @@
       <c r="E272">
         <v>31713</v>
       </c>
+      <c r="F272">
+        <v>22911</v>
+      </c>
       <c r="G272">
         <v>31713</v>
       </c>
@@ -10809,7 +11415,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="2:12">
+    <row r="273" spans="1:12">
+      <c r="A273">
+        <v>121</v>
+      </c>
       <c r="B273">
         <v>14253</v>
       </c>
@@ -10822,6 +11431,9 @@
       <c r="E273">
         <v>17963</v>
       </c>
+      <c r="F273">
+        <v>22540</v>
+      </c>
       <c r="G273">
         <v>17963</v>
       </c>
@@ -10841,7 +11453,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="2:12">
+    <row r="274" spans="1:12">
+      <c r="A274">
+        <v>122</v>
+      </c>
       <c r="B274">
         <v>2530</v>
       </c>
@@ -10854,6 +11469,9 @@
       <c r="E274">
         <v>3334</v>
       </c>
+      <c r="F274">
+        <v>7559</v>
+      </c>
       <c r="G274">
         <v>3334</v>
       </c>
@@ -10873,7 +11491,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="2:12">
+    <row r="275" spans="1:12">
+      <c r="A275">
+        <v>123</v>
+      </c>
       <c r="B275">
         <v>0</v>
       </c>
@@ -10886,6 +11507,9 @@
       <c r="E275">
         <v>0</v>
       </c>
+      <c r="F275">
+        <v>0</v>
+      </c>
       <c r="G275">
         <v>0</v>
       </c>
@@ -10905,7 +11529,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="2:12">
+    <row r="276" spans="1:12">
+      <c r="A276">
+        <v>124</v>
+      </c>
       <c r="B276">
         <v>4480</v>
       </c>
@@ -10918,6 +11545,9 @@
       <c r="E276">
         <v>7246</v>
       </c>
+      <c r="F276">
+        <v>7246</v>
+      </c>
       <c r="G276">
         <v>7246</v>
       </c>
@@ -10937,7 +11567,10 @@
         <v>44237</v>
       </c>
     </row>
-    <row r="277" spans="2:12">
+    <row r="277" spans="1:12">
+      <c r="A277">
+        <v>125</v>
+      </c>
       <c r="B277">
         <v>11351</v>
       </c>
@@ -10950,6 +11583,9 @@
       <c r="E277">
         <v>18524</v>
       </c>
+      <c r="F277">
+        <v>13358</v>
+      </c>
       <c r="G277">
         <v>18524</v>
       </c>
@@ -10969,7 +11605,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="2:12">
+    <row r="278" spans="1:12">
+      <c r="A278">
+        <v>126</v>
+      </c>
       <c r="B278">
         <v>6623</v>
       </c>
@@ -10982,6 +11621,9 @@
       <c r="E278">
         <v>10607</v>
       </c>
+      <c r="F278">
+        <v>13266</v>
+      </c>
       <c r="G278">
         <v>10607</v>
       </c>
@@ -11001,7 +11643,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="2:12">
+    <row r="279" spans="1:12">
+      <c r="A279">
+        <v>127</v>
+      </c>
       <c r="B279">
         <v>1077</v>
       </c>
@@ -11014,6 +11659,9 @@
       <c r="E279">
         <v>1871</v>
       </c>
+      <c r="F279">
+        <v>4378</v>
+      </c>
       <c r="G279">
         <v>1871</v>
       </c>
@@ -11033,7 +11681,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="2:12">
+    <row r="280" spans="1:12">
+      <c r="A280">
+        <v>128</v>
+      </c>
       <c r="B280">
         <v>0</v>
       </c>
@@ -11046,6 +11697,9 @@
       <c r="E280">
         <v>0</v>
       </c>
+      <c r="F280">
+        <v>0</v>
+      </c>
       <c r="G280">
         <v>0</v>
       </c>
@@ -11065,7 +11719,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="2:12">
+    <row r="281" spans="1:12">
+      <c r="A281">
+        <v>129</v>
+      </c>
       <c r="B281">
         <v>900</v>
       </c>
@@ -11078,6 +11735,9 @@
       <c r="E281">
         <v>2366</v>
       </c>
+      <c r="F281">
+        <v>2366</v>
+      </c>
       <c r="G281">
         <v>2366</v>
       </c>
@@ -11097,7 +11757,10 @@
         <v>24997</v>
       </c>
     </row>
-    <row r="282" spans="2:12">
+    <row r="282" spans="1:12">
+      <c r="A282">
+        <v>130</v>
+      </c>
       <c r="B282">
         <v>2182</v>
       </c>
@@ -11110,6 +11773,9 @@
       <c r="E282">
         <v>5899</v>
       </c>
+      <c r="F282">
+        <v>4542</v>
+      </c>
       <c r="G282">
         <v>5899</v>
       </c>
@@ -11129,7 +11795,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="2:12">
+    <row r="283" spans="1:12">
+      <c r="A283">
+        <v>131</v>
+      </c>
       <c r="B283">
         <v>1359</v>
       </c>
@@ -11142,6 +11811,9 @@
       <c r="E283">
         <v>3844</v>
       </c>
+      <c r="F283">
+        <v>4407</v>
+      </c>
       <c r="G283">
         <v>3844</v>
       </c>
@@ -11161,7 +11833,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="2:12">
+    <row r="284" spans="1:12">
+      <c r="A284">
+        <v>132</v>
+      </c>
       <c r="B284">
         <v>186</v>
       </c>
@@ -11174,6 +11849,9 @@
       <c r="E284">
         <v>677</v>
       </c>
+      <c r="F284">
+        <v>1471</v>
+      </c>
       <c r="G284">
         <v>677</v>
       </c>
@@ -11193,7 +11871,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="2:12">
+    <row r="285" spans="1:12">
+      <c r="A285">
+        <v>133</v>
+      </c>
       <c r="B285">
         <v>0</v>
       </c>
@@ -11206,6 +11887,9 @@
       <c r="E285">
         <v>0</v>
       </c>
+      <c r="F285">
+        <v>0</v>
+      </c>
       <c r="G285">
         <v>0</v>
       </c>
@@ -11225,7 +11909,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="2:12">
+    <row r="286" spans="1:12">
+      <c r="A286">
+        <v>134</v>
+      </c>
       <c r="B286">
         <v>486</v>
       </c>
@@ -11238,6 +11925,9 @@
       <c r="E286">
         <v>1444</v>
       </c>
+      <c r="F286">
+        <v>1444</v>
+      </c>
       <c r="G286">
         <v>1444</v>
       </c>
@@ -11257,7 +11947,10 @@
         <v>17685</v>
       </c>
     </row>
-    <row r="287" spans="2:12">
+    <row r="287" spans="1:12">
+      <c r="A287">
+        <v>135</v>
+      </c>
       <c r="B287">
         <v>1196</v>
       </c>
@@ -11270,6 +11963,9 @@
       <c r="E287">
         <v>3639</v>
       </c>
+      <c r="F287">
+        <v>2955</v>
+      </c>
       <c r="G287">
         <v>3639</v>
       </c>
@@ -11289,7 +11985,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="2:12">
+    <row r="288" spans="1:12">
+      <c r="A288">
+        <v>136</v>
+      </c>
       <c r="B288">
         <v>785</v>
       </c>
@@ -11302,6 +12001,9 @@
       <c r="E288">
         <v>2306</v>
       </c>
+      <c r="F288">
+        <v>2608</v>
+      </c>
       <c r="G288">
         <v>2306</v>
       </c>
@@ -11321,7 +12023,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="2:12">
+    <row r="289" spans="1:12">
+      <c r="A289">
+        <v>137</v>
+      </c>
       <c r="B289">
         <v>194</v>
       </c>
@@ -11334,6 +12039,9 @@
       <c r="E289">
         <v>556</v>
       </c>
+      <c r="F289">
+        <v>938</v>
+      </c>
       <c r="G289">
         <v>556</v>
       </c>
@@ -11353,7 +12061,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="2:12">
+    <row r="290" spans="1:12">
+      <c r="A290">
+        <v>138</v>
+      </c>
       <c r="B290">
         <v>0</v>
       </c>
@@ -11366,6 +12077,9 @@
       <c r="E290">
         <v>0</v>
       </c>
+      <c r="F290">
+        <v>0</v>
+      </c>
       <c r="G290">
         <v>0</v>
       </c>
@@ -11385,7 +12099,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="2:12">
+    <row r="291" spans="1:12">
+      <c r="A291">
+        <v>139</v>
+      </c>
       <c r="B291">
         <v>1226</v>
       </c>
@@ -11398,6 +12115,9 @@
       <c r="E291">
         <v>3010</v>
       </c>
+      <c r="F291">
+        <v>3010</v>
+      </c>
       <c r="G291">
         <v>3010</v>
       </c>
@@ -11417,7 +12137,10 @@
         <v>20822</v>
       </c>
     </row>
-    <row r="292" spans="2:12">
+    <row r="292" spans="1:12">
+      <c r="A292">
+        <v>13</v>
+      </c>
       <c r="B292">
         <v>3156</v>
       </c>
@@ -11430,6 +12153,9 @@
       <c r="E292">
         <v>7874</v>
       </c>
+      <c r="F292">
+        <v>5875</v>
+      </c>
       <c r="G292">
         <v>7874</v>
       </c>
@@ -11449,7 +12175,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="2:12">
+    <row r="293" spans="1:12">
+      <c r="A293">
+        <v>140</v>
+      </c>
       <c r="B293">
         <v>1865</v>
       </c>
@@ -11462,6 +12191,9 @@
       <c r="E293">
         <v>4389</v>
       </c>
+      <c r="F293">
+        <v>5377</v>
+      </c>
       <c r="G293">
         <v>4389</v>
       </c>
@@ -11481,7 +12213,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="2:12">
+    <row r="294" spans="1:12">
+      <c r="A294">
+        <v>141</v>
+      </c>
       <c r="B294">
         <v>381</v>
       </c>
@@ -11494,6 +12229,9 @@
       <c r="E294">
         <v>871</v>
       </c>
+      <c r="F294">
+        <v>1882</v>
+      </c>
       <c r="G294">
         <v>871</v>
       </c>
@@ -11513,7 +12251,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="2:12">
+    <row r="295" spans="1:12">
+      <c r="A295">
+        <v>142</v>
+      </c>
       <c r="B295">
         <v>0</v>
       </c>
@@ -11526,6 +12267,9 @@
       <c r="E295">
         <v>0</v>
       </c>
+      <c r="F295">
+        <v>0</v>
+      </c>
       <c r="G295">
         <v>0</v>
       </c>
@@ -11545,7 +12289,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="2:12">
+    <row r="296" spans="1:12">
+      <c r="A296">
+        <v>143</v>
+      </c>
       <c r="B296">
         <v>1766</v>
       </c>
@@ -11558,6 +12305,9 @@
       <c r="E296">
         <v>4084</v>
       </c>
+      <c r="F296">
+        <v>4084</v>
+      </c>
       <c r="G296">
         <v>4084</v>
       </c>
@@ -11577,7 +12327,10 @@
         <v>20035</v>
       </c>
     </row>
-    <row r="297" spans="2:12">
+    <row r="297" spans="1:12">
+      <c r="A297">
+        <v>144</v>
+      </c>
       <c r="B297">
         <v>4579</v>
       </c>
@@ -11590,6 +12343,9 @@
       <c r="E297">
         <v>10734</v>
       </c>
+      <c r="F297">
+        <v>7798</v>
+      </c>
       <c r="G297">
         <v>10734</v>
       </c>
@@ -11609,7 +12365,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="2:12">
+    <row r="298" spans="1:12">
+      <c r="A298">
+        <v>145</v>
+      </c>
       <c r="B298">
         <v>2482</v>
       </c>
@@ -11622,6 +12381,9 @@
       <c r="E298">
         <v>5690</v>
       </c>
+      <c r="F298">
+        <v>7305</v>
+      </c>
       <c r="G298">
         <v>5690</v>
       </c>
@@ -11641,7 +12403,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="2:12">
+    <row r="299" spans="1:12">
+      <c r="A299">
+        <v>146</v>
+      </c>
       <c r="B299">
         <v>465</v>
       </c>
@@ -11654,6 +12419,9 @@
       <c r="E299">
         <v>1173</v>
       </c>
+      <c r="F299">
+        <v>2494</v>
+      </c>
       <c r="G299">
         <v>1173</v>
       </c>
@@ -11673,7 +12441,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="2:12">
+    <row r="300" spans="1:12">
+      <c r="A300">
+        <v>147</v>
+      </c>
       <c r="B300">
         <v>0</v>
       </c>
@@ -11686,6 +12457,9 @@
       <c r="E300">
         <v>0</v>
       </c>
+      <c r="F300">
+        <v>0</v>
+      </c>
       <c r="G300">
         <v>0</v>
       </c>
@@ -11705,7 +12479,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="2:12">
+    <row r="301" spans="1:12">
+      <c r="A301">
+        <v>148</v>
+      </c>
       <c r="B301">
         <v>1026</v>
       </c>
@@ -11718,6 +12495,9 @@
       <c r="E301">
         <v>2904</v>
       </c>
+      <c r="F301">
+        <v>2904</v>
+      </c>
       <c r="G301">
         <v>2904</v>
       </c>
@@ -11737,7 +12517,10 @@
         <v>13722</v>
       </c>
     </row>
-    <row r="302" spans="2:12">
+    <row r="302" spans="1:12">
+      <c r="A302">
+        <v>149</v>
+      </c>
       <c r="B302">
         <v>2729</v>
       </c>
@@ -11750,6 +12533,9 @@
       <c r="E302">
         <v>7627</v>
       </c>
+      <c r="F302">
+        <v>5405</v>
+      </c>
       <c r="G302">
         <v>7627</v>
       </c>
@@ -11769,7 +12555,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="2:12">
+    <row r="303" spans="1:12">
+      <c r="A303">
+        <v>150</v>
+      </c>
       <c r="B303">
         <v>1392</v>
       </c>
@@ -11782,6 +12571,9 @@
       <c r="E303">
         <v>3946</v>
       </c>
+      <c r="F303">
+        <v>5171</v>
+      </c>
       <c r="G303">
         <v>3946</v>
       </c>
@@ -11801,7 +12593,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="2:12">
+    <row r="304" spans="1:12">
+      <c r="A304">
+        <v>151</v>
+      </c>
       <c r="B304">
         <v>247</v>
       </c>
@@ -11814,6 +12609,9 @@
       <c r="E304">
         <v>730</v>
       </c>
+      <c r="F304">
+        <v>1727</v>
+      </c>
       <c r="G304">
         <v>730</v>
       </c>
@@ -11833,7 +12631,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="2:12">
+    <row r="305" spans="1:12">
+      <c r="A305">
+        <v>152</v>
+      </c>
       <c r="B305">
         <v>0</v>
       </c>
@@ -11846,6 +12647,9 @@
       <c r="E305">
         <v>0</v>
       </c>
+      <c r="F305">
+        <v>0</v>
+      </c>
       <c r="G305">
         <v>0</v>
       </c>
@@ -11865,7 +12669,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="2:12">
+    <row r="306" spans="1:12">
+      <c r="A306">
+        <v>153</v>
+      </c>
       <c r="B306">
         <v>120</v>
       </c>
@@ -11878,6 +12685,9 @@
       <c r="E306">
         <v>982</v>
       </c>
+      <c r="F306">
+        <v>982</v>
+      </c>
       <c r="G306">
         <v>982</v>
       </c>
@@ -11897,7 +12707,10 @@
         <v>7227</v>
       </c>
     </row>
-    <row r="307" spans="2:12">
+    <row r="307" spans="1:12">
+      <c r="A307">
+        <v>154</v>
+      </c>
       <c r="B307">
         <v>294</v>
       </c>
@@ -11910,6 +12723,9 @@
       <c r="E307">
         <v>2515</v>
       </c>
+      <c r="F307">
+        <v>1896</v>
+      </c>
       <c r="G307">
         <v>2515</v>
       </c>
@@ -11929,7 +12745,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="2:12">
+    <row r="308" spans="1:12">
+      <c r="A308">
+        <v>155</v>
+      </c>
       <c r="B308">
         <v>191</v>
       </c>
@@ -11942,6 +12761,9 @@
       <c r="E308">
         <v>1515</v>
       </c>
+      <c r="F308">
+        <v>1774</v>
+      </c>
       <c r="G308">
         <v>1515</v>
       </c>
@@ -11961,7 +12783,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="2:12">
+    <row r="309" spans="1:12">
+      <c r="A309">
+        <v>156</v>
+      </c>
       <c r="B309">
         <v>21</v>
       </c>
@@ -11974,6 +12799,9 @@
       <c r="E309">
         <v>236</v>
       </c>
+      <c r="F309">
+        <v>596</v>
+      </c>
       <c r="G309">
         <v>236</v>
       </c>
@@ -11993,7 +12821,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="2:12">
+    <row r="310" spans="1:12">
+      <c r="A310">
+        <v>157</v>
+      </c>
       <c r="B310">
         <v>0</v>
       </c>
@@ -12006,6 +12837,9 @@
       <c r="E310">
         <v>0</v>
       </c>
+      <c r="F310">
+        <v>0</v>
+      </c>
       <c r="G310">
         <v>0</v>
       </c>
@@ -12025,7 +12859,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="2:12">
+    <row r="311" spans="1:12">
+      <c r="A311">
+        <v>158</v>
+      </c>
       <c r="B311">
         <v>2</v>
       </c>
@@ -12038,6 +12875,9 @@
       <c r="E311">
         <v>112</v>
       </c>
+      <c r="F311">
+        <v>112</v>
+      </c>
       <c r="G311">
         <v>112</v>
       </c>
@@ -12057,7 +12897,10 @@
         <v>4083</v>
       </c>
     </row>
-    <row r="312" spans="2:12">
+    <row r="312" spans="1:12">
+      <c r="A312">
+        <v>159</v>
+      </c>
       <c r="B312">
         <v>4</v>
       </c>
@@ -12070,6 +12913,9 @@
       <c r="E312">
         <v>280</v>
       </c>
+      <c r="F312">
+        <v>248</v>
+      </c>
       <c r="G312">
         <v>280</v>
       </c>
@@ -12089,7 +12935,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="2:12">
+    <row r="313" spans="1:12">
+      <c r="A313">
+        <v>160</v>
+      </c>
       <c r="B313">
         <v>4</v>
       </c>
@@ -12102,6 +12951,9 @@
       <c r="E313">
         <v>200</v>
       </c>
+      <c r="F313">
+        <v>192</v>
+      </c>
       <c r="G313">
         <v>200</v>
       </c>
@@ -12121,7 +12973,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="2:12">
+    <row r="314" spans="1:12">
+      <c r="A314">
+        <v>161</v>
+      </c>
       <c r="B314">
         <v>0</v>
       </c>
@@ -12134,6 +12989,9 @@
       <c r="E314">
         <v>24</v>
       </c>
+      <c r="F314">
+        <v>64</v>
+      </c>
       <c r="G314">
         <v>24</v>
       </c>
@@ -12153,7 +13011,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="2:12">
+    <row r="315" spans="1:12">
+      <c r="A315">
+        <v>162</v>
+      </c>
       <c r="B315">
         <v>0</v>
       </c>
@@ -12166,6 +13027,9 @@
       <c r="E315">
         <v>0</v>
       </c>
+      <c r="F315">
+        <v>0</v>
+      </c>
       <c r="G315">
         <v>0</v>
       </c>
@@ -12185,7 +13049,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="2:12">
+    <row r="316" spans="1:12">
+      <c r="A316">
+        <v>163</v>
+      </c>
       <c r="B316">
         <v>0</v>
       </c>
@@ -12198,6 +13065,9 @@
       <c r="E316">
         <v>288</v>
       </c>
+      <c r="F316">
+        <v>288</v>
+      </c>
       <c r="G316">
         <v>288</v>
       </c>
@@ -12217,7 +13087,10 @@
         <v>4012</v>
       </c>
     </row>
-    <row r="317" spans="2:12">
+    <row r="317" spans="1:12">
+      <c r="A317">
+        <v>164</v>
+      </c>
       <c r="B317">
         <v>0</v>
       </c>
@@ -12230,6 +13103,9 @@
       <c r="E317">
         <v>764</v>
       </c>
+      <c r="F317">
+        <v>588</v>
+      </c>
       <c r="G317">
         <v>764</v>
       </c>
@@ -12249,7 +13125,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="2:12">
+    <row r="318" spans="1:12">
+      <c r="A318">
+        <v>165</v>
+      </c>
       <c r="B318">
         <v>0</v>
       </c>
@@ -12262,6 +13141,9 @@
       <c r="E318">
         <v>394</v>
       </c>
+      <c r="F318">
+        <v>472</v>
+      </c>
       <c r="G318">
         <v>394</v>
       </c>
@@ -12281,7 +13163,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="2:12">
+    <row r="319" spans="1:12">
+      <c r="A319">
+        <v>166</v>
+      </c>
       <c r="B319">
         <v>0</v>
       </c>
@@ -12294,6 +13179,9 @@
       <c r="E319">
         <v>66</v>
       </c>
+      <c r="F319">
+        <v>164</v>
+      </c>
       <c r="G319">
         <v>66</v>
       </c>
@@ -12313,7 +13201,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="2:12">
+    <row r="320" spans="1:12">
+      <c r="A320">
+        <v>167</v>
+      </c>
       <c r="B320">
         <v>0</v>
       </c>
@@ -12326,6 +13217,9 @@
       <c r="E320">
         <v>0</v>
       </c>
+      <c r="F320">
+        <v>0</v>
+      </c>
       <c r="G320">
         <v>0</v>
       </c>
@@ -12345,7 +13239,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="2:12">
+    <row r="321" spans="1:12">
+      <c r="A321">
+        <v>168</v>
+      </c>
       <c r="B321">
         <v>52</v>
       </c>
@@ -12358,6 +13255,9 @@
       <c r="E321">
         <v>666</v>
       </c>
+      <c r="F321">
+        <v>666</v>
+      </c>
       <c r="G321">
         <v>666</v>
       </c>
@@ -12377,7 +13277,10 @@
         <v>3368</v>
       </c>
     </row>
-    <row r="322" spans="2:12">
+    <row r="322" spans="1:12">
+      <c r="A322">
+        <v>169</v>
+      </c>
       <c r="B322">
         <v>143</v>
       </c>
@@ -12390,6 +13293,9 @@
       <c r="E322">
         <v>1789</v>
       </c>
+      <c r="F322">
+        <v>1334</v>
+      </c>
       <c r="G322">
         <v>1789</v>
       </c>
@@ -12409,7 +13315,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="2:12">
+    <row r="323" spans="1:12">
+      <c r="A323">
+        <v>170</v>
+      </c>
       <c r="B323">
         <v>72</v>
       </c>
@@ -12422,6 +13331,9 @@
       <c r="E323">
         <v>876</v>
       </c>
+      <c r="F323">
+        <v>1135</v>
+      </c>
       <c r="G323">
         <v>876</v>
       </c>
@@ -12441,7 +13353,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="2:12">
+    <row r="324" spans="1:12">
+      <c r="A324">
+        <v>171</v>
+      </c>
       <c r="B324">
         <v>22</v>
       </c>
@@ -12454,6 +13369,9 @@
       <c r="E324">
         <v>205</v>
       </c>
+      <c r="F324">
+        <v>401</v>
+      </c>
       <c r="G324">
         <v>205</v>
       </c>
@@ -12473,7 +13391,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="2:12">
+    <row r="325" spans="1:12">
+      <c r="A325">
+        <v>172</v>
+      </c>
       <c r="B325">
         <v>0</v>
       </c>
@@ -12486,6 +13407,9 @@
       <c r="E325">
         <v>0</v>
       </c>
+      <c r="F325">
+        <v>0</v>
+      </c>
       <c r="G325">
         <v>0</v>
       </c>
@@ -12505,7 +13429,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="2:12">
+    <row r="326" spans="1:12">
+      <c r="A326">
+        <v>173</v>
+      </c>
       <c r="B326">
         <v>114</v>
       </c>
@@ -12518,6 +13445,9 @@
       <c r="E326">
         <v>636</v>
       </c>
+      <c r="F326">
+        <v>636</v>
+      </c>
       <c r="G326">
         <v>636</v>
       </c>
@@ -12537,7 +13467,10 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="327" spans="2:12">
+    <row r="327" spans="1:12">
+      <c r="A327">
+        <v>174</v>
+      </c>
       <c r="B327">
         <v>315</v>
       </c>
@@ -12550,6 +13483,9 @@
       <c r="E327">
         <v>1729</v>
       </c>
+      <c r="F327">
+        <v>1209</v>
+      </c>
       <c r="G327">
         <v>1729</v>
       </c>
@@ -12566,7 +13502,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="2:12">
+    <row r="328" spans="1:12">
+      <c r="A328">
+        <v>175</v>
+      </c>
       <c r="B328">
         <v>145</v>
       </c>
@@ -12579,6 +13518,9 @@
       <c r="E328">
         <v>785</v>
       </c>
+      <c r="F328">
+        <v>1092</v>
+      </c>
       <c r="G328">
         <v>785</v>
       </c>
@@ -12595,7 +13537,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="2:12">
+    <row r="329" spans="1:12">
+      <c r="A329">
+        <v>176</v>
+      </c>
       <c r="B329">
         <v>31</v>
       </c>
@@ -12608,6 +13553,9 @@
       <c r="E329">
         <v>153</v>
       </c>
+      <c r="F329">
+        <v>366</v>
+      </c>
       <c r="G329">
         <v>153</v>
       </c>
@@ -12624,10 +13572,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="2:12">
+    <row r="330" spans="1:12">
+      <c r="A330">
+        <v>177</v>
+      </c>
       <c r="E330">
         <v>0</v>
       </c>
+      <c r="F330">
+        <v>0</v>
+      </c>
       <c r="G330">
         <v>0</v>
       </c>
@@ -12644,10 +13598,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="2:12">
+    <row r="331" spans="1:12">
+      <c r="A331">
+        <v>178</v>
+      </c>
       <c r="E331">
         <v>300</v>
       </c>
+      <c r="F331">
+        <v>300</v>
+      </c>
       <c r="G331">
         <v>300</v>
       </c>
@@ -12664,10 +13624,16 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="332" spans="2:12">
+    <row r="332" spans="1:12">
+      <c r="A332">
+        <v>179</v>
+      </c>
       <c r="E332">
         <v>786</v>
       </c>
+      <c r="F332">
+        <v>586</v>
+      </c>
       <c r="G332">
         <v>786</v>
       </c>
@@ -12684,10 +13650,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="2:12">
+    <row r="333" spans="1:12">
+      <c r="A333">
+        <v>180</v>
+      </c>
       <c r="E333">
         <v>440</v>
       </c>
+      <c r="F333">
+        <v>523</v>
+      </c>
       <c r="G333">
         <v>440</v>
       </c>
@@ -12704,10 +13676,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="2:12">
+    <row r="334" spans="1:12">
+      <c r="A334">
+        <v>181</v>
+      </c>
       <c r="E334">
         <v>64</v>
       </c>
+      <c r="F334">
+        <v>181</v>
+      </c>
       <c r="G334">
         <v>64</v>
       </c>
@@ -12724,10 +13702,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="2:12">
+    <row r="335" spans="1:12">
+      <c r="A335">
+        <v>182</v>
+      </c>
       <c r="E335">
         <v>0</v>
       </c>
+      <c r="F335">
+        <v>0</v>
+      </c>
       <c r="G335">
         <v>0</v>
       </c>
@@ -12744,8 +13728,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="2:12">
+    <row r="336" spans="1:12">
+      <c r="A336">
+        <v>183</v>
+      </c>
       <c r="E336">
+        <v>0</v>
+      </c>
+      <c r="F336">
         <v>0</v>
       </c>
       <c r="G336">
@@ -12764,8 +13754,14 @@
         <v>490</v>
       </c>
     </row>
-    <row r="337" spans="5:12">
+    <row r="337" spans="1:12">
+      <c r="A337">
+        <v>184</v>
+      </c>
       <c r="E337">
+        <v>0</v>
+      </c>
+      <c r="F337">
         <v>0</v>
       </c>
       <c r="G337">
@@ -12784,8 +13780,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="5:12">
+    <row r="338" spans="1:12">
+      <c r="A338">
+        <v>185</v>
+      </c>
       <c r="E338">
+        <v>0</v>
+      </c>
+      <c r="F338">
         <v>0</v>
       </c>
       <c r="G338">
@@ -12804,8 +13806,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="5:12">
+    <row r="339" spans="1:12">
+      <c r="A339">
+        <v>186</v>
+      </c>
       <c r="E339">
+        <v>0</v>
+      </c>
+      <c r="F339">
         <v>0</v>
       </c>
       <c r="G339">
@@ -12824,10 +13832,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="5:12">
+    <row r="340" spans="1:12">
+      <c r="A340">
+        <v>187</v>
+      </c>
       <c r="E340">
         <v>0</v>
       </c>
+      <c r="F340">
+        <v>0</v>
+      </c>
       <c r="G340">
         <v>0</v>
       </c>
@@ -12844,8 +13858,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="5:12">
+    <row r="341" spans="1:12">
+      <c r="A341">
+        <v>188</v>
+      </c>
       <c r="E341">
+        <v>0</v>
+      </c>
+      <c r="F341">
         <v>0</v>
       </c>
       <c r="G341">
@@ -12864,8 +13884,14 @@
         <v>332</v>
       </c>
     </row>
-    <row r="342" spans="5:12">
+    <row r="342" spans="1:12">
+      <c r="A342">
+        <v>189</v>
+      </c>
       <c r="E342">
+        <v>0</v>
+      </c>
+      <c r="F342">
         <v>0</v>
       </c>
       <c r="G342">
@@ -12884,8 +13910,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="5:12">
+    <row r="343" spans="1:12">
+      <c r="A343">
+        <v>190</v>
+      </c>
       <c r="E343">
+        <v>0</v>
+      </c>
+      <c r="F343">
         <v>0</v>
       </c>
       <c r="G343">
@@ -12904,8 +13936,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="5:12">
+    <row r="344" spans="1:12">
+      <c r="A344">
+        <v>191</v>
+      </c>
       <c r="E344">
+        <v>0</v>
+      </c>
+      <c r="F344">
         <v>0</v>
       </c>
       <c r="G344">
@@ -12924,10 +13962,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="5:12">
+    <row r="345" spans="1:12">
+      <c r="A345">
+        <v>192</v>
+      </c>
       <c r="E345">
         <v>0</v>
       </c>
+      <c r="F345">
+        <v>0</v>
+      </c>
       <c r="G345">
         <v>0</v>
       </c>
@@ -12944,10 +13988,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="5:12">
+    <row r="346" spans="1:12">
+      <c r="A346">
+        <v>193</v>
+      </c>
       <c r="E346">
         <v>28</v>
       </c>
+      <c r="F346">
+        <v>28</v>
+      </c>
       <c r="G346">
         <v>28</v>
       </c>
@@ -12964,10 +14014,16 @@
         <v>243</v>
       </c>
     </row>
-    <row r="347" spans="5:12">
+    <row r="347" spans="1:12">
+      <c r="A347">
+        <v>194</v>
+      </c>
       <c r="E347">
         <v>77</v>
       </c>
+      <c r="F347">
+        <v>55</v>
+      </c>
       <c r="G347">
         <v>77</v>
       </c>
@@ -12984,10 +14040,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="5:12">
+    <row r="348" spans="1:12">
+      <c r="A348">
+        <v>195</v>
+      </c>
       <c r="E348">
         <v>28</v>
       </c>
+      <c r="F348">
+        <v>48</v>
+      </c>
       <c r="G348">
         <v>28</v>
       </c>
@@ -13004,10 +14066,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="5:12">
+    <row r="349" spans="1:12">
+      <c r="A349">
+        <v>196</v>
+      </c>
       <c r="E349">
         <v>14</v>
       </c>
+      <c r="F349">
+        <v>16</v>
+      </c>
       <c r="G349">
         <v>14</v>
       </c>
@@ -13024,10 +14092,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="5:12">
+    <row r="350" spans="1:12">
+      <c r="A350">
+        <v>197</v>
+      </c>
       <c r="E350">
         <v>0</v>
       </c>
+      <c r="F350">
+        <v>0</v>
+      </c>
       <c r="G350">
         <v>0</v>
       </c>
@@ -13044,10 +14118,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="5:12">
+    <row r="351" spans="1:12">
+      <c r="A351">
+        <v>198</v>
+      </c>
       <c r="E351">
         <v>32</v>
       </c>
+      <c r="F351">
+        <v>32</v>
+      </c>
       <c r="G351">
         <v>32</v>
       </c>
@@ -13064,10 +14144,16 @@
         <v>128</v>
       </c>
     </row>
-    <row r="352" spans="5:12">
+    <row r="352" spans="1:12">
+      <c r="A352">
+        <v>199</v>
+      </c>
       <c r="E352">
         <v>90</v>
       </c>
+      <c r="F352">
+        <v>60</v>
+      </c>
       <c r="G352">
         <v>90</v>
       </c>
@@ -13085,9 +14171,15 @@
       </c>
     </row>
     <row r="353" spans="1:12">
+      <c r="A353">
+        <v>200</v>
+      </c>
       <c r="E353">
         <v>36</v>
       </c>
+      <c r="F353">
+        <v>51</v>
+      </c>
       <c r="G353">
         <v>36</v>
       </c>
@@ -13105,9 +14197,15 @@
       </c>
     </row>
     <row r="354" spans="1:12">
+      <c r="A354">
+        <v>201</v>
+      </c>
       <c r="E354">
         <v>2</v>
       </c>
+      <c r="F354">
+        <v>17</v>
+      </c>
       <c r="G354">
         <v>2</v>
       </c>
@@ -13119,9 +14217,15 @@
       </c>
     </row>
     <row r="355" spans="1:12">
+      <c r="A355">
+        <v>202</v>
+      </c>
       <c r="E355">
         <v>0</v>
       </c>
+      <c r="F355">
+        <v>0</v>
+      </c>
       <c r="G355">
         <v>0</v>
       </c>
@@ -13130,9 +14234,15 @@
       </c>
     </row>
     <row r="356" spans="1:12">
+      <c r="A356">
+        <v>203</v>
+      </c>
       <c r="E356">
         <v>44</v>
       </c>
+      <c r="F356">
+        <v>44</v>
+      </c>
       <c r="G356">
         <v>44</v>
       </c>
@@ -13141,9 +14251,15 @@
       </c>
     </row>
     <row r="357" spans="1:12">
+      <c r="A357">
+        <v>204</v>
+      </c>
       <c r="E357">
         <v>125</v>
       </c>
+      <c r="F357">
+        <v>89</v>
+      </c>
       <c r="G357">
         <v>125</v>
       </c>
@@ -13152,9 +14268,15 @@
       </c>
     </row>
     <row r="358" spans="1:12">
+      <c r="A358">
+        <v>205</v>
+      </c>
       <c r="E358">
         <v>53</v>
       </c>
+      <c r="F358">
+        <v>73</v>
+      </c>
       <c r="G358">
         <v>53</v>
       </c>
@@ -13163,41 +14285,68 @@
       </c>
     </row>
     <row r="359" spans="1:12">
+      <c r="A359">
+        <v>206</v>
+      </c>
+      <c r="F359">
+        <v>26</v>
+      </c>
       <c r="L359">
         <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:12">
+      <c r="A360">
+        <v>207</v>
+      </c>
       <c r="L360">
         <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:12">
+      <c r="A361">
+        <v>208</v>
+      </c>
       <c r="L361">
         <v>27</v>
       </c>
     </row>
     <row r="362" spans="1:12">
+      <c r="A362">
+        <v>209</v>
+      </c>
       <c r="L362">
         <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:12">
+      <c r="A363">
+        <v>210</v>
+      </c>
       <c r="L363">
         <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:12">
+      <c r="A364">
+        <v>211</v>
+      </c>
       <c r="L364">
         <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:12">
+      <c r="A365">
+        <v>212</v>
+      </c>
       <c r="L365">
         <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:12">
+      <c r="A366">
+        <v>213</v>
+      </c>
       <c r="E366">
         <v>10</v>
       </c>
@@ -13223,6 +14372,9 @@
       </c>
       <c r="E367">
         <v>80.151400852726098</v>
+      </c>
+      <c r="F367">
+        <v>80.317788571915997</v>
       </c>
       <c r="G367">
         <v>80.151400852726098</v>

--- a/summary_qcost.xlsx
+++ b/summary_qcost.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-catsai.FAREAST\Documents\GitHub\quantum-logic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A5B561-C791-41D0-9962-33F292EE42EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C811700-D958-4E94-A4D0-D0B408B3658C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5025" yWindow="2415" windowWidth="22665" windowHeight="11385" xr2:uid="{15ABC293-405C-462E-8E8C-BE0E81CEA200}"/>
   </bookViews>
@@ -518,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0123011-1B57-48AF-9231-E9A37AC2F31A}">
   <dimension ref="A1:AQ367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="G367" sqref="G367"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E367" sqref="E367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -665,6 +665,9 @@
       <c r="D2">
         <v>256</v>
       </c>
+      <c r="E2">
+        <v>256</v>
+      </c>
       <c r="F2">
         <v>256</v>
       </c>
@@ -723,6 +726,9 @@
         <v>0</v>
       </c>
       <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
@@ -787,6 +793,9 @@
       <c r="D3">
         <v>1736</v>
       </c>
+      <c r="E3">
+        <v>1736</v>
+      </c>
       <c r="F3">
         <v>1736</v>
       </c>
@@ -845,6 +854,9 @@
         <v>1.2978723404255299</v>
       </c>
       <c r="Z3">
+        <v>1.2978723404255299</v>
+      </c>
+      <c r="AA3">
         <v>1.2978723404255299</v>
       </c>
       <c r="AB3">
@@ -909,6 +921,9 @@
       <c r="D4">
         <v>6583</v>
       </c>
+      <c r="E4">
+        <v>6727</v>
+      </c>
       <c r="F4">
         <v>6199</v>
       </c>
@@ -968,6 +983,9 @@
       </c>
       <c r="Z4">
         <v>2.8996655518394601</v>
+      </c>
+      <c r="AA4">
+        <v>2.8939226519336998</v>
       </c>
       <c r="AB4">
         <v>2.92044198895027</v>
@@ -1031,6 +1049,9 @@
       <c r="D5">
         <v>15891</v>
       </c>
+      <c r="E5">
+        <v>15961</v>
+      </c>
       <c r="F5">
         <v>14675</v>
       </c>
@@ -1090,6 +1111,9 @@
       </c>
       <c r="Z5">
         <v>5.2689012334055096</v>
+      </c>
+      <c r="AA5">
+        <v>4.9007912355447303</v>
       </c>
       <c r="AB5">
         <v>4.9231395703959997</v>
@@ -1153,6 +1177,9 @@
       <c r="D6">
         <v>25449</v>
       </c>
+      <c r="E6">
+        <v>26514</v>
+      </c>
       <c r="F6">
         <v>24324</v>
       </c>
@@ -1212,6 +1239,9 @@
       </c>
       <c r="Z6">
         <v>7.0353901345291403</v>
+      </c>
+      <c r="AA6">
+        <v>7.0247684426582904</v>
       </c>
       <c r="AB6">
         <v>7.0799605474900904</v>
@@ -1275,6 +1305,9 @@
       <c r="D7">
         <v>27035</v>
       </c>
+      <c r="E7">
+        <v>29391</v>
+      </c>
       <c r="F7">
         <v>28559</v>
       </c>
@@ -1334,6 +1367,9 @@
       </c>
       <c r="Z7">
         <v>8.9093240677250893</v>
+      </c>
+      <c r="AA7">
+        <v>8.7680690673865396</v>
       </c>
       <c r="AB7">
         <v>8.8255328456822202</v>
@@ -1397,6 +1433,9 @@
       <c r="D8">
         <v>22083</v>
       </c>
+      <c r="E8">
+        <v>24541</v>
+      </c>
       <c r="F8">
         <v>26295</v>
       </c>
@@ -1456,6 +1495,9 @@
       </c>
       <c r="Z8">
         <v>10.3684134553697</v>
+      </c>
+      <c r="AA8">
+        <v>10.340279529993801</v>
       </c>
       <c r="AB8">
         <v>9.9497228910189399</v>
@@ -1519,6 +1561,9 @@
       <c r="D9">
         <v>24303</v>
       </c>
+      <c r="E9">
+        <v>26034</v>
+      </c>
       <c r="F9">
         <v>27123</v>
       </c>
@@ -1578,6 +1623,9 @@
       </c>
       <c r="Z9">
         <v>10.9454767054212</v>
+      </c>
+      <c r="AA9">
+        <v>10.9493251479355</v>
       </c>
       <c r="AB9">
         <v>10.938360832980701</v>
@@ -1641,6 +1689,9 @@
       <c r="D10">
         <v>41118</v>
       </c>
+      <c r="E10">
+        <v>43077</v>
+      </c>
       <c r="F10">
         <v>40147</v>
       </c>
@@ -1700,6 +1751,9 @@
       </c>
       <c r="Z10">
         <v>9.4991250504778506</v>
+      </c>
+      <c r="AA10">
+        <v>9.5809222994314496</v>
       </c>
       <c r="AB10">
         <v>9.7061133656237697</v>
@@ -1763,6 +1817,9 @@
       <c r="D11">
         <v>63719</v>
       </c>
+      <c r="E11">
+        <v>65134</v>
+      </c>
       <c r="F11">
         <v>59722</v>
       </c>
@@ -1825,6 +1882,9 @@
       <c r="D12">
         <v>66081</v>
       </c>
+      <c r="E12">
+        <v>72584</v>
+      </c>
       <c r="F12">
         <v>70433</v>
       </c>
@@ -1887,6 +1947,9 @@
       <c r="D13">
         <v>49343</v>
       </c>
+      <c r="E13">
+        <v>57919</v>
+      </c>
       <c r="F13">
         <v>61809</v>
       </c>
@@ -1949,6 +2012,9 @@
       <c r="D14">
         <v>39504</v>
       </c>
+      <c r="E14">
+        <v>44930</v>
+      </c>
       <c r="F14">
         <v>48590</v>
       </c>
@@ -2011,6 +2077,9 @@
       <c r="D15">
         <v>54568</v>
       </c>
+      <c r="E15">
+        <v>51780</v>
+      </c>
       <c r="F15">
         <v>48596</v>
       </c>
@@ -2073,6 +2142,9 @@
       <c r="D16">
         <v>55753</v>
       </c>
+      <c r="E16">
+        <v>55523</v>
+      </c>
       <c r="F16">
         <v>30115</v>
       </c>
@@ -2135,6 +2207,9 @@
       <c r="D17">
         <v>3732</v>
       </c>
+      <c r="E17">
+        <v>4027</v>
+      </c>
       <c r="F17">
         <v>4262</v>
       </c>
@@ -2270,6 +2345,9 @@
       <c r="D20">
         <v>9.5103670090153098</v>
       </c>
+      <c r="E20">
+        <v>9.48307085267251</v>
+      </c>
       <c r="F20">
         <v>9.3116278881018406</v>
       </c>
@@ -2284,6 +2362,9 @@
       </c>
       <c r="J20">
         <v>10.5581032861203</v>
+      </c>
+      <c r="K20">
+        <v>10.5817985179765</v>
       </c>
       <c r="L20">
         <v>10.641570585787299</v>
@@ -2457,6 +2538,9 @@
       <c r="D25">
         <v>256</v>
       </c>
+      <c r="E25">
+        <v>256</v>
+      </c>
       <c r="F25">
         <v>256</v>
       </c>
@@ -2515,6 +2599,9 @@
         <v>0</v>
       </c>
       <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
         <v>0</v>
       </c>
       <c r="AB25">
@@ -2579,6 +2666,9 @@
       <c r="D26">
         <v>1728</v>
       </c>
+      <c r="E26">
+        <v>1728</v>
+      </c>
       <c r="F26">
         <v>1728</v>
       </c>
@@ -2637,6 +2727,9 @@
         <v>3</v>
       </c>
       <c r="Z26">
+        <v>3</v>
+      </c>
+      <c r="AA26">
         <v>3</v>
       </c>
       <c r="AB26">
@@ -2701,6 +2794,9 @@
       <c r="D27">
         <v>6576</v>
       </c>
+      <c r="E27">
+        <v>6720</v>
+      </c>
       <c r="F27">
         <v>6192</v>
       </c>
@@ -2760,6 +2856,9 @@
       </c>
       <c r="Z27">
         <v>5.9368622448979496</v>
+      </c>
+      <c r="AA27">
+        <v>5.8584183673469301</v>
       </c>
       <c r="AB27">
         <v>5.8545918367346896</v>
@@ -2823,6 +2922,9 @@
       <c r="D28">
         <v>15884</v>
       </c>
+      <c r="E28">
+        <v>15954</v>
+      </c>
       <c r="F28">
         <v>14668</v>
       </c>
@@ -2882,6 +2984,9 @@
       </c>
       <c r="Z28">
         <v>8.8071322278911506</v>
+      </c>
+      <c r="AA28">
+        <v>8.5807823129251695</v>
       </c>
       <c r="AB28">
         <v>8.5965667517006796</v>
@@ -2945,6 +3050,9 @@
       <c r="D29">
         <v>25444</v>
       </c>
+      <c r="E29">
+        <v>26509</v>
+      </c>
       <c r="F29">
         <v>24319</v>
       </c>
@@ -3004,6 +3112,9 @@
       </c>
       <c r="Z29">
         <v>11.613869047619</v>
+      </c>
+      <c r="AA29">
+        <v>11.2082823129251</v>
       </c>
       <c r="AB29">
         <v>11.264243197278899</v>
@@ -3067,6 +3178,9 @@
       <c r="D30">
         <v>27034</v>
       </c>
+      <c r="E30">
+        <v>29390</v>
+      </c>
       <c r="F30">
         <v>28558</v>
       </c>
@@ -3126,6 +3240,9 @@
       </c>
       <c r="Z30">
         <v>14.334715136054401</v>
+      </c>
+      <c r="AA30">
+        <v>13.7578443877551</v>
       </c>
       <c r="AB30">
         <v>13.858628295068</v>
@@ -3189,6 +3306,9 @@
       <c r="D31">
         <v>22129</v>
       </c>
+      <c r="E31">
+        <v>24587</v>
+      </c>
       <c r="F31">
         <v>26341</v>
       </c>
@@ -3248,6 +3368,9 @@
       </c>
       <c r="Z31">
         <v>16.782789469954601</v>
+      </c>
+      <c r="AA31">
+        <v>16.100285218253902</v>
       </c>
       <c r="AB31">
         <v>16.258999433106499</v>
@@ -3311,6 +3434,9 @@
       <c r="D32">
         <v>24432</v>
       </c>
+      <c r="E32">
+        <v>26158</v>
+      </c>
       <c r="F32">
         <v>27253</v>
       </c>
@@ -3370,6 +3496,9 @@
       </c>
       <c r="Z32">
         <v>18.3460968501984</v>
+      </c>
+      <c r="AA32">
+        <v>17.778974454364999</v>
       </c>
       <c r="AB32">
         <v>18.018433779761899</v>
@@ -3433,6 +3562,9 @@
       <c r="D33">
         <v>41269</v>
       </c>
+      <c r="E33">
+        <v>43335</v>
+      </c>
       <c r="F33">
         <v>40395</v>
       </c>
@@ -3492,6 +3624,9 @@
       </c>
       <c r="Z33">
         <v>17.830555555555499</v>
+      </c>
+      <c r="AA33">
+        <v>17.769494047618998</v>
       </c>
       <c r="AB33">
         <v>18.072619047619</v>
@@ -3555,6 +3690,9 @@
       <c r="D34">
         <v>64192</v>
       </c>
+      <c r="E34">
+        <v>66615</v>
+      </c>
       <c r="F34">
         <v>61237</v>
       </c>
@@ -3617,6 +3755,9 @@
       <c r="D35">
         <v>67040</v>
       </c>
+      <c r="E35">
+        <v>74059</v>
+      </c>
       <c r="F35">
         <v>71948</v>
       </c>
@@ -3679,6 +3820,9 @@
       <c r="D36">
         <v>52425</v>
       </c>
+      <c r="E36">
+        <v>61754</v>
+      </c>
       <c r="F36">
         <v>65731</v>
       </c>
@@ -3741,6 +3885,9 @@
       <c r="D37">
         <v>49920</v>
       </c>
+      <c r="E37">
+        <v>56561</v>
+      </c>
       <c r="F37">
         <v>60251</v>
       </c>
@@ -3803,6 +3950,9 @@
       <c r="D38">
         <v>73993</v>
       </c>
+      <c r="E38">
+        <v>80244</v>
+      </c>
       <c r="F38">
         <v>75514</v>
       </c>
@@ -3865,6 +4015,9 @@
       <c r="D39">
         <v>106221</v>
       </c>
+      <c r="E39">
+        <v>112679</v>
+      </c>
       <c r="F39">
         <v>102501</v>
       </c>
@@ -3927,6 +4080,9 @@
       <c r="D40">
         <v>104623</v>
       </c>
+      <c r="E40">
+        <v>109972</v>
+      </c>
       <c r="F40">
         <v>108453</v>
       </c>
@@ -3989,6 +4145,9 @@
       <c r="D41">
         <v>73559</v>
       </c>
+      <c r="E41">
+        <v>76885</v>
+      </c>
       <c r="F41">
         <v>86455</v>
       </c>
@@ -4051,6 +4210,9 @@
       <c r="D42">
         <v>60776</v>
       </c>
+      <c r="E42">
+        <v>61263</v>
+      </c>
       <c r="F42">
         <v>67481</v>
       </c>
@@ -4113,6 +4275,9 @@
       <c r="D43">
         <v>83744</v>
       </c>
+      <c r="E43">
+        <v>84431</v>
+      </c>
       <c r="F43">
         <v>79171</v>
       </c>
@@ -4175,6 +4340,9 @@
       <c r="D44">
         <v>114884</v>
       </c>
+      <c r="E44">
+        <v>114832</v>
+      </c>
       <c r="F44">
         <v>103282</v>
       </c>
@@ -4237,6 +4405,9 @@
       <c r="D45">
         <v>106886</v>
       </c>
+      <c r="E45">
+        <v>103188</v>
+      </c>
       <c r="F45">
         <v>103288</v>
       </c>
@@ -4299,6 +4470,9 @@
       <c r="D46">
         <v>68525</v>
       </c>
+      <c r="E46">
+        <v>62656</v>
+      </c>
       <c r="F46">
         <v>73881</v>
       </c>
@@ -4361,6 +4535,9 @@
       <c r="D47">
         <v>40482</v>
       </c>
+      <c r="E47">
+        <v>37388</v>
+      </c>
       <c r="F47">
         <v>44427</v>
       </c>
@@ -4423,6 +4600,9 @@
       <c r="D48">
         <v>40399</v>
       </c>
+      <c r="E48">
+        <v>38629</v>
+      </c>
       <c r="F48">
         <v>37668</v>
       </c>
@@ -4485,6 +4665,9 @@
       <c r="D49">
         <v>52096</v>
       </c>
+      <c r="E49">
+        <v>47425</v>
+      </c>
       <c r="F49">
         <v>42683</v>
       </c>
@@ -4547,6 +4730,9 @@
       <c r="D50">
         <v>48096</v>
       </c>
+      <c r="E50">
+        <v>39147</v>
+      </c>
       <c r="F50">
         <v>39998</v>
       </c>
@@ -4609,6 +4795,9 @@
       <c r="D51">
         <v>29654</v>
       </c>
+      <c r="E51">
+        <v>21617</v>
+      </c>
       <c r="F51">
         <v>26055</v>
       </c>
@@ -4671,6 +4860,9 @@
       <c r="D52">
         <v>11821</v>
       </c>
+      <c r="E52">
+        <v>8436</v>
+      </c>
       <c r="F52">
         <v>11423</v>
       </c>
@@ -4733,6 +4925,9 @@
       <c r="D53">
         <v>4858</v>
       </c>
+      <c r="E53">
+        <v>2919</v>
+      </c>
       <c r="F53">
         <v>3953</v>
       </c>
@@ -4795,6 +4990,9 @@
       <c r="D54">
         <v>5893</v>
       </c>
+      <c r="E54">
+        <v>2261</v>
+      </c>
       <c r="F54">
         <v>2265</v>
       </c>
@@ -4857,6 +5055,9 @@
       <c r="D55">
         <v>7664</v>
       </c>
+      <c r="E55">
+        <v>2293</v>
+      </c>
       <c r="F55">
         <v>2032</v>
       </c>
@@ -4919,6 +5120,9 @@
       <c r="D56">
         <v>5712</v>
       </c>
+      <c r="E56">
+        <v>1326</v>
+      </c>
       <c r="F56">
         <v>1527</v>
       </c>
@@ -4981,6 +5185,9 @@
       <c r="D57">
         <v>2153</v>
       </c>
+      <c r="E57">
+        <v>434</v>
+      </c>
       <c r="F57">
         <v>656</v>
       </c>
@@ -5043,6 +5250,9 @@
       <c r="D58">
         <v>442</v>
       </c>
+      <c r="E58">
+        <v>74</v>
+      </c>
       <c r="F58">
         <v>132</v>
       </c>
@@ -5105,6 +5315,9 @@
       <c r="D59">
         <v>77</v>
       </c>
+      <c r="E59">
+        <v>4</v>
+      </c>
       <c r="F59">
         <v>7</v>
       </c>
@@ -5502,6 +5715,9 @@
       <c r="D70">
         <v>15.984724591098599</v>
       </c>
+      <c r="E70">
+        <v>15.402215672986999</v>
+      </c>
       <c r="F70">
         <v>15.557482023320601</v>
       </c>
@@ -5692,6 +5908,9 @@
       <c r="D75">
         <v>1600</v>
       </c>
+      <c r="E75">
+        <v>1586</v>
+      </c>
       <c r="F75">
         <v>1600</v>
       </c>
@@ -5750,6 +5969,9 @@
         <v>0</v>
       </c>
       <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
         <v>0</v>
       </c>
       <c r="AB75">
@@ -5814,6 +6036,9 @@
       <c r="D76">
         <v>7008</v>
       </c>
+      <c r="E76">
+        <v>6692</v>
+      </c>
       <c r="F76">
         <v>7008</v>
       </c>
@@ -5872,6 +6097,9 @@
         <v>3.75</v>
       </c>
       <c r="Z76">
+        <v>3.75</v>
+      </c>
+      <c r="AA76">
         <v>3.75</v>
       </c>
       <c r="AB76">
@@ -5936,6 +6164,9 @@
       <c r="D77">
         <v>18612</v>
       </c>
+      <c r="E77">
+        <v>17682</v>
+      </c>
       <c r="F77">
         <v>18612</v>
       </c>
@@ -5995,6 +6226,9 @@
       </c>
       <c r="Z77">
         <v>7.5248724489795897</v>
+      </c>
+      <c r="AA77">
+        <v>7.4139030612244898</v>
       </c>
       <c r="AB77">
         <v>7.3756377551020398</v>
@@ -6058,6 +6292,9 @@
       <c r="D78">
         <v>30664</v>
       </c>
+      <c r="E78">
+        <v>31010</v>
+      </c>
       <c r="F78">
         <v>32111</v>
       </c>
@@ -6117,6 +6354,9 @@
       </c>
       <c r="Z78">
         <v>11.332164115646201</v>
+      </c>
+      <c r="AA78">
+        <v>11.0069621598639</v>
       </c>
       <c r="AB78">
         <v>10.9411139455782</v>
@@ -6180,6 +6420,9 @@
       <c r="D79">
         <v>29706</v>
       </c>
+      <c r="E79">
+        <v>32310</v>
+      </c>
       <c r="F79">
         <v>32397</v>
       </c>
@@ -6239,6 +6482,9 @@
       </c>
       <c r="Z79">
         <v>15.1938945578231</v>
+      </c>
+      <c r="AA79">
+        <v>14.6073639455782</v>
       </c>
       <c r="AB79">
         <v>14.5228401360544</v>
@@ -6302,6 +6548,9 @@
       <c r="D80">
         <v>14183</v>
       </c>
+      <c r="E80">
+        <v>17914</v>
+      </c>
       <c r="F80">
         <v>16997</v>
       </c>
@@ -6361,6 +6610,9 @@
       </c>
       <c r="Z80">
         <v>19.096250531462498</v>
+      </c>
+      <c r="AA80">
+        <v>18.252806122448899</v>
       </c>
       <c r="AB80">
         <v>18.14364105017</v>
@@ -6424,6 +6676,9 @@
       <c r="D81">
         <v>2490</v>
       </c>
+      <c r="E81">
+        <v>5926</v>
+      </c>
       <c r="F81">
         <v>5164</v>
       </c>
@@ -6483,6 +6738,9 @@
       </c>
       <c r="Z81">
         <v>22.766282242063401</v>
+      </c>
+      <c r="AA81">
+        <v>21.754499716553202</v>
       </c>
       <c r="AB81">
         <v>21.643778344671201</v>
@@ -6546,6 +6804,9 @@
       <c r="D82">
         <v>0</v>
       </c>
+      <c r="E82">
+        <v>428</v>
+      </c>
       <c r="F82">
         <v>127</v>
       </c>
@@ -6605,6 +6866,9 @@
       </c>
       <c r="Z82">
         <v>25.252867683531701</v>
+      </c>
+      <c r="AA82">
+        <v>24.411117311507901</v>
       </c>
       <c r="AB82">
         <v>24.346577380952301</v>
@@ -6668,6 +6932,9 @@
       <c r="D83">
         <v>3504</v>
       </c>
+      <c r="E83">
+        <v>3192</v>
+      </c>
       <c r="F83">
         <v>3504</v>
       </c>
@@ -6727,6 +6994,9 @@
       </c>
       <c r="Z83">
         <v>24.681746031745998</v>
+      </c>
+      <c r="AA83">
+        <v>24.608333333333299</v>
       </c>
       <c r="AB83">
         <v>24.555952380952299</v>
@@ -6790,6 +7060,9 @@
       <c r="D84">
         <v>16944</v>
       </c>
+      <c r="E84">
+        <v>15980</v>
+      </c>
       <c r="F84">
         <v>16944</v>
       </c>
@@ -6852,6 +7125,9 @@
       <c r="D85">
         <v>45189</v>
       </c>
+      <c r="E85">
+        <v>43516</v>
+      </c>
       <c r="F85">
         <v>45566</v>
       </c>
@@ -6914,6 +7190,9 @@
       <c r="D86">
         <v>76740</v>
       </c>
+      <c r="E86">
+        <v>76262</v>
+      </c>
       <c r="F86">
         <v>78976</v>
       </c>
@@ -6976,6 +7255,9 @@
       <c r="D87">
         <v>74624</v>
       </c>
+      <c r="E87">
+        <v>82664</v>
+      </c>
       <c r="F87">
         <v>83211</v>
       </c>
@@ -7038,6 +7320,9 @@
       <c r="D88">
         <v>36210</v>
       </c>
+      <c r="E88">
+        <v>50429</v>
+      </c>
       <c r="F88">
         <v>48670</v>
       </c>
@@ -7100,6 +7385,9 @@
       <c r="D89">
         <v>10399</v>
       </c>
+      <c r="E89">
+        <v>18662</v>
+      </c>
       <c r="F89">
         <v>16284</v>
       </c>
@@ -7162,6 +7450,9 @@
       <c r="D90">
         <v>2563</v>
       </c>
+      <c r="E90">
+        <v>4753</v>
+      </c>
       <c r="F90">
         <v>3583</v>
       </c>
@@ -7224,6 +7515,9 @@
       <c r="D91">
         <v>6068</v>
       </c>
+      <c r="E91">
+        <v>6160</v>
+      </c>
       <c r="F91">
         <v>6297</v>
       </c>
@@ -7286,6 +7580,9 @@
       <c r="D92">
         <v>28272</v>
       </c>
+      <c r="E92">
+        <v>27072</v>
+      </c>
       <c r="F92">
         <v>28272</v>
       </c>
@@ -7348,6 +7645,9 @@
       <c r="D93">
         <v>77788</v>
       </c>
+      <c r="E93">
+        <v>77470</v>
+      </c>
       <c r="F93">
         <v>80461</v>
       </c>
@@ -7410,6 +7710,9 @@
       <c r="D94">
         <v>124596</v>
       </c>
+      <c r="E94">
+        <v>127122</v>
+      </c>
       <c r="F94">
         <v>130749</v>
       </c>
@@ -7472,6 +7775,9 @@
       <c r="D95">
         <v>113067</v>
       </c>
+      <c r="E95">
+        <v>119356</v>
+      </c>
       <c r="F95">
         <v>119553</v>
       </c>
@@ -7534,6 +7840,9 @@
       <c r="D96">
         <v>50980</v>
       </c>
+      <c r="E96">
+        <v>57639</v>
+      </c>
       <c r="F96">
         <v>53696</v>
       </c>
@@ -7596,6 +7905,9 @@
       <c r="D97">
         <v>12166</v>
       </c>
+      <c r="E97">
+        <v>15653</v>
+      </c>
       <c r="F97">
         <v>12732</v>
       </c>
@@ -7658,6 +7970,9 @@
       <c r="D98">
         <v>1870</v>
       </c>
+      <c r="E98">
+        <v>2319</v>
+      </c>
       <c r="F98">
         <v>1229</v>
       </c>
@@ -7720,6 +8035,9 @@
       <c r="D99">
         <v>6708</v>
       </c>
+      <c r="E99">
+        <v>6285</v>
+      </c>
       <c r="F99">
         <v>6400</v>
       </c>
@@ -7782,6 +8100,9 @@
       <c r="D100">
         <v>31104</v>
       </c>
+      <c r="E100">
+        <v>29675</v>
+      </c>
       <c r="F100">
         <v>31104</v>
       </c>
@@ -7844,6 +8165,9 @@
       <c r="D101">
         <v>87613</v>
       </c>
+      <c r="E101">
+        <v>84391</v>
+      </c>
       <c r="F101">
         <v>87979</v>
       </c>
@@ -7906,6 +8230,9 @@
       <c r="D102">
         <v>134621</v>
       </c>
+      <c r="E102">
+        <v>131969</v>
+      </c>
       <c r="F102">
         <v>134945</v>
       </c>
@@ -7968,6 +8295,9 @@
       <c r="D103">
         <v>113981</v>
       </c>
+      <c r="E103">
+        <v>109513</v>
+      </c>
       <c r="F103">
         <v>107972</v>
       </c>
@@ -8030,6 +8360,9 @@
       <c r="D104">
         <v>50118</v>
       </c>
+      <c r="E104">
+        <v>47507</v>
+      </c>
       <c r="F104">
         <v>43629</v>
       </c>
@@ -8092,6 +8425,9 @@
       <c r="D105">
         <v>11107</v>
       </c>
+      <c r="E105">
+        <v>12981</v>
+      </c>
       <c r="F105">
         <v>10764</v>
       </c>
@@ -8154,6 +8490,9 @@
       <c r="D106">
         <v>1954</v>
       </c>
+      <c r="E106">
+        <v>2674</v>
+      </c>
       <c r="F106">
         <v>1964</v>
       </c>
@@ -8216,6 +8555,9 @@
       <c r="D107">
         <v>3062</v>
       </c>
+      <c r="E107">
+        <v>2897</v>
+      </c>
       <c r="F107">
         <v>2869</v>
       </c>
@@ -8278,6 +8620,9 @@
       <c r="D108">
         <v>12816</v>
       </c>
+      <c r="E108">
+        <v>12469</v>
+      </c>
       <c r="F108">
         <v>12816</v>
       </c>
@@ -8340,6 +8685,9 @@
       <c r="D109">
         <v>37912</v>
       </c>
+      <c r="E109">
+        <v>35494</v>
+      </c>
       <c r="F109">
         <v>36705</v>
       </c>
@@ -8402,6 +8750,9 @@
       <c r="D110">
         <v>59862</v>
       </c>
+      <c r="E110">
+        <v>53934</v>
+      </c>
       <c r="F110">
         <v>54679</v>
       </c>
@@ -8464,6 +8815,9 @@
       <c r="D111">
         <v>51965</v>
       </c>
+      <c r="E111">
+        <v>40759</v>
+      </c>
       <c r="F111">
         <v>39798</v>
       </c>
@@ -8526,6 +8880,9 @@
       <c r="D112">
         <v>23531</v>
       </c>
+      <c r="E112">
+        <v>16653</v>
+      </c>
       <c r="F112">
         <v>15072</v>
       </c>
@@ -8588,6 +8945,9 @@
       <c r="D113">
         <v>4627</v>
       </c>
+      <c r="E113">
+        <v>4726</v>
+      </c>
       <c r="F113">
         <v>3828</v>
       </c>
@@ -8650,6 +9010,9 @@
       <c r="D114">
         <v>669</v>
       </c>
+      <c r="E114">
+        <v>1078</v>
+      </c>
       <c r="F114">
         <v>784</v>
       </c>
@@ -8712,6 +9075,9 @@
       <c r="D115">
         <v>90</v>
       </c>
+      <c r="E115">
+        <v>141</v>
+      </c>
       <c r="F115">
         <v>80</v>
       </c>
@@ -8774,6 +9140,9 @@
       <c r="D116">
         <v>0</v>
       </c>
+      <c r="E116">
+        <v>6</v>
+      </c>
       <c r="F116">
         <v>0</v>
       </c>
@@ -8836,6 +9205,9 @@
       <c r="D117">
         <v>1992</v>
       </c>
+      <c r="E117">
+        <v>706</v>
+      </c>
       <c r="F117">
         <v>712</v>
       </c>
@@ -8898,6 +9270,9 @@
       <c r="D118">
         <v>6538</v>
       </c>
+      <c r="E118">
+        <v>2203</v>
+      </c>
       <c r="F118">
         <v>2216</v>
       </c>
@@ -8954,6 +9329,9 @@
       <c r="D119">
         <v>9292</v>
       </c>
+      <c r="E119">
+        <v>2658</v>
+      </c>
       <c r="F119">
         <v>2618</v>
       </c>
@@ -9010,6 +9388,9 @@
       <c r="D120">
         <v>5394</v>
       </c>
+      <c r="E120">
+        <v>1072</v>
+      </c>
       <c r="F120">
         <v>977</v>
       </c>
@@ -9063,6 +9444,9 @@
       <c r="D121">
         <v>626</v>
       </c>
+      <c r="E121">
+        <v>129</v>
+      </c>
       <c r="F121">
         <v>75</v>
       </c>
@@ -9116,6 +9500,9 @@
       <c r="D122">
         <v>10</v>
       </c>
+      <c r="E122">
+        <v>12</v>
+      </c>
       <c r="H122">
         <v>0</v>
       </c>
@@ -9728,6 +10115,9 @@
       <c r="D143">
         <v>21.633893748409001</v>
       </c>
+      <c r="E143">
+        <v>20.775008340679801</v>
+      </c>
       <c r="F143">
         <v>20.6794633388105</v>
       </c>
@@ -9918,6 +10308,9 @@
       <c r="D151">
         <v>256</v>
       </c>
+      <c r="E151">
+        <v>256</v>
+      </c>
       <c r="F151">
         <v>256</v>
       </c>
@@ -9976,6 +10369,9 @@
         <v>0</v>
       </c>
       <c r="Z151">
+        <v>0</v>
+      </c>
+      <c r="AA151">
         <v>0</v>
       </c>
       <c r="AB151">
@@ -10040,6 +10436,9 @@
       <c r="D152">
         <v>576</v>
       </c>
+      <c r="E152">
+        <v>576</v>
+      </c>
       <c r="F152">
         <v>576</v>
       </c>
@@ -10098,6 +10497,9 @@
         <v>13.5</v>
       </c>
       <c r="Z152">
+        <v>13.5</v>
+      </c>
+      <c r="AA152">
         <v>13.5</v>
       </c>
       <c r="AB152">
@@ -10162,6 +10564,9 @@
       <c r="D153">
         <v>576</v>
       </c>
+      <c r="E153">
+        <v>576</v>
+      </c>
       <c r="F153">
         <v>576</v>
       </c>
@@ -10221,6 +10626,9 @@
       </c>
       <c r="Z153">
         <v>26.944515306122401</v>
+      </c>
+      <c r="AA153">
+        <v>26.598214285714199</v>
       </c>
       <c r="AB153">
         <v>26.487244897959101</v>
@@ -10284,6 +10692,9 @@
       <c r="D154">
         <v>192</v>
       </c>
+      <c r="E154">
+        <v>178</v>
+      </c>
       <c r="F154">
         <v>192</v>
       </c>
@@ -10343,6 +10754,9 @@
       </c>
       <c r="Z154">
         <v>40.3162733843537</v>
+      </c>
+      <c r="AA154">
+        <v>39.315901360544203</v>
       </c>
       <c r="AB154">
         <v>39.1256909013605</v>
@@ -10406,6 +10820,9 @@
       <c r="D155">
         <v>0</v>
       </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
       <c r="F155">
         <v>0</v>
       </c>
@@ -10465,6 +10882,9 @@
       </c>
       <c r="Z155">
         <v>53.6305697278911</v>
+      </c>
+      <c r="AA155">
+        <v>51.835697278911503</v>
       </c>
       <c r="AB155">
         <v>51.606930272108798</v>
@@ -10528,6 +10948,9 @@
       <c r="D156">
         <v>1152</v>
       </c>
+      <c r="E156">
+        <v>1152</v>
+      </c>
       <c r="F156">
         <v>1152</v>
       </c>
@@ -10587,6 +11010,9 @@
       </c>
       <c r="Z156">
         <v>66.775616496598602</v>
+      </c>
+      <c r="AA156">
+        <v>64.208290816326496</v>
       </c>
       <c r="AB156">
         <v>63.935998618197203</v>
@@ -10650,6 +11076,9 @@
       <c r="D157">
         <v>2880</v>
       </c>
+      <c r="E157">
+        <v>3024</v>
+      </c>
       <c r="F157">
         <v>2496</v>
       </c>
@@ -10709,6 +11138,9 @@
       </c>
       <c r="Z157">
         <v>78.817008574262999</v>
+      </c>
+      <c r="AA157">
+        <v>75.741349560657596</v>
       </c>
       <c r="AB157">
         <v>75.509282879818599</v>
@@ -10772,6 +11204,9 @@
       <c r="D158">
         <v>2400</v>
       </c>
+      <c r="E158">
+        <v>1968</v>
+      </c>
       <c r="F158">
         <v>2496</v>
       </c>
@@ -10831,6 +11266,9 @@
       </c>
       <c r="Z158">
         <v>86.6947699652777</v>
+      </c>
+      <c r="AA158">
+        <v>84.111390128968196</v>
       </c>
       <c r="AB158">
         <v>84.092168898809504</v>
@@ -10894,6 +11332,9 @@
       <c r="D159">
         <v>576</v>
       </c>
+      <c r="E159">
+        <v>548</v>
+      </c>
       <c r="F159">
         <v>864</v>
       </c>
@@ -10953,6 +11394,9 @@
       </c>
       <c r="Z159">
         <v>84.438492063492006</v>
+      </c>
+      <c r="AA159">
+        <v>84.229613095238093</v>
       </c>
       <c r="AB159">
         <v>84.363095238095198</v>
@@ -11016,6 +11460,9 @@
       <c r="D160">
         <v>0</v>
       </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
       <c r="F160">
         <v>0</v>
       </c>
@@ -11078,6 +11525,9 @@
       <c r="D161">
         <v>3120</v>
       </c>
+      <c r="E161">
+        <v>3120</v>
+      </c>
       <c r="F161">
         <v>3120</v>
       </c>
@@ -11140,6 +11590,9 @@
       <c r="D162">
         <v>8052</v>
       </c>
+      <c r="E162">
+        <v>8320</v>
+      </c>
       <c r="F162">
         <v>6492</v>
       </c>
@@ -11202,6 +11655,9 @@
       <c r="D163">
         <v>5940</v>
       </c>
+      <c r="E163">
+        <v>4896</v>
+      </c>
       <c r="F163">
         <v>6732</v>
       </c>
@@ -11264,6 +11720,9 @@
       <c r="D164">
         <v>1500</v>
       </c>
+      <c r="E164">
+        <v>1346</v>
+      </c>
       <c r="F164">
         <v>2268</v>
       </c>
@@ -11326,6 +11785,9 @@
       <c r="D165">
         <v>0</v>
       </c>
+      <c r="E165">
+        <v>0</v>
+      </c>
       <c r="F165">
         <v>0</v>
       </c>
@@ -11388,6 +11850,9 @@
       <c r="D166">
         <v>5240</v>
       </c>
+      <c r="E166">
+        <v>5488</v>
+      </c>
       <c r="F166">
         <v>5488</v>
       </c>
@@ -11450,6 +11915,9 @@
       <c r="D167">
         <v>13768</v>
       </c>
+      <c r="E167">
+        <v>15439</v>
+      </c>
       <c r="F167">
         <v>11097</v>
       </c>
@@ -11512,6 +11980,9 @@
       <c r="D168">
         <v>9196</v>
       </c>
+      <c r="E168">
+        <v>7861</v>
+      </c>
       <c r="F168">
         <v>11676</v>
       </c>
@@ -11574,6 +12045,9 @@
       <c r="D169">
         <v>2460</v>
       </c>
+      <c r="E169">
+        <v>2222</v>
+      </c>
       <c r="F169">
         <v>3850</v>
       </c>
@@ -11636,6 +12110,9 @@
       <c r="D170">
         <v>0</v>
       </c>
+      <c r="E170">
+        <v>0</v>
+      </c>
       <c r="F170">
         <v>0</v>
       </c>
@@ -11698,6 +12175,9 @@
       <c r="D171">
         <v>5160</v>
       </c>
+      <c r="E171">
+        <v>5626</v>
+      </c>
       <c r="F171">
         <v>5626</v>
       </c>
@@ -11760,6 +12240,9 @@
       <c r="D172">
         <v>13278</v>
       </c>
+      <c r="E172">
+        <v>16631</v>
+      </c>
       <c r="F172">
         <v>11062</v>
       </c>
@@ -11822,6 +12305,9 @@
       <c r="D173">
         <v>9087</v>
       </c>
+      <c r="E173">
+        <v>7865</v>
+      </c>
       <c r="F173">
         <v>11741</v>
       </c>
@@ -11884,6 +12370,9 @@
       <c r="D174">
         <v>2181</v>
       </c>
+      <c r="E174">
+        <v>2188</v>
+      </c>
       <c r="F174">
         <v>3968</v>
       </c>
@@ -11946,6 +12435,9 @@
       <c r="D175">
         <v>0</v>
       </c>
+      <c r="E175">
+        <v>0</v>
+      </c>
       <c r="F175">
         <v>0</v>
       </c>
@@ -12008,6 +12500,9 @@
       <c r="D176">
         <v>3060</v>
       </c>
+      <c r="E176">
+        <v>3552</v>
+      </c>
       <c r="F176">
         <v>3552</v>
       </c>
@@ -12070,6 +12565,9 @@
       <c r="D177">
         <v>7270</v>
       </c>
+      <c r="E177">
+        <v>10706</v>
+      </c>
       <c r="F177">
         <v>6956</v>
       </c>
@@ -12132,6 +12630,9 @@
       <c r="D178">
         <v>6255</v>
       </c>
+      <c r="E178">
+        <v>5529</v>
+      </c>
       <c r="F178">
         <v>7517</v>
       </c>
@@ -12194,6 +12695,9 @@
       <c r="D179">
         <v>1102</v>
       </c>
+      <c r="E179">
+        <v>1288</v>
+      </c>
       <c r="F179">
         <v>2476</v>
       </c>
@@ -12256,6 +12760,9 @@
       <c r="D180">
         <v>0</v>
       </c>
+      <c r="E180">
+        <v>0</v>
+      </c>
       <c r="F180">
         <v>0</v>
       </c>
@@ -12318,6 +12825,9 @@
       <c r="D181">
         <v>3312</v>
       </c>
+      <c r="E181">
+        <v>3794</v>
+      </c>
       <c r="F181">
         <v>3794</v>
       </c>
@@ -12380,6 +12890,9 @@
       <c r="D182">
         <v>8160</v>
       </c>
+      <c r="E182">
+        <v>10523</v>
+      </c>
       <c r="F182">
         <v>7850</v>
       </c>
@@ -12442,6 +12955,9 @@
       <c r="D183">
         <v>6374</v>
       </c>
+      <c r="E183">
+        <v>6070</v>
+      </c>
       <c r="F183">
         <v>7847</v>
       </c>
@@ -12504,6 +13020,9 @@
       <c r="D184">
         <v>1588</v>
       </c>
+      <c r="E184">
+        <v>1517</v>
+      </c>
       <c r="F184">
         <v>2617</v>
       </c>
@@ -12566,6 +13085,9 @@
       <c r="D185">
         <v>0</v>
       </c>
+      <c r="E185">
+        <v>0</v>
+      </c>
       <c r="F185">
         <v>0</v>
       </c>
@@ -12628,6 +13150,9 @@
       <c r="D186">
         <v>7836</v>
       </c>
+      <c r="E186">
+        <v>7918</v>
+      </c>
       <c r="F186">
         <v>7918</v>
       </c>
@@ -12690,6 +13215,9 @@
       <c r="D187">
         <v>20253</v>
       </c>
+      <c r="E187">
+        <v>22065</v>
+      </c>
       <c r="F187">
         <v>16160</v>
       </c>
@@ -12752,6 +13280,9 @@
       <c r="D188">
         <v>13962</v>
       </c>
+      <c r="E188">
+        <v>11243</v>
+      </c>
       <c r="F188">
         <v>16243</v>
       </c>
@@ -12814,6 +13345,9 @@
       <c r="D189">
         <v>3138</v>
       </c>
+      <c r="E189">
+        <v>2718</v>
+      </c>
       <c r="F189">
         <v>5372</v>
       </c>
@@ -12876,6 +13410,9 @@
       <c r="D190">
         <v>0</v>
       </c>
+      <c r="E190">
+        <v>0</v>
+      </c>
       <c r="F190">
         <v>0</v>
       </c>
@@ -12938,6 +13475,9 @@
       <c r="D191">
         <v>13540</v>
       </c>
+      <c r="E191">
+        <v>13912</v>
+      </c>
       <c r="F191">
         <v>13912</v>
       </c>
@@ -13000,6 +13540,9 @@
       <c r="D192">
         <v>35302</v>
       </c>
+      <c r="E192">
+        <v>39011</v>
+      </c>
       <c r="F192">
         <v>27533</v>
       </c>
@@ -13062,6 +13605,9 @@
       <c r="D193">
         <v>22443</v>
       </c>
+      <c r="E193">
+        <v>18562</v>
+      </c>
       <c r="F193">
         <v>28188</v>
       </c>
@@ -13124,6 +13670,9 @@
       <c r="D194">
         <v>5455</v>
       </c>
+      <c r="E194">
+        <v>4808</v>
+      </c>
       <c r="F194">
         <v>9343</v>
       </c>
@@ -13186,6 +13735,9 @@
       <c r="D195">
         <v>0</v>
       </c>
+      <c r="E195">
+        <v>0</v>
+      </c>
       <c r="F195">
         <v>0</v>
       </c>
@@ -13248,6 +13800,9 @@
       <c r="D196">
         <v>13340</v>
       </c>
+      <c r="E196">
+        <v>14844</v>
+      </c>
       <c r="F196">
         <v>14844</v>
       </c>
@@ -13310,6 +13865,9 @@
       <c r="D197">
         <v>34037</v>
       </c>
+      <c r="E197">
+        <v>43091</v>
+      </c>
       <c r="F197">
         <v>28700</v>
       </c>
@@ -13372,6 +13930,9 @@
       <c r="D198">
         <v>22240</v>
       </c>
+      <c r="E198">
+        <v>19955</v>
+      </c>
       <c r="F198">
         <v>29731</v>
       </c>
@@ -13434,6 +13995,9 @@
       <c r="D199">
         <v>5007</v>
       </c>
+      <c r="E199">
+        <v>4776</v>
+      </c>
       <c r="F199">
         <v>9936</v>
       </c>
@@ -13496,6 +14060,9 @@
       <c r="D200">
         <v>0</v>
       </c>
+      <c r="E200">
+        <v>0</v>
+      </c>
       <c r="F200">
         <v>0</v>
       </c>
@@ -13558,6 +14125,9 @@
       <c r="D201">
         <v>7422</v>
       </c>
+      <c r="E201">
+        <v>9688</v>
+      </c>
       <c r="F201">
         <v>9688</v>
       </c>
@@ -13620,6 +14190,9 @@
       <c r="D202">
         <v>17972</v>
       </c>
+      <c r="E202">
+        <v>29177</v>
+      </c>
       <c r="F202">
         <v>18843</v>
       </c>
@@ -13682,6 +14255,9 @@
       <c r="D203">
         <v>13946</v>
       </c>
+      <c r="E203">
+        <v>13822</v>
+      </c>
       <c r="F203">
         <v>19448</v>
       </c>
@@ -13744,6 +14320,9 @@
       <c r="D204">
         <v>2630</v>
       </c>
+      <c r="E204">
+        <v>3042</v>
+      </c>
       <c r="F204">
         <v>6451</v>
       </c>
@@ -13806,6 +14385,9 @@
       <c r="D205">
         <v>0</v>
       </c>
+      <c r="E205">
+        <v>0</v>
+      </c>
       <c r="F205">
         <v>0</v>
       </c>
@@ -13868,6 +14450,9 @@
       <c r="D206">
         <v>6758</v>
       </c>
+      <c r="E206">
+        <v>7814</v>
+      </c>
       <c r="F206">
         <v>7814</v>
       </c>
@@ -13930,6 +14515,9 @@
       <c r="D207">
         <v>16729</v>
       </c>
+      <c r="E207">
+        <v>23087</v>
+      </c>
       <c r="F207">
         <v>15991</v>
       </c>
@@ -13992,6 +14580,9 @@
       <c r="D208">
         <v>12254</v>
       </c>
+      <c r="E208">
+        <v>11873</v>
+      </c>
       <c r="F208">
         <v>15459</v>
       </c>
@@ -14054,6 +14645,9 @@
       <c r="D209">
         <v>2930</v>
       </c>
+      <c r="E209">
+        <v>2886</v>
+      </c>
       <c r="F209">
         <v>5292</v>
       </c>
@@ -14116,6 +14710,9 @@
       <c r="D210">
         <v>0</v>
       </c>
+      <c r="E210">
+        <v>0</v>
+      </c>
       <c r="F210">
         <v>0</v>
       </c>
@@ -14178,6 +14775,9 @@
       <c r="D211">
         <v>14238</v>
       </c>
+      <c r="E211">
+        <v>14876</v>
+      </c>
       <c r="F211">
         <v>14876</v>
       </c>
@@ -14240,6 +14840,9 @@
       <c r="D212">
         <v>36539</v>
       </c>
+      <c r="E212">
+        <v>41609</v>
+      </c>
       <c r="F212">
         <v>29884</v>
       </c>
@@ -14302,6 +14905,9 @@
       <c r="D213">
         <v>24028</v>
       </c>
+      <c r="E213">
+        <v>20709</v>
+      </c>
       <c r="F213">
         <v>29377</v>
       </c>
@@ -14364,6 +14970,9 @@
       <c r="D214">
         <v>5546</v>
       </c>
+      <c r="E214">
+        <v>5019</v>
+      </c>
       <c r="F214">
         <v>9907</v>
       </c>
@@ -14426,6 +15035,9 @@
       <c r="D215">
         <v>0</v>
       </c>
+      <c r="E215">
+        <v>0</v>
+      </c>
       <c r="F215">
         <v>0</v>
       </c>
@@ -14488,6 +15100,9 @@
       <c r="D216">
         <v>22570</v>
       </c>
+      <c r="E216">
+        <v>23720</v>
+      </c>
       <c r="F216">
         <v>23720</v>
       </c>
@@ -14550,6 +15165,9 @@
       <c r="D217">
         <v>58581</v>
       </c>
+      <c r="E217">
+        <v>67152</v>
+      </c>
       <c r="F217">
         <v>45900</v>
       </c>
@@ -14612,6 +15230,9 @@
       <c r="D218">
         <v>36078</v>
       </c>
+      <c r="E218">
+        <v>30179</v>
+      </c>
       <c r="F218">
         <v>46247</v>
       </c>
@@ -14674,6 +15295,9 @@
       <c r="D219">
         <v>7675</v>
       </c>
+      <c r="E219">
+        <v>6931</v>
+      </c>
       <c r="F219">
         <v>15419</v>
       </c>
@@ -14736,6 +15360,9 @@
       <c r="D220">
         <v>0</v>
       </c>
+      <c r="E220">
+        <v>0</v>
+      </c>
       <c r="F220">
         <v>0</v>
       </c>
@@ -14798,6 +15425,9 @@
       <c r="D221">
         <v>20682</v>
       </c>
+      <c r="E221">
+        <v>21932</v>
+      </c>
       <c r="F221">
         <v>21932</v>
       </c>
@@ -14860,6 +15490,9 @@
       <c r="D222">
         <v>52607</v>
       </c>
+      <c r="E222">
+        <v>63790</v>
+      </c>
       <c r="F222">
         <v>41315</v>
       </c>
@@ -14922,6 +15555,9 @@
       <c r="D223">
         <v>32803</v>
       </c>
+      <c r="E223">
+        <v>27694</v>
+      </c>
       <c r="F223">
         <v>42247</v>
       </c>
@@ -14984,6 +15620,9 @@
       <c r="D224">
         <v>6975</v>
       </c>
+      <c r="E224">
+        <v>6014</v>
+      </c>
       <c r="F224">
         <v>14059</v>
       </c>
@@ -15046,6 +15685,9 @@
       <c r="D225">
         <v>0</v>
       </c>
+      <c r="E225">
+        <v>0</v>
+      </c>
       <c r="F225">
         <v>0</v>
       </c>
@@ -15108,6 +15750,9 @@
       <c r="D226">
         <v>10392</v>
       </c>
+      <c r="E226">
+        <v>10984</v>
+      </c>
       <c r="F226">
         <v>10984</v>
       </c>
@@ -15170,6 +15815,9 @@
       <c r="D227">
         <v>25317</v>
       </c>
+      <c r="E227">
+        <v>34388</v>
+      </c>
       <c r="F227">
         <v>20917</v>
       </c>
@@ -15232,6 +15880,9 @@
       <c r="D228">
         <v>18336</v>
       </c>
+      <c r="E228">
+        <v>15283</v>
+      </c>
       <c r="F228">
         <v>21170</v>
       </c>
@@ -15294,6 +15945,9 @@
       <c r="D229">
         <v>3303</v>
       </c>
+      <c r="E229">
+        <v>3026</v>
+      </c>
       <c r="F229">
         <v>6993</v>
       </c>
@@ -15356,6 +16010,9 @@
       <c r="D230">
         <v>0</v>
       </c>
+      <c r="E230">
+        <v>0</v>
+      </c>
       <c r="F230">
         <v>0</v>
       </c>
@@ -15418,6 +16075,9 @@
       <c r="D231">
         <v>7764</v>
       </c>
+      <c r="E231">
+        <v>7872</v>
+      </c>
       <c r="F231">
         <v>7872</v>
       </c>
@@ -15480,6 +16140,9 @@
       <c r="D232">
         <v>19151</v>
       </c>
+      <c r="E232">
+        <v>23696</v>
+      </c>
       <c r="F232">
         <v>15982</v>
       </c>
@@ -15542,6 +16205,9 @@
       <c r="D233">
         <v>13650</v>
       </c>
+      <c r="E233">
+        <v>11345</v>
+      </c>
       <c r="F233">
         <v>14947</v>
       </c>
@@ -15604,6 +16270,9 @@
       <c r="D234">
         <v>2705</v>
       </c>
+      <c r="E234">
+        <v>2380</v>
+      </c>
       <c r="F234">
         <v>5035</v>
       </c>
@@ -15666,6 +16335,9 @@
       <c r="D235">
         <v>0</v>
       </c>
+      <c r="E235">
+        <v>0</v>
+      </c>
       <c r="F235">
         <v>0</v>
       </c>
@@ -15728,6 +16400,9 @@
       <c r="D236">
         <v>16314</v>
       </c>
+      <c r="E236">
+        <v>16270</v>
+      </c>
       <c r="F236">
         <v>16270</v>
       </c>
@@ -15790,6 +16465,9 @@
       <c r="D237">
         <v>41713</v>
       </c>
+      <c r="E237">
+        <v>44916</v>
+      </c>
       <c r="F237">
         <v>32087</v>
       </c>
@@ -15852,6 +16530,9 @@
       <c r="D238">
         <v>26101</v>
       </c>
+      <c r="E238">
+        <v>21219</v>
+      </c>
       <c r="F238">
         <v>30586</v>
       </c>
@@ -15914,6 +16595,9 @@
       <c r="D239">
         <v>5355</v>
       </c>
+      <c r="E239">
+        <v>4304</v>
+      </c>
       <c r="F239">
         <v>10265</v>
       </c>
@@ -15976,6 +16660,9 @@
       <c r="D240">
         <v>0</v>
       </c>
+      <c r="E240">
+        <v>0</v>
+      </c>
       <c r="F240">
         <v>0</v>
       </c>
@@ -16038,6 +16725,9 @@
       <c r="D241">
         <v>25078</v>
       </c>
+      <c r="E241">
+        <v>25144</v>
+      </c>
       <c r="F241">
         <v>25144</v>
       </c>
@@ -16100,6 +16790,9 @@
       <c r="D242">
         <v>64732</v>
       </c>
+      <c r="E242">
+        <v>70875</v>
+      </c>
       <c r="F242">
         <v>47303</v>
       </c>
@@ -16162,6 +16855,9 @@
       <c r="D243">
         <v>37610</v>
       </c>
+      <c r="E243">
+        <v>30276</v>
+      </c>
       <c r="F243">
         <v>46965</v>
       </c>
@@ -16224,6 +16920,9 @@
       <c r="D244">
         <v>7541</v>
       </c>
+      <c r="E244">
+        <v>5927</v>
+      </c>
       <c r="F244">
         <v>15565</v>
       </c>
@@ -16286,6 +16985,9 @@
       <c r="D245">
         <v>0</v>
       </c>
+      <c r="E245">
+        <v>0</v>
+      </c>
       <c r="F245">
         <v>0</v>
       </c>
@@ -16348,6 +17050,9 @@
       <c r="D246">
         <v>21346</v>
       </c>
+      <c r="E246">
+        <v>20358</v>
+      </c>
       <c r="F246">
         <v>20358</v>
       </c>
@@ -16410,6 +17115,9 @@
       <c r="D247">
         <v>54093</v>
       </c>
+      <c r="E247">
+        <v>59930</v>
+      </c>
       <c r="F247">
         <v>37380</v>
       </c>
@@ -16472,6 +17180,9 @@
       <c r="D248">
         <v>32323</v>
       </c>
+      <c r="E248">
+        <v>24593</v>
+      </c>
       <c r="F248">
         <v>37790</v>
       </c>
@@ -16534,6 +17245,9 @@
       <c r="D249">
         <v>6219</v>
       </c>
+      <c r="E249">
+        <v>4667</v>
+      </c>
       <c r="F249">
         <v>12444</v>
       </c>
@@ -16596,6 +17310,9 @@
       <c r="D250">
         <v>0</v>
       </c>
+      <c r="E250">
+        <v>0</v>
+      </c>
       <c r="F250">
         <v>0</v>
       </c>
@@ -16658,6 +17375,9 @@
       <c r="D251">
         <v>9828</v>
       </c>
+      <c r="E251">
+        <v>8678</v>
+      </c>
       <c r="F251">
         <v>8678</v>
       </c>
@@ -16720,6 +17440,9 @@
       <c r="D252">
         <v>24245</v>
       </c>
+      <c r="E252">
+        <v>27790</v>
+      </c>
       <c r="F252">
         <v>16180</v>
       </c>
@@ -16782,6 +17505,9 @@
       <c r="D253">
         <v>15998</v>
       </c>
+      <c r="E253">
+        <v>11559</v>
+      </c>
       <c r="F253">
         <v>16182</v>
       </c>
@@ -16844,6 +17570,9 @@
       <c r="D254">
         <v>2707</v>
       </c>
+      <c r="E254">
+        <v>2016</v>
+      </c>
       <c r="F254">
         <v>5249</v>
       </c>
@@ -16906,6 +17635,9 @@
       <c r="D255">
         <v>0</v>
       </c>
+      <c r="E255">
+        <v>0</v>
+      </c>
       <c r="F255">
         <v>0</v>
       </c>
@@ -16968,6 +17700,9 @@
       <c r="D256">
         <v>4416</v>
       </c>
+      <c r="E256">
+        <v>4346</v>
+      </c>
       <c r="F256">
         <v>4346</v>
       </c>
@@ -17030,6 +17765,9 @@
       <c r="D257">
         <v>10831</v>
       </c>
+      <c r="E257">
+        <v>13948</v>
+      </c>
       <c r="F257">
         <v>8587</v>
       </c>
@@ -17092,6 +17830,9 @@
       <c r="D258">
         <v>7340</v>
       </c>
+      <c r="E258">
+        <v>6014</v>
+      </c>
       <c r="F258">
         <v>7963</v>
       </c>
@@ -17154,6 +17895,9 @@
       <c r="D259">
         <v>1336</v>
       </c>
+      <c r="E259">
+        <v>1126</v>
+      </c>
       <c r="F259">
         <v>2684</v>
       </c>
@@ -17216,6 +17960,9 @@
       <c r="D260">
         <v>0</v>
       </c>
+      <c r="E260">
+        <v>0</v>
+      </c>
       <c r="F260">
         <v>0</v>
       </c>
@@ -17278,6 +18025,9 @@
       <c r="D261">
         <v>7434</v>
       </c>
+      <c r="E261">
+        <v>7214</v>
+      </c>
       <c r="F261">
         <v>7214</v>
       </c>
@@ -17340,6 +18090,9 @@
       <c r="D262">
         <v>18890</v>
       </c>
+      <c r="E262">
+        <v>20109</v>
+      </c>
       <c r="F262">
         <v>13966</v>
       </c>
@@ -17402,6 +18155,9 @@
       <c r="D263">
         <v>11374</v>
       </c>
+      <c r="E263">
+        <v>9162</v>
+      </c>
       <c r="F263">
         <v>13061</v>
       </c>
@@ -17464,6 +18220,9 @@
       <c r="D264">
         <v>2168</v>
       </c>
+      <c r="E264">
+        <v>1681</v>
+      </c>
       <c r="F264">
         <v>4428</v>
       </c>
@@ -17526,6 +18285,9 @@
       <c r="D265">
         <v>0</v>
       </c>
+      <c r="E265">
+        <v>0</v>
+      </c>
       <c r="F265">
         <v>0</v>
       </c>
@@ -17588,6 +18350,9 @@
       <c r="D266">
         <v>11462</v>
       </c>
+      <c r="E266">
+        <v>10490</v>
+      </c>
       <c r="F266">
         <v>10490</v>
       </c>
@@ -17650,6 +18415,9 @@
       <c r="D267">
         <v>29434</v>
       </c>
+      <c r="E267">
+        <v>29433</v>
+      </c>
       <c r="F267">
         <v>19234</v>
       </c>
@@ -17712,6 +18480,9 @@
       <c r="D268">
         <v>16218</v>
       </c>
+      <c r="E268">
+        <v>12160</v>
+      </c>
       <c r="F268">
         <v>18845</v>
       </c>
@@ -17774,6 +18545,9 @@
       <c r="D269">
         <v>3150</v>
       </c>
+      <c r="E269">
+        <v>2213</v>
+      </c>
       <c r="F269">
         <v>6319</v>
       </c>
@@ -17836,6 +18610,9 @@
       <c r="D270">
         <v>0</v>
       </c>
+      <c r="E270">
+        <v>0</v>
+      </c>
       <c r="F270">
         <v>0</v>
       </c>
@@ -17898,6 +18675,9 @@
       <c r="D271">
         <v>9952</v>
       </c>
+      <c r="E271">
+        <v>7704</v>
+      </c>
       <c r="F271">
         <v>7704</v>
       </c>
@@ -17960,6 +18740,9 @@
       <c r="D272">
         <v>25230</v>
       </c>
+      <c r="E272">
+        <v>22392</v>
+      </c>
       <c r="F272">
         <v>13811</v>
       </c>
@@ -18022,6 +18805,9 @@
       <c r="D273">
         <v>14253</v>
       </c>
+      <c r="E273">
+        <v>9183</v>
+      </c>
       <c r="F273">
         <v>13682</v>
       </c>
@@ -18084,6 +18870,9 @@
       <c r="D274">
         <v>2530</v>
       </c>
+      <c r="E274">
+        <v>1496</v>
+      </c>
       <c r="F274">
         <v>4601</v>
       </c>
@@ -18146,6 +18935,9 @@
       <c r="D275">
         <v>0</v>
       </c>
+      <c r="E275">
+        <v>0</v>
+      </c>
       <c r="F275">
         <v>0</v>
       </c>
@@ -18208,6 +19000,9 @@
       <c r="D276">
         <v>4480</v>
       </c>
+      <c r="E276">
+        <v>2914</v>
+      </c>
       <c r="F276">
         <v>2914</v>
       </c>
@@ -18270,6 +19065,9 @@
       <c r="D277">
         <v>11351</v>
       </c>
+      <c r="E277">
+        <v>9469</v>
+      </c>
       <c r="F277">
         <v>5302</v>
       </c>
@@ -18332,6 +19130,9 @@
       <c r="D278">
         <v>6623</v>
       </c>
+      <c r="E278">
+        <v>3727</v>
+      </c>
       <c r="F278">
         <v>5167</v>
       </c>
@@ -18394,6 +19195,9 @@
       <c r="D279">
         <v>1077</v>
       </c>
+      <c r="E279">
+        <v>545</v>
+      </c>
       <c r="F279">
         <v>1689</v>
       </c>
@@ -18456,6 +19260,9 @@
       <c r="D280">
         <v>0</v>
       </c>
+      <c r="E280">
+        <v>0</v>
+      </c>
       <c r="F280">
         <v>0</v>
       </c>
@@ -18518,6 +19325,9 @@
       <c r="D281">
         <v>900</v>
       </c>
+      <c r="E281">
+        <v>752</v>
+      </c>
       <c r="F281">
         <v>752</v>
       </c>
@@ -18580,6 +19390,9 @@
       <c r="D282">
         <v>2182</v>
       </c>
+      <c r="E282">
+        <v>2927</v>
+      </c>
       <c r="F282">
         <v>1369</v>
       </c>
@@ -18642,6 +19455,9 @@
       <c r="D283">
         <v>1359</v>
       </c>
+      <c r="E283">
+        <v>917</v>
+      </c>
       <c r="F283">
         <v>1278</v>
       </c>
@@ -18704,6 +19520,9 @@
       <c r="D284">
         <v>186</v>
       </c>
+      <c r="E284">
+        <v>130</v>
+      </c>
       <c r="F284">
         <v>429</v>
       </c>
@@ -18766,6 +19585,9 @@
       <c r="D285">
         <v>0</v>
       </c>
+      <c r="E285">
+        <v>0</v>
+      </c>
       <c r="F285">
         <v>0</v>
       </c>
@@ -18828,6 +19650,9 @@
       <c r="D286">
         <v>486</v>
       </c>
+      <c r="E286">
+        <v>286</v>
+      </c>
       <c r="F286">
         <v>286</v>
       </c>
@@ -18890,6 +19715,9 @@
       <c r="D287">
         <v>1196</v>
       </c>
+      <c r="E287">
+        <v>1025</v>
+      </c>
       <c r="F287">
         <v>554</v>
       </c>
@@ -18952,6 +19780,9 @@
       <c r="D288">
         <v>785</v>
       </c>
+      <c r="E288">
+        <v>388</v>
+      </c>
       <c r="F288">
         <v>492</v>
       </c>
@@ -19014,6 +19845,9 @@
       <c r="D289">
         <v>194</v>
       </c>
+      <c r="E289">
+        <v>85</v>
+      </c>
       <c r="F289">
         <v>164</v>
       </c>
@@ -19076,6 +19910,9 @@
       <c r="D290">
         <v>0</v>
       </c>
+      <c r="E290">
+        <v>0</v>
+      </c>
       <c r="F290">
         <v>0</v>
       </c>
@@ -19138,6 +19975,9 @@
       <c r="D291">
         <v>1226</v>
       </c>
+      <c r="E291">
+        <v>432</v>
+      </c>
       <c r="F291">
         <v>432</v>
       </c>
@@ -19200,6 +20040,9 @@
       <c r="D292">
         <v>3156</v>
       </c>
+      <c r="E292">
+        <v>1237</v>
+      </c>
       <c r="F292">
         <v>838</v>
       </c>
@@ -19262,6 +20105,9 @@
       <c r="D293">
         <v>1865</v>
       </c>
+      <c r="E293">
+        <v>597</v>
+      </c>
       <c r="F293">
         <v>762</v>
       </c>
@@ -19324,6 +20170,9 @@
       <c r="D294">
         <v>381</v>
       </c>
+      <c r="E294">
+        <v>78</v>
+      </c>
       <c r="F294">
         <v>264</v>
       </c>
@@ -19386,6 +20235,9 @@
       <c r="D295">
         <v>0</v>
       </c>
+      <c r="E295">
+        <v>0</v>
+      </c>
       <c r="F295">
         <v>0</v>
       </c>
@@ -19448,6 +20300,9 @@
       <c r="D296">
         <v>1766</v>
       </c>
+      <c r="E296">
+        <v>506</v>
+      </c>
       <c r="F296">
         <v>506</v>
       </c>
@@ -19510,6 +20365,9 @@
       <c r="D297">
         <v>4579</v>
       </c>
+      <c r="E297">
+        <v>1423</v>
+      </c>
       <c r="F297">
         <v>918</v>
       </c>
@@ -19572,6 +20430,9 @@
       <c r="D298">
         <v>2482</v>
       </c>
+      <c r="E298">
+        <v>647</v>
+      </c>
       <c r="F298">
         <v>895</v>
       </c>
@@ -19634,6 +20495,9 @@
       <c r="D299">
         <v>465</v>
       </c>
+      <c r="E299">
+        <v>88</v>
+      </c>
       <c r="F299">
         <v>299</v>
       </c>
@@ -19696,6 +20560,9 @@
       <c r="D300">
         <v>0</v>
       </c>
+      <c r="E300">
+        <v>0</v>
+      </c>
       <c r="F300">
         <v>0</v>
       </c>
@@ -19758,6 +20625,9 @@
       <c r="D301">
         <v>1026</v>
       </c>
+      <c r="E301">
+        <v>188</v>
+      </c>
       <c r="F301">
         <v>188</v>
       </c>
@@ -19820,6 +20690,9 @@
       <c r="D302">
         <v>2729</v>
       </c>
+      <c r="E302">
+        <v>587</v>
+      </c>
       <c r="F302">
         <v>354</v>
       </c>
@@ -19882,6 +20755,9 @@
       <c r="D303">
         <v>1392</v>
       </c>
+      <c r="E303">
+        <v>253</v>
+      </c>
       <c r="F303">
         <v>329</v>
       </c>
@@ -19944,6 +20820,9 @@
       <c r="D304">
         <v>247</v>
       </c>
+      <c r="E304">
+        <v>44</v>
+      </c>
       <c r="F304">
         <v>106</v>
       </c>
@@ -20006,6 +20885,9 @@
       <c r="D305">
         <v>0</v>
       </c>
+      <c r="E305">
+        <v>0</v>
+      </c>
       <c r="F305">
         <v>0</v>
       </c>
@@ -20062,6 +20944,9 @@
       <c r="D306">
         <v>120</v>
       </c>
+      <c r="E306">
+        <v>14</v>
+      </c>
       <c r="F306">
         <v>14</v>
       </c>
@@ -20118,6 +21003,9 @@
       <c r="D307">
         <v>294</v>
       </c>
+      <c r="E307">
+        <v>93</v>
+      </c>
       <c r="F307">
         <v>28</v>
       </c>
@@ -20174,6 +21062,9 @@
       <c r="D308">
         <v>191</v>
       </c>
+      <c r="E308">
+        <v>18</v>
+      </c>
       <c r="F308">
         <v>26</v>
       </c>
@@ -20230,6 +21121,9 @@
       <c r="D309">
         <v>21</v>
       </c>
+      <c r="E309">
+        <v>4</v>
+      </c>
       <c r="F309">
         <v>7</v>
       </c>
@@ -20286,6 +21180,9 @@
       <c r="D310">
         <v>0</v>
       </c>
+      <c r="E310">
+        <v>0</v>
+      </c>
       <c r="H310">
         <v>0</v>
       </c>
@@ -20336,6 +21233,9 @@
       <c r="D311">
         <v>2</v>
       </c>
+      <c r="E311">
+        <v>0</v>
+      </c>
       <c r="H311">
         <v>112</v>
       </c>
@@ -20386,6 +21286,9 @@
       <c r="D312">
         <v>4</v>
       </c>
+      <c r="E312">
+        <v>12</v>
+      </c>
       <c r="H312">
         <v>280</v>
       </c>
@@ -22139,6 +23042,9 @@
       </c>
       <c r="D367">
         <v>74.977411843696004</v>
+      </c>
+      <c r="E367">
+        <v>72.359413592984495</v>
       </c>
       <c r="F367">
         <v>72.175648128046205</v>
